--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vvsu\7sem\TEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sysprofiles.adm.vvsu.ru\STUDENTRPROFILES$\one\Documents\GitHub\DESING\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,11 +21,8 @@
     <definedName name="НДФЛ">константы!$B$1</definedName>
     <definedName name="СОЦВЗНОСЫ">константы!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -258,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -398,7 +395,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -412,7 +409,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -484,7 +480,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F2FC-FE4F-AB12-AA1557455D37}"/>
             </c:ext>
@@ -526,7 +522,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F2FC-FE4F-AB12-AA1557455D37}"/>
             </c:ext>
@@ -541,11 +537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-44829408"/>
-        <c:axId val="-44644384"/>
+        <c:axId val="622707728"/>
+        <c:axId val="622708288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-44829408"/>
+        <c:axId val="622707728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +583,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-44644384"/>
+        <c:crossAx val="622708288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -595,7 +591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-44644384"/>
+        <c:axId val="622708288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +642,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-44829408"/>
+        <c:crossAx val="622707728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -660,7 +656,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -723,7 +718,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -737,7 +732,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -848,7 +842,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F92-A04B-B343-370A0633F8EB}"/>
             </c:ext>
@@ -929,7 +923,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F92-A04B-B343-370A0633F8EB}"/>
             </c:ext>
@@ -944,11 +938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-154200848"/>
-        <c:axId val="-46349984"/>
+        <c:axId val="625002896"/>
+        <c:axId val="625003456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-154200848"/>
+        <c:axId val="625002896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +984,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-46349984"/>
+        <c:crossAx val="625003456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,7 +992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-46349984"/>
+        <c:axId val="625003456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1043,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-154200848"/>
+        <c:crossAx val="625002896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1063,7 +1057,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2243,7 +2236,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2269,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,10 +2558,10 @@
   <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27:O27"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2584,8 +2577,8 @@
         <v>72</v>
       </c>
       <c r="B1" s="7">
-        <f ca="1">O71</f>
-        <v>2336956.1962487828</v>
+        <f>O71</f>
+        <v>2544237.965494717</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -52656,51 +52649,51 @@
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <f>$B20</f>
+        <f t="shared" ref="D20:O21" si="14">$B20</f>
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O20" s="4">
-        <f>$B20</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -52716,51 +52709,51 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O21" s="5">
-        <f>$B21</f>
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -52769,55 +52762,55 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f>-C5*C20*C21</f>
+        <f t="shared" ref="C22:O22" si="15">-C5*C20*C21</f>
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <f>-D5*D20*D21</f>
+        <f t="shared" si="15"/>
         <v>-5738.0624999999991</v>
       </c>
       <c r="E22" s="3">
-        <f>-E5*E20*E21</f>
+        <f t="shared" si="15"/>
         <v>-15068.152124999999</v>
       </c>
       <c r="F22" s="3">
-        <f>-F5*F20*F21</f>
+        <f t="shared" si="15"/>
         <v>-11706.795112499998</v>
       </c>
       <c r="G22" s="3">
-        <f>-G5*G20*G21</f>
+        <f t="shared" si="15"/>
         <v>-14188.635676350001</v>
       </c>
       <c r="H22" s="3">
-        <f>-H5*H20*H21</f>
+        <f t="shared" si="15"/>
         <v>-14927.627117826563</v>
       </c>
       <c r="I22" s="3">
-        <f>-I5*I20*I21</f>
+        <f t="shared" si="15"/>
         <v>-8443.0658978427036</v>
       </c>
       <c r="J22" s="3">
-        <f>-J5*J20*J21</f>
+        <f t="shared" si="15"/>
         <v>-12182.137938315902</v>
       </c>
       <c r="K22" s="3">
-        <f>-K5*K20*K21</f>
+        <f t="shared" si="15"/>
         <v>-13534.355249468968</v>
       </c>
       <c r="L22" s="3">
-        <f>-L5*L20*L21</f>
+        <f t="shared" si="15"/>
         <v>-14291.048747507457</v>
       </c>
       <c r="M22" s="3">
-        <f>-M5*M20*M21</f>
+        <f t="shared" si="15"/>
         <v>-15061.522679981774</v>
       </c>
       <c r="N22" s="3">
-        <f>-N5*N20*N21</f>
+        <f t="shared" si="15"/>
         <v>-12676.781588984659</v>
       </c>
       <c r="O22" s="3">
-        <f>-O5*O20*O21</f>
+        <f t="shared" si="15"/>
         <v>-7682.1296429247031</v>
       </c>
     </row>
@@ -52826,55 +52819,55 @@
         <v>21</v>
       </c>
       <c r="C23" s="7">
-        <f>C5+C17</f>
+        <f t="shared" ref="C23:O23" si="16">C5+C17</f>
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <f>D5+D17</f>
+        <f t="shared" si="16"/>
         <v>185530.68749999997</v>
       </c>
       <c r="E23" s="7">
-        <f>E5+E17</f>
+        <f t="shared" si="16"/>
         <v>487203.58537499997</v>
       </c>
       <c r="F23" s="7">
-        <f>F5+F17</f>
+        <f t="shared" si="16"/>
         <v>378519.70863749995</v>
       </c>
       <c r="G23" s="7">
-        <f>G5+G17</f>
+        <f t="shared" si="16"/>
         <v>458765.88686865004</v>
       </c>
       <c r="H23" s="7">
-        <f>H5+H17</f>
+        <f t="shared" si="16"/>
         <v>482659.94347639225</v>
       </c>
       <c r="I23" s="7">
-        <f>I5+I17</f>
+        <f t="shared" si="16"/>
         <v>272992.46403024741</v>
       </c>
       <c r="J23" s="7">
-        <f>J5+J17</f>
+        <f t="shared" si="16"/>
         <v>393889.12667221413</v>
       </c>
       <c r="K23" s="7">
-        <f>K5+K17</f>
+        <f t="shared" si="16"/>
         <v>437610.81973282999</v>
       </c>
       <c r="L23" s="7">
-        <f>L5+L17</f>
+        <f t="shared" si="16"/>
         <v>462077.2428360745</v>
       </c>
       <c r="M23" s="7">
-        <f>M5+M17</f>
+        <f t="shared" si="16"/>
         <v>486989.23331941071</v>
       </c>
       <c r="N23" s="7">
-        <f>N5+N17</f>
+        <f t="shared" si="16"/>
         <v>409882.60471050401</v>
       </c>
       <c r="O23" s="7">
-        <f>O5+O17</f>
+        <f t="shared" si="16"/>
         <v>248388.8584545654</v>
       </c>
     </row>
@@ -52883,55 +52876,55 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>IFERROR(C23/C$5,"-")</f>
+        <f t="shared" ref="C24:O24" si="17">IFERROR(C23/C$5,"-")</f>
         <v>-</v>
       </c>
       <c r="D24" s="4">
-        <f>IFERROR(D23/D$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="E24" s="4">
-        <f>IFERROR(E23/E$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="F24" s="4">
-        <f>IFERROR(F23/F$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="G24" s="4">
-        <f>IFERROR(G23/G$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48500000000000004</v>
       </c>
       <c r="H24" s="4">
-        <f>IFERROR(H23/H$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48500000000000004</v>
       </c>
       <c r="I24" s="4">
-        <f>IFERROR(I23/I$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48500000000000004</v>
       </c>
       <c r="J24" s="4">
-        <f>IFERROR(J23/J$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="K24" s="4">
-        <f>IFERROR(K23/K$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="L24" s="4">
-        <f>IFERROR(L23/L$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="M24" s="4">
-        <f>IFERROR(M23/M$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="N24" s="4">
-        <f>IFERROR(N23/N$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="O24" s="4">
-        <f>IFERROR(O23/O$5,"-")</f>
+        <f t="shared" si="17"/>
         <v>0.48499999999999999</v>
       </c>
     </row>
@@ -52940,55 +52933,55 @@
         <v>23</v>
       </c>
       <c r="C25" s="7">
-        <f>SUM(C28:C30)</f>
+        <f t="shared" ref="C25:O25" si="18">SUM(C28:C30)</f>
         <v>-54896.551724137928</v>
       </c>
       <c r="D25" s="7">
-        <f>SUM(D28:D30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="E25" s="7">
-        <f>SUM(E28:E30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="F25" s="7">
-        <f>SUM(F28:F30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="G25" s="7">
-        <f>SUM(G28:G30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="H25" s="7">
-        <f>SUM(H28:H30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="I25" s="7">
-        <f>SUM(I28:I30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="J25" s="7">
-        <f>SUM(J28:J30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="K25" s="7">
-        <f>SUM(K28:K30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="L25" s="7">
-        <f>SUM(L28:L30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="M25" s="7">
-        <f>SUM(M28:M30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="N25" s="7">
-        <f>SUM(N28:N30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
       <c r="O25" s="7">
-        <f>SUM(O28:O30)</f>
+        <f t="shared" si="18"/>
         <v>-54896.551724137928</v>
       </c>
     </row>
@@ -53093,51 +53086,51 @@
         <v>-44896.551724137928</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:O30" si="14">-$B28</f>
+        <f t="shared" ref="D28:O30" si="19">-$B28</f>
         <v>-44896.551724137928</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-44896.551724137928</v>
       </c>
     </row>
@@ -53153,51 +53146,51 @@
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -53213,51 +53206,51 @@
         <v>-10000</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>-10000</v>
       </c>
     </row>
@@ -53271,55 +53264,55 @@
         <v>26</v>
       </c>
       <c r="C32" s="7">
-        <f>C23+C25</f>
+        <f t="shared" ref="C32:O32" si="20">C23+C25</f>
         <v>-54896.551724137928</v>
       </c>
       <c r="D32" s="7">
-        <f>D23+D25</f>
+        <f t="shared" si="20"/>
         <v>130634.13577586204</v>
       </c>
       <c r="E32" s="7">
-        <f>E23+E25</f>
+        <f t="shared" si="20"/>
         <v>432307.03365086205</v>
       </c>
       <c r="F32" s="7">
-        <f>F23+F25</f>
+        <f t="shared" si="20"/>
         <v>323623.15691336204</v>
       </c>
       <c r="G32" s="7">
-        <f>G23+G25</f>
+        <f t="shared" si="20"/>
         <v>403869.33514451212</v>
       </c>
       <c r="H32" s="7">
-        <f>H23+H25</f>
+        <f t="shared" si="20"/>
         <v>427763.39175225433</v>
       </c>
       <c r="I32" s="7">
-        <f>I23+I25</f>
+        <f t="shared" si="20"/>
         <v>218095.9123061095</v>
       </c>
       <c r="J32" s="7">
-        <f>J23+J25</f>
+        <f t="shared" si="20"/>
         <v>338992.57494807622</v>
       </c>
       <c r="K32" s="7">
-        <f>K23+K25</f>
+        <f t="shared" si="20"/>
         <v>382714.26800869207</v>
       </c>
       <c r="L32" s="7">
-        <f>L23+L25</f>
+        <f t="shared" si="20"/>
         <v>407180.69111193658</v>
       </c>
       <c r="M32" s="7">
-        <f>M23+M25</f>
+        <f t="shared" si="20"/>
         <v>432092.68159527279</v>
       </c>
       <c r="N32" s="7">
-        <f>N23+N25</f>
+        <f t="shared" si="20"/>
         <v>354986.05298636609</v>
       </c>
       <c r="O32" s="7">
-        <f>O23+O25</f>
+        <f t="shared" si="20"/>
         <v>193492.30673042749</v>
       </c>
     </row>
@@ -53328,55 +53321,55 @@
         <v>27</v>
       </c>
       <c r="C33" s="7">
-        <f ca="1">SUM(C33:C34)</f>
+        <f>C34</f>
         <v>-30000</v>
       </c>
       <c r="D33" s="7">
-        <f ca="1">SUM(D33:D34)</f>
+        <f t="shared" ref="D33:O33" si="21">D34</f>
         <v>-30000</v>
       </c>
       <c r="E33" s="7">
-        <f ca="1">SUM(E33:E34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="F33" s="7">
-        <f ca="1">SUM(F33:F34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="G33" s="7">
-        <f ca="1">SUM(G33:G34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="H33" s="7">
-        <f ca="1">SUM(H33:H34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="I33" s="7">
-        <f ca="1">SUM(I33:I34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="J33" s="7">
-        <f ca="1">SUM(J33:J34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="K33" s="7">
-        <f ca="1">SUM(K33:K34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="L33" s="7">
-        <f ca="1">SUM(L33:L34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="M33" s="7">
-        <f ca="1">SUM(M33:M34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="N33" s="7">
-        <f ca="1">SUM(N33:N34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
       <c r="O33" s="7">
-        <f ca="1">SUM(O33:O34)</f>
+        <f t="shared" si="21"/>
         <v>-30000</v>
       </c>
     </row>
@@ -53388,55 +53381,55 @@
         <v>30000</v>
       </c>
       <c r="C34" s="3">
-        <f>-$B34</f>
+        <f t="shared" ref="C34:O34" si="22">-$B34</f>
         <v>-30000</v>
       </c>
       <c r="D34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="E34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="F34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="G34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="H34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="I34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="J34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="K34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="L34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="M34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="N34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
       <c r="O34" s="3">
-        <f>-$B34</f>
+        <f t="shared" si="22"/>
         <v>-30000</v>
       </c>
     </row>
@@ -53446,56 +53439,56 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7">
-        <f ca="1">C32+C33</f>
+        <f t="shared" ref="C35:O35" si="23">C32+C33</f>
         <v>-84896.551724137928</v>
       </c>
       <c r="D35" s="7">
-        <f ca="1">D32+D33</f>
-        <v>101069.69827586207</v>
+        <f t="shared" si="23"/>
+        <v>100634.13577586204</v>
       </c>
       <c r="E35" s="7">
-        <f ca="1">E32+E33</f>
-        <v>403450.82077586203</v>
+        <f t="shared" si="23"/>
+        <v>402307.03365086205</v>
       </c>
       <c r="F35" s="7">
-        <f ca="1">F32+F33</f>
-        <v>294511.79152586206</v>
+        <f t="shared" si="23"/>
+        <v>293623.15691336204</v>
       </c>
       <c r="G35" s="7">
-        <f ca="1">G32+G33</f>
-        <v>374946.36029486207</v>
+        <f t="shared" si="23"/>
+        <v>373869.33514451212</v>
       </c>
       <c r="H35" s="7">
-        <f ca="1">H32+H33</f>
-        <v>398896.51196251839</v>
+        <f t="shared" si="23"/>
+        <v>397763.39175225433</v>
       </c>
       <c r="I35" s="7">
-        <f ca="1">I32+I33</f>
-        <v>188736.80509703484</v>
+        <f t="shared" si="23"/>
+        <v>188095.9123061095</v>
       </c>
       <c r="J35" s="7">
-        <f ca="1">J32+J33</f>
-        <v>309917.29168926855</v>
+        <f t="shared" si="23"/>
+        <v>308992.57494807622</v>
       </c>
       <c r="K35" s="7">
-        <f ca="1">K32+K33</f>
-        <v>353741.62830815668</v>
+        <f t="shared" si="23"/>
+        <v>352714.26800869207</v>
       </c>
       <c r="L35" s="7">
-        <f ca="1">L32+L33</f>
-        <v>378265.49019178038</v>
+        <f t="shared" si="23"/>
+        <v>377180.69111193658</v>
       </c>
       <c r="M35" s="7">
-        <f ca="1">M32+M33</f>
-        <v>403235.96549507335</v>
+        <f t="shared" si="23"/>
+        <v>402092.68159527279</v>
       </c>
       <c r="N35" s="7">
-        <f ca="1">N32+N33</f>
-        <v>325948.31693536497</v>
+        <f t="shared" si="23"/>
+        <v>324986.05298636609</v>
       </c>
       <c r="O35" s="7">
-        <f ca="1">O32+O33</f>
-        <v>164075.43868352077</v>
+        <f t="shared" si="23"/>
+        <v>163492.30673042749</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -53504,56 +53497,56 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7">
-        <f ca="1">C35+#REF!+#REF!</f>
+        <f>C35</f>
         <v>-84896.551724137928</v>
       </c>
       <c r="D36" s="7">
-        <f ca="1">D35+#REF!+#REF!</f>
-        <v>89091.387773578957</v>
+        <f t="shared" ref="D36:O36" si="24">D35</f>
+        <v>100634.13577586204</v>
       </c>
       <c r="E36" s="7">
-        <f ca="1">E35+#REF!+#REF!</f>
-        <v>391487.69292198075</v>
+        <f t="shared" si="24"/>
+        <v>402307.03365086205</v>
       </c>
       <c r="F36" s="7">
-        <f ca="1">F35+#REF!+#REF!</f>
-        <v>282615.90111490316</v>
+        <f t="shared" si="24"/>
+        <v>293623.15691336204</v>
       </c>
       <c r="G36" s="7">
-        <f ca="1">G35+#REF!+#REF!</f>
-        <v>363254.35116244195</v>
+        <f t="shared" si="24"/>
+        <v>373869.33514451212</v>
       </c>
       <c r="H36" s="7">
-        <f ca="1">H35+#REF!+#REF!</f>
-        <v>387135.09643740422</v>
+        <f t="shared" si="24"/>
+        <v>397763.39175225433</v>
       </c>
       <c r="I36" s="7">
-        <f ca="1">I35+#REF!+#REF!</f>
-        <v>177083.83706050518</v>
+        <f t="shared" si="24"/>
+        <v>188095.9123061095</v>
       </c>
       <c r="J36" s="7">
-        <f ca="1">J35+#REF!+#REF!</f>
-        <v>298290.35104999912</v>
+        <f t="shared" si="24"/>
+        <v>308992.57494807622</v>
       </c>
       <c r="K36" s="7">
-        <f ca="1">K35+#REF!+#REF!</f>
-        <v>342218.79725792835</v>
+        <f t="shared" si="24"/>
+        <v>352714.26800869207</v>
       </c>
       <c r="L36" s="7">
-        <f ca="1">L35+#REF!+#REF!</f>
-        <v>366773.0244383557</v>
+        <f t="shared" si="24"/>
+        <v>377180.69111193658</v>
       </c>
       <c r="M36" s="7">
-        <f ca="1">M35+#REF!+#REF!</f>
-        <v>391810.73718457104</v>
+        <f t="shared" si="24"/>
+        <v>402092.68159527279</v>
       </c>
       <c r="N36" s="7">
-        <f ca="1">N35+#REF!+#REF!</f>
-        <v>314620.69136458868</v>
+        <f t="shared" si="24"/>
+        <v>324986.05298636609</v>
       </c>
       <c r="O36" s="7">
-        <f ca="1">O35+#REF!+#REF!</f>
-        <v>152784.68525886323</v>
+        <f t="shared" si="24"/>
+        <v>163492.30673042749</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -53561,55 +53554,55 @@
         <v>31</v>
       </c>
       <c r="C37" s="3">
-        <f>C43</f>
+        <f t="shared" ref="C37:O37" si="25">C43</f>
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <f>D43</f>
+        <f t="shared" si="25"/>
         <v>-22952.249999999996</v>
       </c>
       <c r="E37" s="3">
-        <f>E43</f>
+        <f t="shared" si="25"/>
         <v>-60272.608499999995</v>
       </c>
       <c r="F37" s="3">
-        <f>F43</f>
+        <f t="shared" si="25"/>
         <v>-46827.180449999993</v>
       </c>
       <c r="G37" s="3">
-        <f>G43</f>
+        <f t="shared" si="25"/>
         <v>-56754.542705400003</v>
       </c>
       <c r="H37" s="3">
-        <f>H43</f>
+        <f t="shared" si="25"/>
         <v>-59710.508471306253</v>
       </c>
       <c r="I37" s="3">
-        <f>I43</f>
+        <f t="shared" si="25"/>
         <v>-33772.263591370815</v>
       </c>
       <c r="J37" s="3">
-        <f>J43</f>
+        <f t="shared" si="25"/>
         <v>-48728.551753263608</v>
       </c>
       <c r="K37" s="3">
-        <f>K43</f>
+        <f t="shared" si="25"/>
         <v>-54137.420997875874</v>
       </c>
       <c r="L37" s="3">
-        <f>L43</f>
+        <f t="shared" si="25"/>
         <v>-57164.194990029828</v>
       </c>
       <c r="M37" s="3">
-        <f>M43</f>
+        <f t="shared" si="25"/>
         <v>-60246.090719927095</v>
       </c>
       <c r="N37" s="3">
-        <f>N43</f>
+        <f t="shared" si="25"/>
         <v>-50707.126355938635</v>
       </c>
       <c r="O37" s="3">
-        <f>O43</f>
+        <f t="shared" si="25"/>
         <v>-30728.518571698813</v>
       </c>
     </row>
@@ -53618,56 +53611,56 @@
         <v>32</v>
       </c>
       <c r="C38" s="3">
-        <f ca="1">C36+C37</f>
+        <f>C36+C37</f>
         <v>-84896.551724137928</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:O38" ca="1" si="15">D36+D37</f>
-        <v>66366.387773578957</v>
+        <f t="shared" ref="D38:O38" si="26">D36+D37</f>
+        <v>77681.885775862043</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>331811.84292198077</v>
+        <f t="shared" si="26"/>
+        <v>342034.42515086208</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>236252.35611490317</v>
+        <f t="shared" si="26"/>
+        <v>246795.97646336205</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>307061.73462244193</v>
+        <f t="shared" si="26"/>
+        <v>317114.79243911209</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>328015.78111927921</v>
+        <f t="shared" si="26"/>
+        <v>338052.8832809481</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>143645.95231657368</v>
+        <f t="shared" si="26"/>
+        <v>154323.64871473869</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>250044.26020518367</v>
+        <f t="shared" si="26"/>
+        <v>260264.02319481262</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>288617.39032933838</v>
+        <f t="shared" si="26"/>
+        <v>298576.84701081621</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>310174.81157694</v>
+        <f t="shared" si="26"/>
+        <v>320016.49612190673</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>332161.142412366</v>
+        <f t="shared" si="26"/>
+        <v>341846.59087534569</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>264415.61576464941</v>
+        <f t="shared" si="26"/>
+        <v>274278.92663042748</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" ca="1" si="15"/>
-        <v>122360.40944530006</v>
+        <f t="shared" si="26"/>
+        <v>132763.78815872868</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53676,56 +53669,56 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
-        <f ca="1">SUM($C38:C38)</f>
+        <f>SUM($C38:C38)</f>
         <v>-84896.551724137928</v>
       </c>
       <c r="D39" s="3">
-        <f ca="1">SUM($C38:D38)</f>
-        <v>-18530.16395055897</v>
+        <f>SUM($C38:D38)</f>
+        <v>-7214.6659482758841</v>
       </c>
       <c r="E39" s="3">
-        <f ca="1">SUM($C38:E38)</f>
-        <v>313281.67897142179</v>
+        <f>SUM($C38:E38)</f>
+        <v>334819.7592025862</v>
       </c>
       <c r="F39" s="3">
-        <f ca="1">SUM($C38:F38)</f>
-        <v>549534.0350863249</v>
+        <f>SUM($C38:F38)</f>
+        <v>581615.73566594825</v>
       </c>
       <c r="G39" s="3">
-        <f ca="1">SUM($C38:G38)</f>
-        <v>856595.76970876683</v>
+        <f>SUM($C38:G38)</f>
+        <v>898730.52810506034</v>
       </c>
       <c r="H39" s="3">
-        <f ca="1">SUM($C38:H38)</f>
-        <v>1184611.5508280462</v>
+        <f>SUM($C38:H38)</f>
+        <v>1236783.4113860084</v>
       </c>
       <c r="I39" s="3">
-        <f ca="1">SUM($C38:I38)</f>
-        <v>1328257.5031446198</v>
+        <f>SUM($C38:I38)</f>
+        <v>1391107.060100747</v>
       </c>
       <c r="J39" s="3">
-        <f ca="1">SUM($C38:J38)</f>
-        <v>1578301.7633498034</v>
+        <f>SUM($C38:J38)</f>
+        <v>1651371.0832955597</v>
       </c>
       <c r="K39" s="3">
-        <f ca="1">SUM($C38:K38)</f>
-        <v>1866919.1536791418</v>
+        <f>SUM($C38:K38)</f>
+        <v>1949947.930306376</v>
       </c>
       <c r="L39" s="3">
-        <f ca="1">SUM($C38:L38)</f>
-        <v>2177093.9652560819</v>
+        <f>SUM($C38:L38)</f>
+        <v>2269964.4264282826</v>
       </c>
       <c r="M39" s="3">
-        <f ca="1">SUM($C38:M38)</f>
-        <v>2509255.1076684478</v>
+        <f>SUM($C38:M38)</f>
+        <v>2611811.0173036284</v>
       </c>
       <c r="N39" s="3">
-        <f ca="1">SUM($C38:N38)</f>
-        <v>2773670.7234330974</v>
+        <f>SUM($C38:N38)</f>
+        <v>2886089.943934056</v>
       </c>
       <c r="O39" s="3">
-        <f ca="1">SUM($C38:O38)</f>
-        <v>2896031.1328783976</v>
+        <f>SUM($C38:O38)</f>
+        <v>3018853.7320927847</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -53755,55 +53748,55 @@
         <v>0.06</v>
       </c>
       <c r="C41" s="4">
-        <f>$B41</f>
+        <f t="shared" ref="C41:O41" si="27">$B41</f>
         <v>0.06</v>
       </c>
       <c r="D41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="E41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="F41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="G41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="H41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="I41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="J41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="K41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="L41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="M41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="N41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
       <c r="O41" s="4">
-        <f>$B41</f>
+        <f t="shared" si="27"/>
         <v>0.06</v>
       </c>
     </row>
@@ -53813,55 +53806,55 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <f>C5</f>
+        <f t="shared" ref="C42:O42" si="28">C5</f>
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <f>D5</f>
+        <f t="shared" si="28"/>
         <v>382537.49999999994</v>
       </c>
       <c r="E42" s="3">
-        <f>E5</f>
+        <f t="shared" si="28"/>
         <v>1004543.475</v>
       </c>
       <c r="F42" s="3">
-        <f>F5</f>
+        <f t="shared" si="28"/>
         <v>780453.00749999995</v>
       </c>
       <c r="G42" s="3">
-        <f>G5</f>
+        <f t="shared" si="28"/>
         <v>945909.04509000003</v>
       </c>
       <c r="H42" s="3">
-        <f>H5</f>
+        <f t="shared" si="28"/>
         <v>995175.14118843758</v>
       </c>
       <c r="I42" s="3">
-        <f>I5</f>
+        <f t="shared" si="28"/>
         <v>562871.05985618022</v>
       </c>
       <c r="J42" s="3">
-        <f>J5</f>
+        <f t="shared" si="28"/>
         <v>812142.5292210601</v>
       </c>
       <c r="K42" s="3">
-        <f>K5</f>
+        <f t="shared" si="28"/>
         <v>902290.34996459796</v>
       </c>
       <c r="L42" s="3">
-        <f>L5</f>
+        <f t="shared" si="28"/>
         <v>952736.58316716389</v>
       </c>
       <c r="M42" s="3">
-        <f>M5</f>
+        <f t="shared" si="28"/>
         <v>1004101.511998785</v>
       </c>
       <c r="N42" s="3">
-        <f>N5</f>
+        <f t="shared" si="28"/>
         <v>845118.77259897732</v>
       </c>
       <c r="O42" s="3">
-        <f>O5</f>
+        <f t="shared" si="28"/>
         <v>512141.97619498021</v>
       </c>
     </row>
@@ -53874,51 +53867,51 @@
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:O43" si="16">-D41*D42</f>
+        <f t="shared" ref="D43:O43" si="29">-D41*D42</f>
         <v>-22952.249999999996</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-60272.608499999995</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-46827.180449999993</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-56754.542705400003</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-59710.508471306253</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-33772.263591370815</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-48728.551753263608</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-54137.420997875874</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-57164.194990029828</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-60246.090719927095</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-50707.126355938635</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-30728.518571698813</v>
       </c>
     </row>
@@ -54226,56 +54219,56 @@
         <v>44</v>
       </c>
       <c r="C52" s="3">
-        <f>B56</f>
+        <f t="shared" ref="C52:O52" si="30">B56</f>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f ca="1">C56</f>
-        <v>-224896.55172413791</v>
+        <f t="shared" si="30"/>
+        <v>-84896.551724137928</v>
       </c>
       <c r="E52" s="3">
-        <f ca="1">D56</f>
-        <v>-133342.66395055896</v>
+        <f t="shared" si="30"/>
+        <v>-7214.6659482758841</v>
       </c>
       <c r="F52" s="3">
-        <f ca="1">E56</f>
-        <v>235511.55397142182</v>
+        <f t="shared" si="30"/>
+        <v>334819.7592025862</v>
       </c>
       <c r="G52" s="3">
-        <f ca="1">F56</f>
-        <v>466920.32258632506</v>
+        <f t="shared" si="30"/>
+        <v>581615.73566594825</v>
       </c>
       <c r="H52" s="3">
-        <f ca="1">G56</f>
-        <v>788422.95015876694</v>
+        <f t="shared" si="30"/>
+        <v>898730.52810506034</v>
       </c>
       <c r="I52" s="3">
-        <f ca="1">H56</f>
-        <v>1125127.6469264836</v>
+        <f t="shared" si="30"/>
+        <v>1236783.4113860084</v>
       </c>
       <c r="J52" s="3">
-        <f ca="1">I56</f>
-        <v>1253622.4070978961</v>
+        <f t="shared" si="30"/>
+        <v>1391107.060100747</v>
       </c>
       <c r="K52" s="3">
-        <f ca="1">J56</f>
-        <v>1522256.8390538164</v>
+        <f t="shared" si="30"/>
+        <v>1651371.0832955597</v>
       </c>
       <c r="L52" s="3">
-        <f ca="1">K56</f>
-        <v>1821586.9927863001</v>
+        <f t="shared" si="30"/>
+        <v>1949947.930306376</v>
       </c>
       <c r="M52" s="3">
-        <f ca="1">L56</f>
-        <v>2140509.1426405949</v>
+        <f t="shared" si="30"/>
+        <v>2269964.4264282826</v>
       </c>
       <c r="N52" s="3">
-        <f ca="1">M56</f>
-        <v>2481463.1033119522</v>
+        <f t="shared" si="30"/>
+        <v>2611811.0173036284</v>
       </c>
       <c r="O52" s="3">
-        <f ca="1">N56</f>
-        <v>2744258.2864330467</v>
+        <f t="shared" si="30"/>
+        <v>2886089.943934056</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -54283,56 +54276,56 @@
         <v>45</v>
       </c>
       <c r="C53" s="3">
-        <f ca="1">C35-C46+0+C37</f>
-        <v>0</v>
+        <f>C35-C46+0+C37</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" ref="D53:H53" ca="1" si="17">D35-D46+0+D37</f>
-        <v>0</v>
+        <f t="shared" ref="D53:H53" si="31">D35-D46+0+D37</f>
+        <v>77681.885775862043</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>342034.42515086208</v>
       </c>
       <c r="F53" s="3">
-        <f ca="1">F35-F46+0+F37</f>
-        <v>0</v>
+        <f>F35-F46+0+F37</f>
+        <v>246795.97646336205</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>317114.79243911209</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>338052.8832809481</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" ref="D53:N53" ca="1" si="18">I35-I46+0+I37</f>
-        <v>0</v>
+        <f t="shared" ref="I53:N53" si="32">I35-I46+0+I37</f>
+        <v>154323.64871473869</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>260264.02319481262</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>298576.84701081621</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>320016.49612190673</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>341846.59087534569</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>274278.92663042748</v>
       </c>
       <c r="O53" s="3">
-        <f ca="1">O35-O46+0+O37</f>
-        <v>0</v>
+        <f>O35-O46+0+O37</f>
+        <v>132763.78815872868</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -54340,55 +54333,55 @@
         <v>46</v>
       </c>
       <c r="C54" s="3">
-        <f>C92+C93+C96+C97</f>
+        <f t="shared" ref="C54:O54" si="33">C92+C93+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <f>D92+D93+D96+D97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <f>E92+E93+E96+E97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <f>F92+F93+F96+F97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <f>G92+G93+G96+G97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <f>H92+H93+H96+H97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <f>I92+I93+I96+I97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <f>J92+J93+J96+J97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f>K92+K93+K96+K97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <f>L92+L93+L96+L97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <f>M92+M93+M96+M97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <f>N92+N93+N96+N97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <f>O92+O93+O96+O97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -54397,56 +54390,56 @@
         <v>47</v>
       </c>
       <c r="C55" s="3">
-        <f ca="1">SUM(C53:C54)</f>
-        <v>-224896.55172413791</v>
+        <f t="shared" ref="C55:O55" si="34">SUM(C53:C54)</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D55" s="3">
-        <f ca="1">SUM(D53:D54)</f>
-        <v>91553.887773578957</v>
+        <f t="shared" si="34"/>
+        <v>77681.885775862043</v>
       </c>
       <c r="E55" s="3">
-        <f ca="1">SUM(E53:E54)</f>
-        <v>368854.21792198077</v>
+        <f t="shared" si="34"/>
+        <v>342034.42515086208</v>
       </c>
       <c r="F55" s="3">
-        <f ca="1">SUM(F53:F54)</f>
-        <v>231408.76861490324</v>
+        <f t="shared" si="34"/>
+        <v>246795.97646336205</v>
       </c>
       <c r="G55" s="3">
-        <f ca="1">SUM(G53:G54)</f>
-        <v>321502.62757244194</v>
+        <f t="shared" si="34"/>
+        <v>317114.79243911209</v>
       </c>
       <c r="H55" s="3">
-        <f ca="1">SUM(H53:H54)</f>
-        <v>336704.69676771673</v>
+        <f t="shared" si="34"/>
+        <v>338052.8832809481</v>
       </c>
       <c r="I55" s="3">
-        <f ca="1">SUM(I53:I54)</f>
-        <v>128494.76017141242</v>
+        <f t="shared" si="34"/>
+        <v>154323.64871473869</v>
       </c>
       <c r="J55" s="3">
-        <f ca="1">SUM(J53:J54)</f>
-        <v>268634.43195592036</v>
+        <f t="shared" si="34"/>
+        <v>260264.02319481262</v>
       </c>
       <c r="K55" s="3">
-        <f ca="1">SUM(K53:K54)</f>
-        <v>299330.1537324838</v>
+        <f t="shared" si="34"/>
+        <v>298576.84701081621</v>
       </c>
       <c r="L55" s="3">
-        <f ca="1">SUM(L53:L54)</f>
-        <v>318922.14985429472</v>
+        <f t="shared" si="34"/>
+        <v>320016.49612190673</v>
       </c>
       <c r="M55" s="3">
-        <f ca="1">SUM(M53:M54)</f>
-        <v>340953.96067135711</v>
+        <f t="shared" si="34"/>
+        <v>341846.59087534569</v>
       </c>
       <c r="N55" s="3">
-        <f ca="1">SUM(N53:N54)</f>
-        <v>262795.18312109454</v>
+        <f t="shared" si="34"/>
+        <v>274278.92663042748</v>
       </c>
       <c r="O55" s="3">
-        <f ca="1">SUM(O53:O54)</f>
-        <v>-170789.92371001336</v>
+        <f t="shared" si="34"/>
+        <v>132763.78815872868</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54455,56 +54448,56 @@
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
-        <f ca="1">C52+C55</f>
-        <v>-224896.55172413791</v>
+        <f t="shared" ref="C56:O56" si="35">C52+C55</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D56" s="14">
-        <f ca="1">D52+D55</f>
-        <v>-133342.66395055896</v>
+        <f t="shared" si="35"/>
+        <v>-7214.6659482758841</v>
       </c>
       <c r="E56" s="14">
-        <f ca="1">E52+E55</f>
-        <v>235511.55397142182</v>
+        <f t="shared" si="35"/>
+        <v>334819.7592025862</v>
       </c>
       <c r="F56" s="14">
-        <f ca="1">F52+F55</f>
-        <v>466920.32258632506</v>
+        <f t="shared" si="35"/>
+        <v>581615.73566594825</v>
       </c>
       <c r="G56" s="14">
-        <f ca="1">G52+G55</f>
-        <v>788422.95015876694</v>
+        <f t="shared" si="35"/>
+        <v>898730.52810506034</v>
       </c>
       <c r="H56" s="14">
-        <f ca="1">H52+H55</f>
-        <v>1125127.6469264836</v>
+        <f t="shared" si="35"/>
+        <v>1236783.4113860084</v>
       </c>
       <c r="I56" s="14">
-        <f ca="1">I52+I55</f>
-        <v>1253622.4070978961</v>
+        <f t="shared" si="35"/>
+        <v>1391107.060100747</v>
       </c>
       <c r="J56" s="14">
-        <f ca="1">J52+J55</f>
-        <v>1522256.8390538164</v>
+        <f t="shared" si="35"/>
+        <v>1651371.0832955597</v>
       </c>
       <c r="K56" s="14">
-        <f ca="1">K52+K55</f>
-        <v>1821586.9927863001</v>
+        <f t="shared" si="35"/>
+        <v>1949947.930306376</v>
       </c>
       <c r="L56" s="14">
-        <f ca="1">L52+L55</f>
-        <v>2140509.1426405949</v>
+        <f t="shared" si="35"/>
+        <v>2269964.4264282826</v>
       </c>
       <c r="M56" s="14">
-        <f ca="1">M52+M55</f>
-        <v>2481463.1033119522</v>
+        <f t="shared" si="35"/>
+        <v>2611811.0173036284</v>
       </c>
       <c r="N56" s="14">
-        <f ca="1">N52+N55</f>
-        <v>2744258.2864330467</v>
+        <f t="shared" si="35"/>
+        <v>2886089.943934056</v>
       </c>
       <c r="O56" s="14">
-        <f ca="1">O52+O55</f>
-        <v>2573468.3627230334</v>
+        <f t="shared" si="35"/>
+        <v>3018853.7320927847</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -54512,59 +54505,59 @@
         <v>49</v>
       </c>
       <c r="B57" s="3">
-        <f ca="1">SUM(C57:O57)</f>
+        <f>SUM(C57:O57)</f>
         <v>2</v>
       </c>
       <c r="C57" s="3">
-        <f ca="1">IF(C56&lt;0,1,0)</f>
+        <f>IF(C56&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" ref="D57:O57" ca="1" si="19">IF(D56&lt;0,1,0)</f>
+        <f t="shared" ref="D57:O57" si="36">IF(D56&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -54592,60 +54585,60 @@
         <v>52</v>
       </c>
       <c r="B59" s="7">
-        <f>SUM(B60:B60)</f>
+        <f>B60</f>
         <v>0</v>
       </c>
       <c r="C59" s="7">
-        <f ca="1">SUM(C60:C60)</f>
-        <v>25103.448275862087</v>
+        <f t="shared" ref="C59:O59" si="37">C60</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D59" s="7">
-        <f ca="1">SUM(D60:D60)</f>
-        <v>150428.16938277439</v>
+        <f t="shared" si="37"/>
+        <v>-7214.6659482758841</v>
       </c>
       <c r="E59" s="7">
-        <f ca="1">SUM(E60:E60)</f>
-        <v>580714.59563808842</v>
+        <f t="shared" si="37"/>
+        <v>334819.7592025862</v>
       </c>
       <c r="F59" s="7">
-        <f ca="1">SUM(F60:F60)</f>
-        <v>775821.66008632502</v>
+        <f t="shared" si="37"/>
+        <v>581615.73566594825</v>
       </c>
       <c r="G59" s="7">
-        <f ca="1">SUM(G60:G60)</f>
-        <v>1106019.7045421004</v>
+        <f t="shared" si="37"/>
+        <v>898730.52810506034</v>
       </c>
       <c r="H59" s="7">
-        <f ca="1">SUM(H60:H60)</f>
-        <v>1437998.5378228379</v>
+        <f t="shared" si="37"/>
+        <v>1236783.4113860084</v>
       </c>
       <c r="I59" s="7">
-        <f ca="1">SUM(I60:I60)</f>
-        <v>1506140.5163222074</v>
+        <f t="shared" si="37"/>
+        <v>1391107.060100747</v>
       </c>
       <c r="J59" s="7">
-        <f ca="1">SUM(J60:J60)</f>
-        <v>1793152.0156965132</v>
+        <f t="shared" si="37"/>
+        <v>1651371.0832955597</v>
       </c>
       <c r="K59" s="7">
-        <f ca="1">SUM(K60:K60)</f>
-        <v>2092478.6173696695</v>
+        <f t="shared" si="37"/>
+        <v>1949947.930306376</v>
       </c>
       <c r="L59" s="7">
-        <f ca="1">SUM(L60:L60)</f>
-        <v>2406811.2232044586</v>
+        <f t="shared" si="37"/>
+        <v>2269964.4264282826</v>
       </c>
       <c r="M59" s="7">
-        <f ca="1">SUM(M60:M60)</f>
-        <v>2743281.7598134624</v>
+        <f t="shared" si="37"/>
+        <v>2611811.0173036284</v>
       </c>
       <c r="N59" s="7">
-        <f ca="1">SUM(N60:N60)</f>
-        <v>2977295.9334329288</v>
+        <f t="shared" si="37"/>
+        <v>2886089.943934056</v>
       </c>
       <c r="O59" s="7">
-        <f ca="1">SUM(O60:O60)</f>
-        <v>2757626.6768049616</v>
+        <f t="shared" si="37"/>
+        <v>3018853.7320927847</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -54656,56 +54649,56 @@
         <v>0</v>
       </c>
       <c r="C60" s="3">
-        <f ca="1">B60+C55</f>
-        <v>-224896.55172413791</v>
+        <f t="shared" ref="C60:O60" si="38">B60+C55</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D60" s="3">
-        <f ca="1">C60+D55</f>
-        <v>-133342.66395055896</v>
+        <f t="shared" si="38"/>
+        <v>-7214.6659482758841</v>
       </c>
       <c r="E60" s="3">
-        <f ca="1">D60+E55</f>
-        <v>235511.55397142182</v>
+        <f t="shared" si="38"/>
+        <v>334819.7592025862</v>
       </c>
       <c r="F60" s="3">
-        <f ca="1">E60+F55</f>
-        <v>466920.32258632506</v>
+        <f t="shared" si="38"/>
+        <v>581615.73566594825</v>
       </c>
       <c r="G60" s="3">
-        <f ca="1">F60+G55</f>
-        <v>788422.95015876694</v>
+        <f t="shared" si="38"/>
+        <v>898730.52810506034</v>
       </c>
       <c r="H60" s="3">
-        <f ca="1">G60+H55</f>
-        <v>1125127.6469264836</v>
+        <f t="shared" si="38"/>
+        <v>1236783.4113860084</v>
       </c>
       <c r="I60" s="3">
-        <f ca="1">H60+I55</f>
-        <v>1253622.4070978961</v>
+        <f t="shared" si="38"/>
+        <v>1391107.060100747</v>
       </c>
       <c r="J60" s="3">
-        <f ca="1">I60+J55</f>
-        <v>1522256.8390538164</v>
+        <f t="shared" si="38"/>
+        <v>1651371.0832955597</v>
       </c>
       <c r="K60" s="3">
-        <f ca="1">J60+K55</f>
-        <v>1821586.9927863001</v>
+        <f t="shared" si="38"/>
+        <v>1949947.930306376</v>
       </c>
       <c r="L60" s="3">
-        <f ca="1">K60+L55</f>
-        <v>2140509.1426405949</v>
+        <f t="shared" si="38"/>
+        <v>2269964.4264282826</v>
       </c>
       <c r="M60" s="3">
-        <f ca="1">L60+M55</f>
-        <v>2481463.1033119522</v>
+        <f t="shared" si="38"/>
+        <v>2611811.0173036284</v>
       </c>
       <c r="N60" s="3">
-        <f ca="1">M60+N55</f>
-        <v>2744258.2864330467</v>
+        <f t="shared" si="38"/>
+        <v>2886089.943934056</v>
       </c>
       <c r="O60" s="3">
-        <f ca="1">N60+O55</f>
-        <v>2573468.3627230334</v>
+        <f t="shared" si="38"/>
+        <v>3018853.7320927847</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54717,56 +54710,56 @@
         <v>0</v>
       </c>
       <c r="C61" s="7">
-        <f t="shared" ref="C61" ca="1" si="20">SUM(C62:C65)</f>
-        <v>25103.448275862072</v>
+        <f>SUM(C62:C65)</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" ref="D61" ca="1" si="21">SUM(D62:D65)</f>
-        <v>150428.16938277436</v>
+        <f t="shared" ref="D61" si="39">SUM(D62:D65)</f>
+        <v>-7214.6659482758841</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" ref="E61" ca="1" si="22">SUM(E62:E65)</f>
-        <v>580714.59563808842</v>
+        <f t="shared" ref="E61" si="40">SUM(E62:E65)</f>
+        <v>334819.7592025862</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" ref="F61" ca="1" si="23">SUM(F62:F65)</f>
-        <v>775821.6600863249</v>
+        <f t="shared" ref="F61" si="41">SUM(F62:F65)</f>
+        <v>581615.73566594825</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" ref="G61" ca="1" si="24">SUM(G62:G65)</f>
-        <v>1106019.7045421</v>
+        <f t="shared" ref="G61" si="42">SUM(G62:G65)</f>
+        <v>898730.52810506034</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" ref="H61" ca="1" si="25">SUM(H62:H65)</f>
-        <v>1437998.5378228379</v>
+        <f t="shared" ref="H61" si="43">SUM(H62:H65)</f>
+        <v>1236783.4113860084</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" ref="I61" ca="1" si="26">SUM(I62:I65)</f>
-        <v>1506140.5163222072</v>
+        <f t="shared" ref="I61" si="44">SUM(I62:I65)</f>
+        <v>1391107.060100747</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" ref="J61" ca="1" si="27">SUM(J62:J65)</f>
-        <v>1793152.015696513</v>
+        <f t="shared" ref="J61" si="45">SUM(J62:J65)</f>
+        <v>1651371.0832955597</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" ref="K61" ca="1" si="28">SUM(K62:K65)</f>
-        <v>2092478.6173696693</v>
+        <f t="shared" ref="K61" si="46">SUM(K62:K65)</f>
+        <v>1949947.930306376</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" ref="L61" ca="1" si="29">SUM(L62:L65)</f>
-        <v>2406811.2232044586</v>
+        <f t="shared" ref="L61" si="47">SUM(L62:L65)</f>
+        <v>2269964.4264282826</v>
       </c>
       <c r="M61" s="7">
-        <f t="shared" ref="M61" ca="1" si="30">SUM(M62:M65)</f>
-        <v>2743281.7598134619</v>
+        <f t="shared" ref="M61" si="48">SUM(M62:M65)</f>
+        <v>2611811.0173036284</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" ref="N61" ca="1" si="31">SUM(N62:N65)</f>
-        <v>2977295.9334329283</v>
+        <f t="shared" ref="N61" si="49">SUM(N62:N65)</f>
+        <v>2886089.943934056</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61" ca="1" si="32">SUM(O62:O65)</f>
-        <v>2757626.6768049616</v>
+        <f t="shared" ref="O61" si="50">SUM(O62:O65)</f>
+        <v>3018853.7320927847</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -54777,55 +54770,55 @@
         <v>0</v>
       </c>
       <c r="C62" s="3">
-        <f>B62+C92</f>
+        <f t="shared" ref="C62:O62" si="51">B62+C92</f>
         <v>0</v>
       </c>
       <c r="D62" s="3">
-        <f>C62+D92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <f>D62+E92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <f>E62+F92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <f>F62+G92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <f>G62+H92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <f>H62+I92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <f>I62+J92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f>J62+K92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <f>K62+L92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <f>L62+M92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <f>M62+N92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <f>N62+O92</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -54837,56 +54830,56 @@
         <v>0</v>
       </c>
       <c r="C63" s="3">
-        <f ca="1">B63+C38+C93</f>
+        <f t="shared" ref="C63:O63" si="52">B63+C38+C93</f>
         <v>-84896.551724137928</v>
       </c>
       <c r="D63" s="3">
-        <f ca="1">C63+D38+D93</f>
-        <v>-18530.16395055897</v>
+        <f t="shared" si="52"/>
+        <v>-7214.6659482758841</v>
       </c>
       <c r="E63" s="3">
-        <f ca="1">D63+E38+E93</f>
-        <v>313281.67897142179</v>
+        <f t="shared" si="52"/>
+        <v>334819.7592025862</v>
       </c>
       <c r="F63" s="3">
-        <f ca="1">E63+F38+F93</f>
-        <v>549534.0350863249</v>
+        <f t="shared" si="52"/>
+        <v>581615.73566594825</v>
       </c>
       <c r="G63" s="3">
-        <f ca="1">F63+G38+G93</f>
-        <v>856595.76970876683</v>
+        <f t="shared" si="52"/>
+        <v>898730.52810506034</v>
       </c>
       <c r="H63" s="3">
-        <f ca="1">G63+H38+H93</f>
-        <v>1184611.5508280462</v>
+        <f t="shared" si="52"/>
+        <v>1236783.4113860084</v>
       </c>
       <c r="I63" s="3">
-        <f ca="1">H63+I38+I93</f>
-        <v>1328257.5031446198</v>
+        <f t="shared" si="52"/>
+        <v>1391107.060100747</v>
       </c>
       <c r="J63" s="3">
-        <f ca="1">I63+J38+J93</f>
-        <v>1578301.7633498034</v>
+        <f t="shared" si="52"/>
+        <v>1651371.0832955597</v>
       </c>
       <c r="K63" s="3">
-        <f ca="1">J63+K38+K93</f>
-        <v>1866919.1536791418</v>
+        <f t="shared" si="52"/>
+        <v>1949947.930306376</v>
       </c>
       <c r="L63" s="3">
-        <f ca="1">K63+L38+L93</f>
-        <v>2177093.9652560819</v>
+        <f t="shared" si="52"/>
+        <v>2269964.4264282826</v>
       </c>
       <c r="M63" s="3">
-        <f ca="1">L63+M38+M93</f>
-        <v>2509255.1076684478</v>
+        <f t="shared" si="52"/>
+        <v>2611811.0173036284</v>
       </c>
       <c r="N63" s="3">
-        <f ca="1">M63+N38+N93</f>
-        <v>2773670.7234330974</v>
+        <f t="shared" si="52"/>
+        <v>2886089.943934056</v>
       </c>
       <c r="O63" s="3">
-        <f ca="1">N63+O38+O93</f>
-        <v>2896031.1328783976</v>
+        <f t="shared" si="52"/>
+        <v>3018853.7320927847</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54897,55 +54890,55 @@
         <v>0</v>
       </c>
       <c r="C64" s="3">
-        <f>B64+C96+C97</f>
+        <f t="shared" ref="C64:O64" si="53">B64+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f>C64+D96+D97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f>D64+E96+E97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <f>E64+F96+F97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <f>F64+G96+G97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <f>G64+H96+H97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <f>H64+I96+I97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <f>I64+J96+J97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <f>J64+K96+K97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L64" s="3">
-        <f>K64+L96+L97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="M64" s="3">
-        <f>L64+M96+M97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f>M64+N96+N97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O64" s="3">
-        <f>N64+O96+O97</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -54961,47 +54954,47 @@
         <v>0</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ref="D65:N65" si="33">C65+D49</f>
+        <f t="shared" ref="D65:N65" si="54">C65+D49</f>
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O65" s="3">
@@ -55014,56 +55007,56 @@
         <v>58</v>
       </c>
       <c r="C67" s="3">
-        <f ca="1">C53+#REF!-#REF!</f>
-        <v>-334896.55172413791</v>
+        <f>C53</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D67" s="3">
-        <f ca="1">D53+#REF!-#REF!</f>
-        <v>97282.198275862072</v>
+        <f t="shared" ref="D67:O67" si="55">D53</f>
+        <v>77681.885775862043</v>
       </c>
       <c r="E67" s="3">
-        <f ca="1">E53+#REF!-#REF!</f>
-        <v>374567.34577586205</v>
+        <f t="shared" si="55"/>
+        <v>342034.42515086208</v>
       </c>
       <c r="F67" s="3">
-        <f ca="1">F53+#REF!-#REF!</f>
-        <v>237054.65902586214</v>
+        <f t="shared" si="55"/>
+        <v>246795.97646336205</v>
       </c>
       <c r="G67" s="3">
-        <f ca="1">G53+#REF!-#REF!</f>
-        <v>326944.63670486206</v>
+        <f t="shared" si="55"/>
+        <v>317114.79243911209</v>
       </c>
       <c r="H67" s="3">
-        <f ca="1">H53+#REF!-#REF!</f>
-        <v>342216.11229283089</v>
+        <f t="shared" si="55"/>
+        <v>338052.8832809481</v>
       </c>
       <c r="I67" s="3">
-        <f ca="1">I53+#REF!-#REF!</f>
-        <v>133897.7282079421</v>
+        <f t="shared" si="55"/>
+        <v>154323.64871473869</v>
       </c>
       <c r="J67" s="3">
-        <f ca="1">J53+#REF!-#REF!</f>
-        <v>274011.37259518978</v>
+        <f t="shared" si="55"/>
+        <v>260264.02319481262</v>
       </c>
       <c r="K67" s="3">
-        <f ca="1">K53+#REF!-#REF!</f>
-        <v>304602.98478271213</v>
+        <f t="shared" si="55"/>
+        <v>298576.84701081621</v>
       </c>
       <c r="L67" s="3">
-        <f ca="1">L53+#REF!-#REF!</f>
-        <v>324164.6156077194</v>
+        <f t="shared" si="55"/>
+        <v>320016.49612190673</v>
       </c>
       <c r="M67" s="3">
-        <f ca="1">M53+#REF!-#REF!</f>
-        <v>346129.18898185942</v>
+        <f t="shared" si="55"/>
+        <v>341846.59087534569</v>
       </c>
       <c r="N67" s="3">
-        <f ca="1">N53+#REF!-#REF!</f>
-        <v>267872.80869187083</v>
+        <f t="shared" si="55"/>
+        <v>274278.92663042748</v>
       </c>
       <c r="O67" s="3">
-        <f ca="1">O53+#REF!-#REF!</f>
-        <v>117167.1630479775</v>
+        <f t="shared" si="55"/>
+        <v>132763.78815872868</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -55071,56 +55064,56 @@
         <v>59</v>
       </c>
       <c r="C68" s="3">
-        <f ca="1">SUM($C67:C67)</f>
-        <v>-334896.55172413791</v>
+        <f>SUM($C67:C67)</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D68" s="3">
-        <f ca="1">SUM($C67:D67)</f>
-        <v>-237614.35344827583</v>
+        <f>SUM($C67:D67)</f>
+        <v>-7214.6659482758841</v>
       </c>
       <c r="E68" s="3">
-        <f ca="1">SUM($C67:E67)</f>
-        <v>136952.99232758622</v>
+        <f>SUM($C67:E67)</f>
+        <v>334819.7592025862</v>
       </c>
       <c r="F68" s="3">
-        <f ca="1">SUM($C67:F67)</f>
-        <v>374007.6513534484</v>
+        <f>SUM($C67:F67)</f>
+        <v>581615.73566594825</v>
       </c>
       <c r="G68" s="3">
-        <f ca="1">SUM($C67:G67)</f>
-        <v>700952.28805831051</v>
+        <f>SUM($C67:G67)</f>
+        <v>898730.52810506034</v>
       </c>
       <c r="H68" s="3">
-        <f ca="1">SUM($C67:H67)</f>
-        <v>1043168.4003511413</v>
+        <f>SUM($C67:H67)</f>
+        <v>1236783.4113860084</v>
       </c>
       <c r="I68" s="3">
-        <f ca="1">SUM($C67:I67)</f>
-        <v>1177066.1285590834</v>
+        <f>SUM($C67:I67)</f>
+        <v>1391107.060100747</v>
       </c>
       <c r="J68" s="3">
-        <f ca="1">SUM($C67:J67)</f>
-        <v>1451077.5011542733</v>
+        <f>SUM($C67:J67)</f>
+        <v>1651371.0832955597</v>
       </c>
       <c r="K68" s="3">
-        <f ca="1">SUM($C67:K67)</f>
-        <v>1755680.4859369854</v>
+        <f>SUM($C67:K67)</f>
+        <v>1949947.930306376</v>
       </c>
       <c r="L68" s="3">
-        <f ca="1">SUM($C67:L67)</f>
-        <v>2079845.1015447048</v>
+        <f>SUM($C67:L67)</f>
+        <v>2269964.4264282826</v>
       </c>
       <c r="M68" s="3">
-        <f ca="1">SUM($C67:M67)</f>
-        <v>2425974.2905265642</v>
+        <f>SUM($C67:M67)</f>
+        <v>2611811.0173036284</v>
       </c>
       <c r="N68" s="3">
-        <f ca="1">SUM($C67:N67)</f>
-        <v>2693847.0992184351</v>
+        <f>SUM($C67:N67)</f>
+        <v>2886089.943934056</v>
       </c>
       <c r="O68" s="3">
-        <f ca="1">SUM($C67:O67)</f>
-        <v>2811014.2622664128</v>
+        <f>SUM($C67:O67)</f>
+        <v>3018853.7320927847</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -55128,56 +55121,56 @@
         <v>60</v>
       </c>
       <c r="C70" s="3">
-        <f ca="1">C67/(1+$B$74)^C2</f>
-        <v>-334896.55172413791</v>
+        <f t="shared" ref="C70:O70" si="56">C67/(1+$B$74)^C2</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D70" s="3">
-        <f ca="1">D67/(1+$B$74)^D2</f>
-        <v>94821.131486006489</v>
+        <f t="shared" si="56"/>
+        <v>75716.672071354667</v>
       </c>
       <c r="E70" s="3">
-        <f ca="1">E67/(1+$B$74)^E2</f>
-        <v>355855.29209599301</v>
+        <f t="shared" si="56"/>
+        <v>324947.60058923601</v>
       </c>
       <c r="F70" s="3">
-        <f ca="1">F67/(1+$B$74)^F2</f>
-        <v>219514.78072620762</v>
+        <f t="shared" si="56"/>
+        <v>228535.32970028996</v>
       </c>
       <c r="G70" s="3">
-        <f ca="1">G67/(1+$B$74)^G2</f>
-        <v>295094.59027208114</v>
+        <f t="shared" si="56"/>
+        <v>286222.34237324685</v>
       </c>
       <c r="H70" s="3">
-        <f ca="1">H67/(1+$B$74)^H2</f>
-        <v>301064.28696081415</v>
+        <f t="shared" si="56"/>
+        <v>297401.69034746545</v>
       </c>
       <c r="I70" s="3">
-        <f ca="1">I67/(1+$B$74)^I2</f>
-        <v>114816.35470729128</v>
+        <f t="shared" si="56"/>
+        <v>132331.43704303613</v>
       </c>
       <c r="J70" s="3">
-        <f ca="1">J67/(1+$B$74)^J2</f>
-        <v>229018.67180474711</v>
+        <f t="shared" si="56"/>
+        <v>217528.63885213149</v>
       </c>
       <c r="K70" s="3">
-        <f ca="1">K67/(1+$B$74)^K2</f>
-        <v>248146.53524758891</v>
+        <f t="shared" si="56"/>
+        <v>243237.30820870315</v>
       </c>
       <c r="L70" s="3">
-        <f ca="1">L67/(1+$B$74)^L2</f>
-        <v>257401.70905347494</v>
+        <f t="shared" si="56"/>
+        <v>254107.91018216847</v>
       </c>
       <c r="M70" s="3">
-        <f ca="1">M67/(1+$B$74)^M2</f>
-        <v>267889.5675312411</v>
+        <f t="shared" si="56"/>
+        <v>264575.01507168473</v>
       </c>
       <c r="N70" s="3">
-        <f ca="1">N67/(1+$B$74)^N2</f>
-        <v>202077.50231690329</v>
+        <f t="shared" si="56"/>
+        <v>206910.14030988491</v>
       </c>
       <c r="O70" s="3">
-        <f ca="1">O67/(1+$B$74)^O2</f>
-        <v>86152.325770571624</v>
+        <f t="shared" si="56"/>
+        <v>97620.432469653359</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -55185,56 +55178,56 @@
         <v>61</v>
       </c>
       <c r="C71" s="3">
-        <f ca="1">SUM($C70:C70)</f>
-        <v>-334896.55172413791</v>
+        <f>SUM($C70:C70)</f>
+        <v>-84896.551724137928</v>
       </c>
       <c r="D71" s="3">
-        <f ca="1">SUM($C70:D70)</f>
-        <v>-240075.42023813142</v>
+        <f>SUM($C70:D70)</f>
+        <v>-9179.8796527832601</v>
       </c>
       <c r="E71" s="3">
-        <f ca="1">SUM($C70:E70)</f>
-        <v>115779.87185786158</v>
+        <f>SUM($C70:E70)</f>
+        <v>315767.72093645274</v>
       </c>
       <c r="F71" s="3">
-        <f ca="1">SUM($C70:F70)</f>
-        <v>335294.65258406918</v>
+        <f>SUM($C70:F70)</f>
+        <v>544303.05063674273</v>
       </c>
       <c r="G71" s="3">
-        <f ca="1">SUM($C70:G70)</f>
-        <v>630389.24285615026</v>
+        <f>SUM($C70:G70)</f>
+        <v>830525.39300998952</v>
       </c>
       <c r="H71" s="3">
-        <f ca="1">SUM($C70:H70)</f>
-        <v>931453.52981696441</v>
+        <f>SUM($C70:H70)</f>
+        <v>1127927.083357455</v>
       </c>
       <c r="I71" s="3">
-        <f ca="1">SUM($C70:I70)</f>
-        <v>1046269.8845242556</v>
+        <f>SUM($C70:I70)</f>
+        <v>1260258.5204004911</v>
       </c>
       <c r="J71" s="3">
-        <f ca="1">SUM($C70:J70)</f>
-        <v>1275288.5563290028</v>
+        <f>SUM($C70:J70)</f>
+        <v>1477787.1592526226</v>
       </c>
       <c r="K71" s="3">
-        <f ca="1">SUM($C70:K70)</f>
-        <v>1523435.0915765918</v>
+        <f>SUM($C70:K70)</f>
+        <v>1721024.4674613257</v>
       </c>
       <c r="L71" s="3">
-        <f ca="1">SUM($C70:L70)</f>
-        <v>1780836.8006300668</v>
+        <f>SUM($C70:L70)</f>
+        <v>1975132.3776434942</v>
       </c>
       <c r="M71" s="3">
-        <f ca="1">SUM($C70:M70)</f>
-        <v>2048726.3681613079</v>
+        <f>SUM($C70:M70)</f>
+        <v>2239707.3927151789</v>
       </c>
       <c r="N71" s="3">
-        <f ca="1">SUM($C70:N70)</f>
-        <v>2250803.870478211</v>
+        <f>SUM($C70:N70)</f>
+        <v>2446617.5330250636</v>
       </c>
       <c r="O71" s="3">
-        <f ca="1">SUM($C70:O70)</f>
-        <v>2336956.1962487828</v>
+        <f>SUM($C70:O70)</f>
+        <v>2544237.965494717</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -55279,8 +55272,8 @@
         <v>64</v>
       </c>
       <c r="B76" s="3">
-        <f ca="1">O71</f>
-        <v>2336956.1962487828</v>
+        <f>O71</f>
+        <v>2544237.965494717</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>

--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -22,6 +22,7 @@
     <definedName name="СОЦВЗНОСЫ">константы!$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -472,10 +473,49 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$87:$XFD$87</c:f>
+              <c:f>Лист1!$C$55:$O$55</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-55196.551724137928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107381.88577586204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>371734.42515086208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>276495.97646336205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>346814.79243911209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367752.8832809481</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184023.64871473869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>289964.02319481259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>328276.84701081621</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349716.49612190673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>371546.59087534569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>303978.92663042748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162463.78815872868</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -514,10 +554,49 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$88:$XFD$88</c:f>
+              <c:f>Лист1!$C$56:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-55196.551724137928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52185.334051724116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>423919.7592025862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700415.73566594825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1047230.5281050603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1414983.4113860084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1599007.060100747</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1888971.0832955595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2217247.930306376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2566964.4264282826</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2938511.0173036284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3242489.943934056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3404953.7320927847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -537,11 +616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="622707728"/>
-        <c:axId val="622708288"/>
+        <c:axId val="691777200"/>
+        <c:axId val="691778320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="622707728"/>
+        <c:axId val="691777200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +662,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622708288"/>
+        <c:crossAx val="691778320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -591,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622708288"/>
+        <c:axId val="691778320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +721,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622707728"/>
+        <c:crossAx val="691777200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -938,11 +1017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="625002896"/>
-        <c:axId val="625003456"/>
+        <c:axId val="691781120"/>
+        <c:axId val="691781680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="625002896"/>
+        <c:axId val="691781120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +1063,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625003456"/>
+        <c:crossAx val="691781680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -992,7 +1071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625003456"/>
+        <c:axId val="691781680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1122,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625002896"/>
+        <c:crossAx val="691781120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,7 +2287,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2219,7 +2298,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2230,7 +2309,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -2263,7 +2342,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -2558,10 +2637,10 @@
   <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2578,7 +2657,7 @@
       </c>
       <c r="B1" s="7">
         <f>O71</f>
-        <v>2544237.965494717</v>
+        <v>2876839.7103645764</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -53322,55 +53401,55 @@
       </c>
       <c r="C33" s="7">
         <f>C34</f>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" ref="D33:O33" si="21">D34</f>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="7">
         <f t="shared" si="21"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -53378,59 +53457,59 @@
         <v>28</v>
       </c>
       <c r="B34" s="3">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" ref="C34:O34" si="22">-$B34</f>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="M34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
       <c r="O34" s="3">
         <f t="shared" si="22"/>
-        <v>-30000</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -53440,55 +53519,55 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7">
         <f t="shared" ref="C35:O35" si="23">C32+C33</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="23"/>
-        <v>100634.13577586204</v>
+        <v>130334.13577586204</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="23"/>
-        <v>402307.03365086205</v>
+        <v>432007.03365086205</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="23"/>
-        <v>293623.15691336204</v>
+        <v>323323.15691336204</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="23"/>
-        <v>373869.33514451212</v>
+        <v>403569.33514451212</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="23"/>
-        <v>397763.39175225433</v>
+        <v>427463.39175225433</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="23"/>
-        <v>188095.9123061095</v>
+        <v>217795.9123061095</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="23"/>
-        <v>308992.57494807622</v>
+        <v>338692.57494807622</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="23"/>
-        <v>352714.26800869207</v>
+        <v>382414.26800869207</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" si="23"/>
-        <v>377180.69111193658</v>
+        <v>406880.69111193658</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="23"/>
-        <v>402092.68159527279</v>
+        <v>431792.68159527279</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="23"/>
-        <v>324986.05298636609</v>
+        <v>354686.05298636609</v>
       </c>
       <c r="O35" s="7">
         <f t="shared" si="23"/>
-        <v>163492.30673042749</v>
+        <v>193192.30673042749</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -53498,55 +53577,55 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7">
         <f>C35</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" ref="D36:O36" si="24">D35</f>
-        <v>100634.13577586204</v>
+        <v>130334.13577586204</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="24"/>
-        <v>402307.03365086205</v>
+        <v>432007.03365086205</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="24"/>
-        <v>293623.15691336204</v>
+        <v>323323.15691336204</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="24"/>
-        <v>373869.33514451212</v>
+        <v>403569.33514451212</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="24"/>
-        <v>397763.39175225433</v>
+        <v>427463.39175225433</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="24"/>
-        <v>188095.9123061095</v>
+        <v>217795.9123061095</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="24"/>
-        <v>308992.57494807622</v>
+        <v>338692.57494807622</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="24"/>
-        <v>352714.26800869207</v>
+        <v>382414.26800869207</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="24"/>
-        <v>377180.69111193658</v>
+        <v>406880.69111193658</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="24"/>
-        <v>402092.68159527279</v>
+        <v>431792.68159527279</v>
       </c>
       <c r="N36" s="7">
         <f t="shared" si="24"/>
-        <v>324986.05298636609</v>
+        <v>354686.05298636609</v>
       </c>
       <c r="O36" s="7">
         <f t="shared" si="24"/>
-        <v>163492.30673042749</v>
+        <v>193192.30673042749</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -53612,55 +53691,55 @@
       </c>
       <c r="C38" s="3">
         <f>C36+C37</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ref="D38:O38" si="26">D36+D37</f>
-        <v>77681.885775862043</v>
+        <v>107381.88577586204</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="26"/>
-        <v>342034.42515086208</v>
+        <v>371734.42515086208</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="26"/>
-        <v>246795.97646336205</v>
+        <v>276495.97646336205</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="26"/>
-        <v>317114.79243911209</v>
+        <v>346814.79243911209</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="26"/>
-        <v>338052.8832809481</v>
+        <v>367752.8832809481</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="26"/>
-        <v>154323.64871473869</v>
+        <v>184023.64871473869</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="26"/>
-        <v>260264.02319481262</v>
+        <v>289964.02319481259</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="26"/>
-        <v>298576.84701081621</v>
+        <v>328276.84701081621</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="26"/>
-        <v>320016.49612190673</v>
+        <v>349716.49612190673</v>
       </c>
       <c r="M38" s="3">
         <f t="shared" si="26"/>
-        <v>341846.59087534569</v>
+        <v>371546.59087534569</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" si="26"/>
-        <v>274278.92663042748</v>
+        <v>303978.92663042748</v>
       </c>
       <c r="O38" s="3">
         <f t="shared" si="26"/>
-        <v>132763.78815872868</v>
+        <v>162463.78815872868</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53670,55 +53749,55 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3">
         <f>SUM($C38:C38)</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D39" s="3">
         <f>SUM($C38:D38)</f>
-        <v>-7214.6659482758841</v>
+        <v>52185.334051724116</v>
       </c>
       <c r="E39" s="3">
         <f>SUM($C38:E38)</f>
-        <v>334819.7592025862</v>
+        <v>423919.7592025862</v>
       </c>
       <c r="F39" s="3">
         <f>SUM($C38:F38)</f>
-        <v>581615.73566594825</v>
+        <v>700415.73566594825</v>
       </c>
       <c r="G39" s="3">
         <f>SUM($C38:G38)</f>
-        <v>898730.52810506034</v>
+        <v>1047230.5281050603</v>
       </c>
       <c r="H39" s="3">
         <f>SUM($C38:H38)</f>
-        <v>1236783.4113860084</v>
+        <v>1414983.4113860084</v>
       </c>
       <c r="I39" s="3">
         <f>SUM($C38:I38)</f>
-        <v>1391107.060100747</v>
+        <v>1599007.060100747</v>
       </c>
       <c r="J39" s="3">
         <f>SUM($C38:J38)</f>
-        <v>1651371.0832955597</v>
+        <v>1888971.0832955595</v>
       </c>
       <c r="K39" s="3">
         <f>SUM($C38:K38)</f>
-        <v>1949947.930306376</v>
+        <v>2217247.930306376</v>
       </c>
       <c r="L39" s="3">
         <f>SUM($C38:L38)</f>
-        <v>2269964.4264282826</v>
+        <v>2566964.4264282826</v>
       </c>
       <c r="M39" s="3">
         <f>SUM($C38:M38)</f>
-        <v>2611811.0173036284</v>
+        <v>2938511.0173036284</v>
       </c>
       <c r="N39" s="3">
         <f>SUM($C38:N38)</f>
-        <v>2886089.943934056</v>
+        <v>3242489.943934056</v>
       </c>
       <c r="O39" s="3">
         <f>SUM($C38:O38)</f>
-        <v>3018853.7320927847</v>
+        <v>3404953.7320927847</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -54224,51 +54303,51 @@
       </c>
       <c r="D52" s="3">
         <f t="shared" si="30"/>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="30"/>
-        <v>-7214.6659482758841</v>
+        <v>52185.334051724116</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="30"/>
-        <v>334819.7592025862</v>
+        <v>423919.7592025862</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="30"/>
-        <v>581615.73566594825</v>
+        <v>700415.73566594825</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="30"/>
-        <v>898730.52810506034</v>
+        <v>1047230.5281050603</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="30"/>
-        <v>1236783.4113860084</v>
+        <v>1414983.4113860084</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="30"/>
-        <v>1391107.060100747</v>
+        <v>1599007.060100747</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" si="30"/>
-        <v>1651371.0832955597</v>
+        <v>1888971.0832955595</v>
       </c>
       <c r="L52" s="3">
         <f t="shared" si="30"/>
-        <v>1949947.930306376</v>
+        <v>2217247.930306376</v>
       </c>
       <c r="M52" s="3">
         <f t="shared" si="30"/>
-        <v>2269964.4264282826</v>
+        <v>2566964.4264282826</v>
       </c>
       <c r="N52" s="3">
         <f t="shared" si="30"/>
-        <v>2611811.0173036284</v>
+        <v>2938511.0173036284</v>
       </c>
       <c r="O52" s="3">
         <f t="shared" si="30"/>
-        <v>2886089.943934056</v>
+        <v>3242489.943934056</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -54277,55 +54356,55 @@
       </c>
       <c r="C53" s="3">
         <f>C35-C46+0+C37</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" ref="D53:H53" si="31">D35-D46+0+D37</f>
-        <v>77681.885775862043</v>
+        <v>107381.88577586204</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="31"/>
-        <v>342034.42515086208</v>
+        <v>371734.42515086208</v>
       </c>
       <c r="F53" s="3">
         <f>F35-F46+0+F37</f>
-        <v>246795.97646336205</v>
+        <v>276495.97646336205</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="31"/>
-        <v>317114.79243911209</v>
+        <v>346814.79243911209</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="31"/>
-        <v>338052.8832809481</v>
+        <v>367752.8832809481</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" ref="I53:N53" si="32">I35-I46+0+I37</f>
-        <v>154323.64871473869</v>
+        <v>184023.64871473869</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="32"/>
-        <v>260264.02319481262</v>
+        <v>289964.02319481259</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" si="32"/>
-        <v>298576.84701081621</v>
+        <v>328276.84701081621</v>
       </c>
       <c r="L53" s="3">
         <f t="shared" si="32"/>
-        <v>320016.49612190673</v>
+        <v>349716.49612190673</v>
       </c>
       <c r="M53" s="3">
         <f t="shared" si="32"/>
-        <v>341846.59087534569</v>
+        <v>371546.59087534569</v>
       </c>
       <c r="N53" s="3">
         <f t="shared" si="32"/>
-        <v>274278.92663042748</v>
+        <v>303978.92663042748</v>
       </c>
       <c r="O53" s="3">
         <f>O35-O46+0+O37</f>
-        <v>132763.78815872868</v>
+        <v>162463.78815872868</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -54391,55 +54470,55 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ref="C55:O55" si="34">SUM(C53:C54)</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="34"/>
-        <v>77681.885775862043</v>
+        <v>107381.88577586204</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="34"/>
-        <v>342034.42515086208</v>
+        <v>371734.42515086208</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="34"/>
-        <v>246795.97646336205</v>
+        <v>276495.97646336205</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="34"/>
-        <v>317114.79243911209</v>
+        <v>346814.79243911209</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="34"/>
-        <v>338052.8832809481</v>
+        <v>367752.8832809481</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="34"/>
-        <v>154323.64871473869</v>
+        <v>184023.64871473869</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="34"/>
-        <v>260264.02319481262</v>
+        <v>289964.02319481259</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="34"/>
-        <v>298576.84701081621</v>
+        <v>328276.84701081621</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" si="34"/>
-        <v>320016.49612190673</v>
+        <v>349716.49612190673</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" si="34"/>
-        <v>341846.59087534569</v>
+        <v>371546.59087534569</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" si="34"/>
-        <v>274278.92663042748</v>
+        <v>303978.92663042748</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" si="34"/>
-        <v>132763.78815872868</v>
+        <v>162463.78815872868</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54449,55 +54528,55 @@
       <c r="B56" s="14"/>
       <c r="C56" s="14">
         <f t="shared" ref="C56:O56" si="35">C52+C55</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D56" s="14">
         <f t="shared" si="35"/>
-        <v>-7214.6659482758841</v>
+        <v>52185.334051724116</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="35"/>
-        <v>334819.7592025862</v>
+        <v>423919.7592025862</v>
       </c>
       <c r="F56" s="14">
         <f t="shared" si="35"/>
-        <v>581615.73566594825</v>
+        <v>700415.73566594825</v>
       </c>
       <c r="G56" s="14">
         <f t="shared" si="35"/>
-        <v>898730.52810506034</v>
+        <v>1047230.5281050603</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="35"/>
-        <v>1236783.4113860084</v>
+        <v>1414983.4113860084</v>
       </c>
       <c r="I56" s="14">
         <f t="shared" si="35"/>
-        <v>1391107.060100747</v>
+        <v>1599007.060100747</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="35"/>
-        <v>1651371.0832955597</v>
+        <v>1888971.0832955595</v>
       </c>
       <c r="K56" s="14">
         <f t="shared" si="35"/>
-        <v>1949947.930306376</v>
+        <v>2217247.930306376</v>
       </c>
       <c r="L56" s="14">
         <f t="shared" si="35"/>
-        <v>2269964.4264282826</v>
+        <v>2566964.4264282826</v>
       </c>
       <c r="M56" s="14">
         <f t="shared" si="35"/>
-        <v>2611811.0173036284</v>
+        <v>2938511.0173036284</v>
       </c>
       <c r="N56" s="14">
         <f t="shared" si="35"/>
-        <v>2886089.943934056</v>
+        <v>3242489.943934056</v>
       </c>
       <c r="O56" s="14">
         <f t="shared" si="35"/>
-        <v>3018853.7320927847</v>
+        <v>3404953.7320927847</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -54506,7 +54585,7 @@
       </c>
       <c r="B57" s="3">
         <f>SUM(C57:O57)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3">
         <f>IF(C56&lt;0,1,0)</f>
@@ -54514,7 +54593,7 @@
       </c>
       <c r="D57" s="3">
         <f t="shared" ref="D57:O57" si="36">IF(D56&lt;0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="36"/>
@@ -54590,55 +54669,55 @@
       </c>
       <c r="C59" s="7">
         <f t="shared" ref="C59:O59" si="37">C60</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="37"/>
-        <v>-7214.6659482758841</v>
+        <v>52185.334051724116</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="37"/>
-        <v>334819.7592025862</v>
+        <v>423919.7592025862</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="37"/>
-        <v>581615.73566594825</v>
+        <v>700415.73566594825</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="37"/>
-        <v>898730.52810506034</v>
+        <v>1047230.5281050603</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" si="37"/>
-        <v>1236783.4113860084</v>
+        <v>1414983.4113860084</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="37"/>
-        <v>1391107.060100747</v>
+        <v>1599007.060100747</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="37"/>
-        <v>1651371.0832955597</v>
+        <v>1888971.0832955595</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="37"/>
-        <v>1949947.930306376</v>
+        <v>2217247.930306376</v>
       </c>
       <c r="L59" s="7">
         <f t="shared" si="37"/>
-        <v>2269964.4264282826</v>
+        <v>2566964.4264282826</v>
       </c>
       <c r="M59" s="7">
         <f t="shared" si="37"/>
-        <v>2611811.0173036284</v>
+        <v>2938511.0173036284</v>
       </c>
       <c r="N59" s="7">
         <f t="shared" si="37"/>
-        <v>2886089.943934056</v>
+        <v>3242489.943934056</v>
       </c>
       <c r="O59" s="7">
         <f t="shared" si="37"/>
-        <v>3018853.7320927847</v>
+        <v>3404953.7320927847</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -54650,55 +54729,55 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ref="C60:O60" si="38">B60+C55</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="38"/>
-        <v>-7214.6659482758841</v>
+        <v>52185.334051724116</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="38"/>
-        <v>334819.7592025862</v>
+        <v>423919.7592025862</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="38"/>
-        <v>581615.73566594825</v>
+        <v>700415.73566594825</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="38"/>
-        <v>898730.52810506034</v>
+        <v>1047230.5281050603</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="38"/>
-        <v>1236783.4113860084</v>
+        <v>1414983.4113860084</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="38"/>
-        <v>1391107.060100747</v>
+        <v>1599007.060100747</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="38"/>
-        <v>1651371.0832955597</v>
+        <v>1888971.0832955595</v>
       </c>
       <c r="K60" s="3">
         <f t="shared" si="38"/>
-        <v>1949947.930306376</v>
+        <v>2217247.930306376</v>
       </c>
       <c r="L60" s="3">
         <f t="shared" si="38"/>
-        <v>2269964.4264282826</v>
+        <v>2566964.4264282826</v>
       </c>
       <c r="M60" s="3">
         <f t="shared" si="38"/>
-        <v>2611811.0173036284</v>
+        <v>2938511.0173036284</v>
       </c>
       <c r="N60" s="3">
         <f t="shared" si="38"/>
-        <v>2886089.943934056</v>
+        <v>3242489.943934056</v>
       </c>
       <c r="O60" s="3">
         <f t="shared" si="38"/>
-        <v>3018853.7320927847</v>
+        <v>3404953.7320927847</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54711,55 +54790,55 @@
       </c>
       <c r="C61" s="7">
         <f>SUM(C62:C65)</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D61" s="7">
         <f t="shared" ref="D61" si="39">SUM(D62:D65)</f>
-        <v>-7214.6659482758841</v>
+        <v>52185.334051724116</v>
       </c>
       <c r="E61" s="7">
         <f t="shared" ref="E61" si="40">SUM(E62:E65)</f>
-        <v>334819.7592025862</v>
+        <v>423919.7592025862</v>
       </c>
       <c r="F61" s="7">
         <f t="shared" ref="F61" si="41">SUM(F62:F65)</f>
-        <v>581615.73566594825</v>
+        <v>700415.73566594825</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" ref="G61" si="42">SUM(G62:G65)</f>
-        <v>898730.52810506034</v>
+        <v>1047230.5281050603</v>
       </c>
       <c r="H61" s="7">
         <f t="shared" ref="H61" si="43">SUM(H62:H65)</f>
-        <v>1236783.4113860084</v>
+        <v>1414983.4113860084</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" ref="I61" si="44">SUM(I62:I65)</f>
-        <v>1391107.060100747</v>
+        <v>1599007.060100747</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" ref="J61" si="45">SUM(J62:J65)</f>
-        <v>1651371.0832955597</v>
+        <v>1888971.0832955595</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" ref="K61" si="46">SUM(K62:K65)</f>
-        <v>1949947.930306376</v>
+        <v>2217247.930306376</v>
       </c>
       <c r="L61" s="7">
         <f t="shared" ref="L61" si="47">SUM(L62:L65)</f>
-        <v>2269964.4264282826</v>
+        <v>2566964.4264282826</v>
       </c>
       <c r="M61" s="7">
         <f t="shared" ref="M61" si="48">SUM(M62:M65)</f>
-        <v>2611811.0173036284</v>
+        <v>2938511.0173036284</v>
       </c>
       <c r="N61" s="7">
         <f t="shared" ref="N61" si="49">SUM(N62:N65)</f>
-        <v>2886089.943934056</v>
+        <v>3242489.943934056</v>
       </c>
       <c r="O61" s="7">
         <f t="shared" ref="O61" si="50">SUM(O62:O65)</f>
-        <v>3018853.7320927847</v>
+        <v>3404953.7320927847</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -54831,55 +54910,55 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ref="C63:O63" si="52">B63+C38+C93</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="52"/>
-        <v>-7214.6659482758841</v>
+        <v>52185.334051724116</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="52"/>
-        <v>334819.7592025862</v>
+        <v>423919.7592025862</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="52"/>
-        <v>581615.73566594825</v>
+        <v>700415.73566594825</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="52"/>
-        <v>898730.52810506034</v>
+        <v>1047230.5281050603</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="52"/>
-        <v>1236783.4113860084</v>
+        <v>1414983.4113860084</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="52"/>
-        <v>1391107.060100747</v>
+        <v>1599007.060100747</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="52"/>
-        <v>1651371.0832955597</v>
+        <v>1888971.0832955595</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="52"/>
-        <v>1949947.930306376</v>
+        <v>2217247.930306376</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" si="52"/>
-        <v>2269964.4264282826</v>
+        <v>2566964.4264282826</v>
       </c>
       <c r="M63" s="3">
         <f t="shared" si="52"/>
-        <v>2611811.0173036284</v>
+        <v>2938511.0173036284</v>
       </c>
       <c r="N63" s="3">
         <f t="shared" si="52"/>
-        <v>2886089.943934056</v>
+        <v>3242489.943934056</v>
       </c>
       <c r="O63" s="3">
         <f t="shared" si="52"/>
-        <v>3018853.7320927847</v>
+        <v>3404953.7320927847</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -55008,55 +55087,55 @@
       </c>
       <c r="C67" s="3">
         <f>C53</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" ref="D67:O67" si="55">D53</f>
-        <v>77681.885775862043</v>
+        <v>107381.88577586204</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="55"/>
-        <v>342034.42515086208</v>
+        <v>371734.42515086208</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="55"/>
-        <v>246795.97646336205</v>
+        <v>276495.97646336205</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="55"/>
-        <v>317114.79243911209</v>
+        <v>346814.79243911209</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="55"/>
-        <v>338052.8832809481</v>
+        <v>367752.8832809481</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" si="55"/>
-        <v>154323.64871473869</v>
+        <v>184023.64871473869</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" si="55"/>
-        <v>260264.02319481262</v>
+        <v>289964.02319481259</v>
       </c>
       <c r="K67" s="3">
         <f t="shared" si="55"/>
-        <v>298576.84701081621</v>
+        <v>328276.84701081621</v>
       </c>
       <c r="L67" s="3">
         <f t="shared" si="55"/>
-        <v>320016.49612190673</v>
+        <v>349716.49612190673</v>
       </c>
       <c r="M67" s="3">
         <f t="shared" si="55"/>
-        <v>341846.59087534569</v>
+        <v>371546.59087534569</v>
       </c>
       <c r="N67" s="3">
         <f t="shared" si="55"/>
-        <v>274278.92663042748</v>
+        <v>303978.92663042748</v>
       </c>
       <c r="O67" s="3">
         <f t="shared" si="55"/>
-        <v>132763.78815872868</v>
+        <v>162463.78815872868</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -55065,55 +55144,55 @@
       </c>
       <c r="C68" s="3">
         <f>SUM($C67:C67)</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D68" s="3">
         <f>SUM($C67:D67)</f>
-        <v>-7214.6659482758841</v>
+        <v>52185.334051724116</v>
       </c>
       <c r="E68" s="3">
         <f>SUM($C67:E67)</f>
-        <v>334819.7592025862</v>
+        <v>423919.7592025862</v>
       </c>
       <c r="F68" s="3">
         <f>SUM($C67:F67)</f>
-        <v>581615.73566594825</v>
+        <v>700415.73566594825</v>
       </c>
       <c r="G68" s="3">
         <f>SUM($C67:G67)</f>
-        <v>898730.52810506034</v>
+        <v>1047230.5281050603</v>
       </c>
       <c r="H68" s="3">
         <f>SUM($C67:H67)</f>
-        <v>1236783.4113860084</v>
+        <v>1414983.4113860084</v>
       </c>
       <c r="I68" s="3">
         <f>SUM($C67:I67)</f>
-        <v>1391107.060100747</v>
+        <v>1599007.060100747</v>
       </c>
       <c r="J68" s="3">
         <f>SUM($C67:J67)</f>
-        <v>1651371.0832955597</v>
+        <v>1888971.0832955595</v>
       </c>
       <c r="K68" s="3">
         <f>SUM($C67:K67)</f>
-        <v>1949947.930306376</v>
+        <v>2217247.930306376</v>
       </c>
       <c r="L68" s="3">
         <f>SUM($C67:L67)</f>
-        <v>2269964.4264282826</v>
+        <v>2566964.4264282826</v>
       </c>
       <c r="M68" s="3">
         <f>SUM($C67:M67)</f>
-        <v>2611811.0173036284</v>
+        <v>2938511.0173036284</v>
       </c>
       <c r="N68" s="3">
         <f>SUM($C67:N67)</f>
-        <v>2886089.943934056</v>
+        <v>3242489.943934056</v>
       </c>
       <c r="O68" s="3">
         <f>SUM($C67:O67)</f>
-        <v>3018853.7320927847</v>
+        <v>3404953.7320927847</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -55122,55 +55201,55 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ref="C70:O70" si="56">C67/(1+$B$74)^C2</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" si="56"/>
-        <v>75716.672071354667</v>
+        <v>104665.3148348391</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="56"/>
-        <v>324947.60058923601</v>
+        <v>353163.89411946631</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="56"/>
-        <v>228535.32970028996</v>
+        <v>256037.80113181367</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="56"/>
-        <v>286222.34237324685</v>
+        <v>313029.05013702175</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" si="56"/>
-        <v>297401.69034746545</v>
+        <v>323530.23602822796</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="56"/>
-        <v>132331.43704303613</v>
+        <v>157798.97693669869</v>
       </c>
       <c r="J70" s="3">
         <f t="shared" si="56"/>
-        <v>217528.63885213149</v>
+        <v>242351.89523079901</v>
       </c>
       <c r="K70" s="3">
         <f t="shared" si="56"/>
-        <v>243237.30820870315</v>
+        <v>267432.58030070429</v>
       </c>
       <c r="L70" s="3">
         <f t="shared" si="56"/>
-        <v>254107.91018216847</v>
+        <v>277691.0848743114</v>
       </c>
       <c r="M70" s="3">
         <f t="shared" si="56"/>
-        <v>264575.01507168473</v>
+        <v>287561.57734076527</v>
       </c>
       <c r="N70" s="3">
         <f t="shared" si="56"/>
-        <v>206910.14030988491</v>
+        <v>229315.1833902958</v>
       </c>
       <c r="O70" s="3">
         <f t="shared" si="56"/>
-        <v>97620.432469653359</v>
+        <v>119458.66776377098</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -55179,55 +55258,55 @@
       </c>
       <c r="C71" s="3">
         <f>SUM($C70:C70)</f>
-        <v>-84896.551724137928</v>
+        <v>-55196.551724137928</v>
       </c>
       <c r="D71" s="3">
         <f>SUM($C70:D70)</f>
-        <v>-9179.8796527832601</v>
+        <v>49468.763110701169</v>
       </c>
       <c r="E71" s="3">
         <f>SUM($C70:E70)</f>
-        <v>315767.72093645274</v>
+        <v>402632.65723016748</v>
       </c>
       <c r="F71" s="3">
         <f>SUM($C70:F70)</f>
-        <v>544303.05063674273</v>
+        <v>658670.4583619812</v>
       </c>
       <c r="G71" s="3">
         <f>SUM($C70:G70)</f>
-        <v>830525.39300998952</v>
+        <v>971699.50849900302</v>
       </c>
       <c r="H71" s="3">
         <f>SUM($C70:H70)</f>
-        <v>1127927.083357455</v>
+        <v>1295229.744527231</v>
       </c>
       <c r="I71" s="3">
         <f>SUM($C70:I70)</f>
-        <v>1260258.5204004911</v>
+        <v>1453028.7214639296</v>
       </c>
       <c r="J71" s="3">
         <f>SUM($C70:J70)</f>
-        <v>1477787.1592526226</v>
+        <v>1695380.6166947286</v>
       </c>
       <c r="K71" s="3">
         <f>SUM($C70:K70)</f>
-        <v>1721024.4674613257</v>
+        <v>1962813.196995433</v>
       </c>
       <c r="L71" s="3">
         <f>SUM($C70:L70)</f>
-        <v>1975132.3776434942</v>
+        <v>2240504.2818697444</v>
       </c>
       <c r="M71" s="3">
         <f>SUM($C70:M70)</f>
-        <v>2239707.3927151789</v>
+        <v>2528065.8592105098</v>
       </c>
       <c r="N71" s="3">
         <f>SUM($C70:N70)</f>
-        <v>2446617.5330250636</v>
+        <v>2757381.0426008054</v>
       </c>
       <c r="O71" s="3">
         <f>SUM($C70:O70)</f>
-        <v>2544237.965494717</v>
+        <v>2876839.7103645764</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -55273,7 +55352,7 @@
       </c>
       <c r="B76" s="3">
         <f>O71</f>
-        <v>2544237.965494717</v>
+        <v>2876839.7103645764</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>

--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sysprofiles.adm.vvsu.ru\STUDENTRPROFILES$\one\Documents\GitHub\DESING\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitLab\DESING\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,8 +21,7 @@
     <definedName name="НДФЛ">константы!$B$1</definedName>
     <definedName name="СОЦВЗНОСЫ">константы!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Номера периодов</t>
   </si>
@@ -70,22 +69,10 @@
     <t>Средний чек</t>
   </si>
   <si>
-    <t>Коэф. сезонности</t>
-  </si>
-  <si>
-    <t>Выручка с учетом сезонности</t>
-  </si>
-  <si>
     <t>Выручка без учета сезонности</t>
   </si>
   <si>
     <t>ПЕРЕМЕННЫЕ РАСХОДЫ</t>
-  </si>
-  <si>
-    <t>Себестоиомсть продаваемого товара</t>
-  </si>
-  <si>
-    <t>Маржинальность закупа %</t>
   </si>
   <si>
     <t>Доля платящих картами</t>
@@ -256,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -396,7 +383,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -478,49 +465,49 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-55196.551724137928</c:v>
+                  <c:v>-180253.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107381.88577586204</c:v>
+                  <c:v>-180101.84557500001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>371734.42515086208</c:v>
+                  <c:v>-180099.86403075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276495.97646336205</c:v>
+                  <c:v>-180097.86267105749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>346814.79243911209</c:v>
+                  <c:v>-180049.59129776809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367752.8832809481</c:v>
+                  <c:v>-180047.54971074575</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184023.64871473869</c:v>
+                  <c:v>-180045.48770785323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>289964.02319481259</c:v>
+                  <c:v>-180043.40508493173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328276.84701081621</c:v>
+                  <c:v>-180041.30163578104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>349716.49612190673</c:v>
+                  <c:v>-180039.17715213887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>371546.59087534569</c:v>
+                  <c:v>-180037.03142366026</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>303978.92663042748</c:v>
+                  <c:v>-180034.86423789687</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>162463.78815872868</c:v>
+                  <c:v>-180032.67538027582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F2FC-FE4F-AB12-AA1557455D37}"/>
             </c:ext>
@@ -559,49 +546,49 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-55196.551724137928</c:v>
+                  <c:v>-180253.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52185.334051724116</c:v>
+                  <c:v>-360355.59557500004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>423919.7592025862</c:v>
+                  <c:v>-540455.45960575005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>700415.73566594825</c:v>
+                  <c:v>-720553.32227680751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1047230.5281050603</c:v>
+                  <c:v>-900602.91357457556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1414983.4113860084</c:v>
+                  <c:v>-1080650.4632853214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1599007.060100747</c:v>
+                  <c:v>-1260695.9509931747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1888971.0832955595</c:v>
+                  <c:v>-1440739.3560781064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2217247.930306376</c:v>
+                  <c:v>-1620780.6577138875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2566964.4264282826</c:v>
+                  <c:v>-1800819.8348660264</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2938511.0173036284</c:v>
+                  <c:v>-1980856.8662896866</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3242489.943934056</c:v>
+                  <c:v>-2160891.7305275835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3404953.7320927847</c:v>
+                  <c:v>-2340924.4059078591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F2FC-FE4F-AB12-AA1557455D37}"/>
             </c:ext>
@@ -797,7 +784,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -851,7 +838,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$14</c:f>
+              <c:f>Лист1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -878,50 +865,53 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>765074.99999999988</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>772725.75</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>780453.00749999995</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>788257.53757500008</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>796140.11295075004</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>804101.5140802575</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>812142.5292210601</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>820263.95451327076</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>828466.5940584034</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>836751.25999898755</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>845118.77259897732</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>853569.96032496705</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F92-A04B-B343-370A0633F8EB}"/>
             </c:ext>
@@ -935,9 +925,6 @@
               <c:f>Лист1!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Выручка с учетом сезонности</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -959,50 +946,11 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>382537.49999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1004543.475</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>780453.00749999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>945909.04509000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>995175.14118843758</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>562871.05985618022</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>812142.5292210601</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>902290.34996459796</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>952736.58316716389</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1004101.511998785</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>845118.77259897732</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>512141.97619498021</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F92-A04B-B343-370A0633F8EB}"/>
             </c:ext>
@@ -2315,7 +2263,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2296,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,10 +2585,10 @@
   <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2653,11 +2601,11 @@
   <sheetData>
     <row r="1" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7">
         <f>O71</f>
-        <v>2876839.7103645764</v>
+        <v>-2016612.2848182903</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -51866,56 +51814,56 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <f>C16</f>
-        <v>0</v>
+        <f>C15</f>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" ref="D5:O5" si="0">D16</f>
-        <v>382537.49999999994</v>
+        <f>D15</f>
+        <v>214.221</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>1004543.475</v>
+        <f>E15</f>
+        <v>216.36321000000004</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>780453.00749999995</v>
+        <f>F15</f>
+        <v>218.52684210000001</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>945909.04509000003</v>
+        <f>G15</f>
+        <v>270.712110521</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>995175.14118843758</v>
+        <f>H15</f>
+        <v>272.91923162621003</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>562871.05985618022</v>
+        <f>I15</f>
+        <v>275.14842394247211</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>812142.5292210601</v>
+        <f>J15</f>
+        <v>277.39990818189682</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>902290.34996459796</v>
+        <f>K15</f>
+        <v>279.67390726371576</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>952736.58316716389</v>
+        <f>L15</f>
+        <v>281.97064633635296</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" si="0"/>
-        <v>1004101.511998785</v>
+        <f>M15</f>
+        <v>284.29035279971652</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>845118.77259897732</v>
+        <f>N15</f>
+        <v>286.63325632771364</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>512141.97619498021</v>
+        <f>O15</f>
+        <v>288.99958889099076</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
@@ -51924,55 +51872,55 @@
       </c>
       <c r="C6" s="3">
         <f>B8</f>
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="D6" s="3">
         <f>C8</f>
-        <v>20200</v>
+        <v>202</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:O6" si="1">D8</f>
-        <v>20402</v>
+        <f t="shared" ref="E6:O6" si="0">D8</f>
+        <v>204.02</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>20606.02</v>
+        <f t="shared" si="0"/>
+        <v>206.06020000000001</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>20812.0802</v>
+        <f t="shared" si="0"/>
+        <v>208.120802</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
-        <v>21020.201002000002</v>
+        <f t="shared" si="0"/>
+        <v>210.20201001999999</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
-        <v>21230.40301202</v>
+        <f t="shared" si="0"/>
+        <v>212.3040301202</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>21442.707042140202</v>
+        <f t="shared" si="0"/>
+        <v>214.42707042140199</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>21657.134112561605</v>
+        <f t="shared" si="0"/>
+        <v>216.57134112561602</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="1"/>
-        <v>21873.70545368722</v>
+        <f t="shared" si="0"/>
+        <v>218.73705453687217</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
-        <v>22092.442508224092</v>
+        <f t="shared" si="0"/>
+        <v>220.9244250822409</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="1"/>
-        <v>22313.366933306334</v>
+        <f t="shared" si="0"/>
+        <v>223.13366933306332</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="1"/>
-        <v>22536.500602639397</v>
+        <f t="shared" si="0"/>
+        <v>225.36500602639396</v>
       </c>
     </row>
     <row r="7" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -51983,55 +51931,55 @@
         <v>0.01</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:O7" si="2">$B7</f>
+        <f t="shared" ref="C7:O7" si="1">$B7</f>
         <v>0.01</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
     </row>
@@ -52040,59 +51988,59 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="C8" s="3">
         <f>C6*(1+C7)</f>
-        <v>20200</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3">
         <f>D6*(1+D7)</f>
-        <v>20402</v>
+        <v>204.02</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8:O8" si="3">E6*(1+E7)</f>
-        <v>20606.02</v>
+        <f t="shared" ref="E8:O8" si="2">E6*(1+E7)</f>
+        <v>206.06020000000001</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="3"/>
-        <v>20812.0802</v>
+        <f t="shared" si="2"/>
+        <v>208.120802</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="3"/>
-        <v>21020.201002000002</v>
+        <f t="shared" si="2"/>
+        <v>210.20201001999999</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
-        <v>21230.40301202</v>
+        <f t="shared" si="2"/>
+        <v>212.3040301202</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="3"/>
-        <v>21442.707042140202</v>
+        <f t="shared" si="2"/>
+        <v>214.42707042140199</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="3"/>
-        <v>21657.134112561605</v>
+        <f t="shared" si="2"/>
+        <v>216.57134112561602</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="3"/>
-        <v>21873.70545368722</v>
+        <f t="shared" si="2"/>
+        <v>218.73705453687217</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
-        <v>22092.442508224092</v>
+        <f t="shared" si="2"/>
+        <v>220.9244250822409</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="3"/>
-        <v>22313.366933306334</v>
+        <f t="shared" si="2"/>
+        <v>223.13366933306332</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="3"/>
-        <v>22536.500602639397</v>
+        <f t="shared" si="2"/>
+        <v>225.36500602639396</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="3"/>
-        <v>22761.86560866579</v>
+        <f t="shared" si="2"/>
+        <v>227.61865608665789</v>
       </c>
     </row>
     <row r="9" spans="1:16384" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -52100,55 +52048,55 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:O9" si="4">$B9</f>
-        <v>0.03</v>
+        <f t="shared" ref="D9:O9" si="3">$B9</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52161,51 +52109,51 @@
       </c>
       <c r="D10" s="3">
         <f>D8*D9</f>
-        <v>612.05999999999995</v>
+        <v>3.0603000000000002</v>
       </c>
       <c r="E10" s="3">
         <f>E8*E9</f>
-        <v>618.18060000000003</v>
+        <v>3.090903</v>
       </c>
       <c r="F10" s="3">
         <f>F8*F9</f>
-        <v>624.36240599999996</v>
+        <v>3.1218120300000001</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G10:O10" si="5">G8*G9</f>
-        <v>630.60603006000008</v>
+        <f t="shared" ref="G10:O10" si="4">G8*G9</f>
+        <v>3.1530301502999998</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="5"/>
-        <v>636.91209036060002</v>
+        <f t="shared" si="4"/>
+        <v>3.1845604518029997</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="5"/>
-        <v>643.28121126420604</v>
+        <f t="shared" si="4"/>
+        <v>3.2164060563210297</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="5"/>
-        <v>649.7140233768481</v>
+        <f t="shared" si="4"/>
+        <v>3.24857011688424</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="5"/>
-        <v>656.21116361061661</v>
+        <f t="shared" si="4"/>
+        <v>3.2810558180530824</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="5"/>
-        <v>662.77327524672273</v>
+        <f t="shared" si="4"/>
+        <v>3.3138663762336136</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="5"/>
-        <v>669.40100799919003</v>
+        <f t="shared" si="4"/>
+        <v>3.3470050399959499</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="5"/>
-        <v>676.09501807918184</v>
+        <f t="shared" si="4"/>
+        <v>3.3804750903959091</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="5"/>
-        <v>682.85596825997368</v>
+        <f t="shared" si="4"/>
+        <v>3.4142798412998681</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52213,56 +52161,56 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:O11" si="6">$B11</f>
-        <v>0.5</v>
+        <f t="shared" ref="D11:O11" si="5">$B11</f>
+        <v>0.2</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0.2</v>
       </c>
       <c r="P11" s="4"/>
     </row>
@@ -52275,52 +52223,52 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:O12" si="7">D10*D11</f>
-        <v>306.02999999999997</v>
+        <f t="shared" ref="D12:O12" si="6">D10*D11</f>
+        <v>0.61206000000000005</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="7"/>
-        <v>309.09030000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.61818060000000008</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="7"/>
-        <v>312.18120299999998</v>
+        <f t="shared" si="6"/>
+        <v>0.62436240600000004</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="7"/>
-        <v>315.30301503000004</v>
+        <f t="shared" si="6"/>
+        <v>0.63060603006000004</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="7"/>
-        <v>318.45604518030001</v>
+        <f t="shared" si="6"/>
+        <v>0.63691209036060004</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="7"/>
-        <v>321.64060563210302</v>
+        <f t="shared" si="6"/>
+        <v>0.64328121126420601</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="7"/>
-        <v>324.85701168842405</v>
+        <f t="shared" si="6"/>
+        <v>0.64971402337684803</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="7"/>
-        <v>328.1055818053083</v>
+        <f t="shared" si="6"/>
+        <v>0.65621116361061649</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="7"/>
-        <v>331.38663762336137</v>
+        <f t="shared" si="6"/>
+        <v>0.6627732752467228</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="7"/>
-        <v>334.70050399959501</v>
+        <f t="shared" si="6"/>
+        <v>0.66940100799919</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="7"/>
-        <v>338.04750903959092</v>
+        <f t="shared" si="6"/>
+        <v>0.67609501807918182</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="7"/>
-        <v>341.42798412998684</v>
+        <f t="shared" si="6"/>
+        <v>0.68285596825997363</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52328,397 +52276,240 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="C13" s="3">
         <f>$B13</f>
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ref="D13:O13" si="8">$B13</f>
-        <v>2500</v>
+        <f t="shared" ref="D13:O14" si="7">$B13</f>
+        <v>350</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="8"/>
-        <v>2500</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>50</v>
       </c>
       <c r="C14" s="3">
-        <f>C12*C13</f>
-        <v>0</v>
+        <f>$B14</f>
+        <v>50</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:O14" si="9">D12*D13</f>
-        <v>765074.99999999988</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="9"/>
-        <v>772725.75</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="9"/>
-        <v>780453.00749999995</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="9"/>
-        <v>788257.53757500008</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="9"/>
-        <v>796140.11295075004</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="9"/>
-        <v>804101.5140802575</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="9"/>
-        <v>812142.5292210601</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="9"/>
-        <v>820263.95451327076</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="9"/>
-        <v>828466.5940584034</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="9"/>
-        <v>836751.25999898755</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="9"/>
-        <v>845118.77259897732</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="9"/>
-        <v>853569.96032496705</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <f>SUM(D15:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="I15" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3">
-        <f>C14*(1+C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:O16" si="10">D14*(1+D15)</f>
-        <v>382537.49999999994</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="10"/>
-        <v>1004543.475</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="10"/>
-        <v>780453.00749999995</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="10"/>
-        <v>945909.04509000003</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="10"/>
-        <v>995175.14118843758</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="10"/>
-        <v>562871.05985618022</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="10"/>
-        <v>812142.5292210601</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="10"/>
-        <v>902290.34996459796</v>
-      </c>
-      <c r="L16" s="3">
-        <f t="shared" si="10"/>
-        <v>952736.58316716389</v>
-      </c>
-      <c r="M16" s="3">
-        <f t="shared" si="10"/>
-        <v>1004101.511998785</v>
-      </c>
-      <c r="N16" s="3">
-        <f t="shared" si="10"/>
-        <v>845118.77259897732</v>
-      </c>
-      <c r="O16" s="3">
-        <f t="shared" si="10"/>
-        <v>512141.97619498021</v>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <f>C12*C13+C14</f>
+        <v>50</v>
+      </c>
+      <c r="D15" s="3">
+        <f>D12*D13</f>
+        <v>214.221</v>
+      </c>
+      <c r="E15" s="3">
+        <f>E12*E13</f>
+        <v>216.36321000000004</v>
+      </c>
+      <c r="F15" s="3">
+        <f>F12*F13</f>
+        <v>218.52684210000001</v>
+      </c>
+      <c r="G15" s="3">
+        <f>G12*G13 +G14</f>
+        <v>270.712110521</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" ref="H15:O15" si="8">H12*H13 +H14</f>
+        <v>272.91923162621003</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="8"/>
+        <v>275.14842394247211</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="8"/>
+        <v>277.39990818189682</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="8"/>
+        <v>279.67390726371576</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="8"/>
+        <v>281.97064633635296</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="8"/>
+        <v>284.29035279971652</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="8"/>
+        <v>286.63325632771364</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="8"/>
+        <v>288.99958889099076</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7">
         <f>SUM(C18,C22)</f>
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="D17" s="7">
         <f>SUM(D18,D22)</f>
-        <v>-197006.81249999997</v>
+        <v>-3.2133150000000001</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" ref="E17:O17" si="11">SUM(E18,E22)</f>
-        <v>-517339.88962500001</v>
+        <f t="shared" ref="E17:O17" si="9">SUM(E18,E22)</f>
+        <v>-3.2454481500000005</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="11"/>
-        <v>-401933.2988625</v>
+        <f t="shared" si="9"/>
+        <v>-3.2779026314999999</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="11"/>
-        <v>-487143.15822134999</v>
+        <f t="shared" si="9"/>
+        <v>-4.0606816578149996</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="11"/>
-        <v>-512515.19771204534</v>
+        <f t="shared" si="9"/>
+        <v>-4.0937884743931505</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="11"/>
-        <v>-289878.5958259328</v>
+        <f t="shared" si="9"/>
+        <v>-4.1272263591370812</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="11"/>
-        <v>-418253.40254884597</v>
+        <f t="shared" si="9"/>
+        <v>-4.1609986227284521</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="11"/>
-        <v>-464679.53023176797</v>
+        <f t="shared" si="9"/>
+        <v>-4.1951086089557359</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="11"/>
-        <v>-490659.34033108939</v>
+        <f t="shared" si="9"/>
+        <v>-4.2295596950452943</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="11"/>
-        <v>-517112.27867937426</v>
+        <f t="shared" si="9"/>
+        <v>-4.2643552919957477</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="11"/>
-        <v>-435236.16788847331</v>
+        <f t="shared" si="9"/>
+        <v>-4.2994988449157043</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="11"/>
-        <v>-263753.1177404148</v>
+        <f t="shared" si="9"/>
+        <v>-4.3349938333648614</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
-        <f>-C5*(1-C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:O18" si="12">-D5*(1-D19)</f>
-        <v>-191268.74999999997</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="12"/>
-        <v>-502271.73749999999</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="12"/>
-        <v>-390226.50374999997</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="12"/>
-        <v>-472954.52254500001</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="12"/>
-        <v>-497587.57059421879</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="12"/>
-        <v>-281435.52992809011</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="12"/>
-        <v>-406071.26461053005</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="12"/>
-        <v>-451145.17498229898</v>
-      </c>
-      <c r="L18" s="3">
-        <f t="shared" si="12"/>
-        <v>-476368.29158358194</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" si="12"/>
-        <v>-502050.75599939248</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="12"/>
-        <v>-422559.38629948866</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="12"/>
-        <v>-256070.9880974901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="4">
-        <f>$B19</f>
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" ref="D19:O19" si="13">$B19</f>
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="O19" s="4">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -52728,57 +52519,57 @@
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ref="D20:O21" si="14">$B20</f>
+        <f t="shared" ref="D20:O21" si="10">$B20</f>
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5">
         <v>1.4999999999999999E-2</v>
@@ -52788,285 +52579,285 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:O22" si="15">-C5*C20*C21</f>
-        <v>0</v>
+        <f t="shared" ref="C22:O22" si="11">-C5*C20*C21</f>
+        <v>-0.75</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="15"/>
-        <v>-5738.0624999999991</v>
+        <f t="shared" si="11"/>
+        <v>-3.2133150000000001</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="15"/>
-        <v>-15068.152124999999</v>
+        <f t="shared" si="11"/>
+        <v>-3.2454481500000005</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="15"/>
-        <v>-11706.795112499998</v>
+        <f t="shared" si="11"/>
+        <v>-3.2779026314999999</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="15"/>
-        <v>-14188.635676350001</v>
+        <f t="shared" si="11"/>
+        <v>-4.0606816578149996</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="15"/>
-        <v>-14927.627117826563</v>
+        <f t="shared" si="11"/>
+        <v>-4.0937884743931505</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="15"/>
-        <v>-8443.0658978427036</v>
+        <f t="shared" si="11"/>
+        <v>-4.1272263591370812</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="15"/>
-        <v>-12182.137938315902</v>
+        <f t="shared" si="11"/>
+        <v>-4.1609986227284521</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="15"/>
-        <v>-13534.355249468968</v>
+        <f t="shared" si="11"/>
+        <v>-4.1951086089557359</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="15"/>
-        <v>-14291.048747507457</v>
+        <f t="shared" si="11"/>
+        <v>-4.2295596950452943</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="15"/>
-        <v>-15061.522679981774</v>
+        <f t="shared" si="11"/>
+        <v>-4.2643552919957477</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="15"/>
-        <v>-12676.781588984659</v>
+        <f t="shared" si="11"/>
+        <v>-4.2994988449157043</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="15"/>
-        <v>-7682.1296429247031</v>
+        <f t="shared" si="11"/>
+        <v>-4.3349938333648614</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" ref="C23:O23" si="16">C5+C17</f>
-        <v>0</v>
+        <f t="shared" ref="C23:O23" si="12">C5+C17</f>
+        <v>49.25</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="16"/>
-        <v>185530.68749999997</v>
+        <f t="shared" si="12"/>
+        <v>211.00768500000001</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="16"/>
-        <v>487203.58537499997</v>
+        <f t="shared" si="12"/>
+        <v>213.11776185000005</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="16"/>
-        <v>378519.70863749995</v>
+        <f t="shared" si="12"/>
+        <v>215.2489394685</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="16"/>
-        <v>458765.88686865004</v>
+        <f t="shared" si="12"/>
+        <v>266.651428863185</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="16"/>
-        <v>482659.94347639225</v>
+        <f t="shared" si="12"/>
+        <v>268.8254431518169</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="16"/>
-        <v>272992.46403024741</v>
+        <f t="shared" si="12"/>
+        <v>271.02119758333504</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="16"/>
-        <v>393889.12667221413</v>
+        <f t="shared" si="12"/>
+        <v>273.23890955916835</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="16"/>
-        <v>437610.81973282999</v>
+        <f t="shared" si="12"/>
+        <v>275.47879865476</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="16"/>
-        <v>462077.2428360745</v>
+        <f t="shared" si="12"/>
+        <v>277.74108664130767</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="16"/>
-        <v>486989.23331941071</v>
+        <f t="shared" si="12"/>
+        <v>280.02599750772077</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="16"/>
-        <v>409882.60471050401</v>
+        <f t="shared" si="12"/>
+        <v>282.33375748279792</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="16"/>
-        <v>248388.8584545654</v>
+        <f t="shared" si="12"/>
+        <v>284.66459505762589</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="str">
-        <f t="shared" ref="C24:O24" si="17">IFERROR(C23/C$5,"-")</f>
-        <v>-</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:O24" si="13">IFERROR(C23/C$5,"-")</f>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.9850000000000001</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48500000000000004</v>
+        <f t="shared" si="13"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48500000000000004</v>
+        <f t="shared" si="13"/>
+        <v>0.9850000000000001</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48500000000000004</v>
+        <f t="shared" si="13"/>
+        <v>0.9850000000000001</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.98499999999999988</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.9850000000000001</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.98499999999999999</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="17"/>
-        <v>0.48499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" ref="C25:O25" si="18">SUM(C28:C30)</f>
-        <v>-54896.551724137928</v>
+        <f>-SUM(C26:C30)</f>
+        <v>-180000</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" ref="D25:O25" si="14">-SUM(D26:D30)</f>
+        <v>-180000</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="18"/>
-        <v>-54896.551724137928</v>
+        <f t="shared" si="14"/>
+        <v>-180000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3">
         <v>30000</v>
@@ -53110,699 +52901,753 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="D27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="E27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="F27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="H27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="I27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="J27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="K27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="O27" s="3">
-        <v>25000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" s="3">
-        <f>30000/(1-НДФЛ)*(1+СОЦВЗНОСЫ)</f>
-        <v>44896.551724137928</v>
+        <v>40000</v>
       </c>
       <c r="C28" s="3">
-        <f>-$B28</f>
-        <v>-44896.551724137928</v>
+        <f>$B28</f>
+        <v>40000</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:O30" si="19">-$B28</f>
-        <v>-44896.551724137928</v>
+        <f t="shared" ref="D28:O31" si="15">$B28</f>
+        <v>40000</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="19"/>
-        <v>-44896.551724137928</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="C29" s="3">
-        <f>-$B29</f>
-        <v>0</v>
+        <f>$B29</f>
+        <v>40000</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C30" s="3">
-        <f>-$B30</f>
-        <v>-10000</v>
+        <f>$B30</f>
+        <v>30000</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="19"/>
-        <v>-10000</v>
+        <f t="shared" si="15"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C31" s="3">
+        <f>$B31</f>
+        <v>5000</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="15"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" ref="C32:O32" si="20">C23+C25</f>
-        <v>-54896.551724137928</v>
+        <f t="shared" ref="C32:O32" si="16">C23+C25</f>
+        <v>-179950.75</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="20"/>
-        <v>130634.13577586204</v>
+        <f t="shared" si="16"/>
+        <v>-179788.99231500001</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="20"/>
-        <v>432307.03365086205</v>
+        <f t="shared" si="16"/>
+        <v>-179786.88223814999</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="20"/>
-        <v>323623.15691336204</v>
+        <f t="shared" si="16"/>
+        <v>-179784.7510605315</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="20"/>
-        <v>403869.33514451212</v>
+        <f t="shared" si="16"/>
+        <v>-179733.34857113683</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="20"/>
-        <v>427763.39175225433</v>
+        <f t="shared" si="16"/>
+        <v>-179731.17455684819</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="20"/>
-        <v>218095.9123061095</v>
+        <f t="shared" si="16"/>
+        <v>-179728.97880241668</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="20"/>
-        <v>338992.57494807622</v>
+        <f t="shared" si="16"/>
+        <v>-179726.76109044082</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="20"/>
-        <v>382714.26800869207</v>
+        <f t="shared" si="16"/>
+        <v>-179724.52120134523</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="20"/>
-        <v>407180.69111193658</v>
+        <f t="shared" si="16"/>
+        <v>-179722.2589133587</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="20"/>
-        <v>432092.68159527279</v>
+        <f t="shared" si="16"/>
+        <v>-179719.97400249226</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="20"/>
-        <v>354986.05298636609</v>
+        <f t="shared" si="16"/>
+        <v>-179717.66624251721</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="20"/>
-        <v>193492.30673042749</v>
+        <f t="shared" si="16"/>
+        <v>-179715.33540494237</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C33" s="7">
         <f>C34</f>
         <v>-300</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" ref="D33:O33" si="21">D34</f>
+        <f t="shared" ref="D33:O33" si="17">D34</f>
         <v>-300</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>-300</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B34" s="3">
         <v>300</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:O34" si="22">-$B34</f>
+        <f t="shared" ref="C34:O34" si="18">-$B34</f>
         <v>-300</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:O35" si="23">C32+C33</f>
-        <v>-55196.551724137928</v>
+        <f t="shared" ref="C35:O35" si="19">C32+C33</f>
+        <v>-180250.75</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="23"/>
-        <v>130334.13577586204</v>
+        <f t="shared" si="19"/>
+        <v>-180088.99231500001</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="23"/>
-        <v>432007.03365086205</v>
+        <f t="shared" si="19"/>
+        <v>-180086.88223814999</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="23"/>
-        <v>323323.15691336204</v>
+        <f t="shared" si="19"/>
+        <v>-180084.7510605315</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="23"/>
-        <v>403569.33514451212</v>
+        <f t="shared" si="19"/>
+        <v>-180033.34857113683</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="23"/>
-        <v>427463.39175225433</v>
+        <f t="shared" si="19"/>
+        <v>-180031.17455684819</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="23"/>
-        <v>217795.9123061095</v>
+        <f t="shared" si="19"/>
+        <v>-180028.97880241668</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="23"/>
-        <v>338692.57494807622</v>
+        <f t="shared" si="19"/>
+        <v>-180026.76109044082</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="23"/>
-        <v>382414.26800869207</v>
+        <f t="shared" si="19"/>
+        <v>-180024.52120134523</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="23"/>
-        <v>406880.69111193658</v>
+        <f t="shared" si="19"/>
+        <v>-180022.2589133587</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="23"/>
-        <v>431792.68159527279</v>
+        <f t="shared" si="19"/>
+        <v>-180019.97400249226</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="23"/>
-        <v>354686.05298636609</v>
+        <f t="shared" si="19"/>
+        <v>-180017.66624251721</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="23"/>
-        <v>193192.30673042749</v>
+        <f t="shared" si="19"/>
+        <v>-180015.33540494237</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7">
         <f>C35</f>
-        <v>-55196.551724137928</v>
+        <v>-180250.75</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:O36" si="24">D35</f>
-        <v>130334.13577586204</v>
+        <f t="shared" ref="D36:O36" si="20">D35</f>
+        <v>-180088.99231500001</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="24"/>
-        <v>432007.03365086205</v>
+        <f t="shared" si="20"/>
+        <v>-180086.88223814999</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="24"/>
-        <v>323323.15691336204</v>
+        <f t="shared" si="20"/>
+        <v>-180084.7510605315</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="24"/>
-        <v>403569.33514451212</v>
+        <f t="shared" si="20"/>
+        <v>-180033.34857113683</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="24"/>
-        <v>427463.39175225433</v>
+        <f t="shared" si="20"/>
+        <v>-180031.17455684819</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="24"/>
-        <v>217795.9123061095</v>
+        <f t="shared" si="20"/>
+        <v>-180028.97880241668</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="24"/>
-        <v>338692.57494807622</v>
+        <f t="shared" si="20"/>
+        <v>-180026.76109044082</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="24"/>
-        <v>382414.26800869207</v>
+        <f t="shared" si="20"/>
+        <v>-180024.52120134523</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="24"/>
-        <v>406880.69111193658</v>
+        <f t="shared" si="20"/>
+        <v>-180022.2589133587</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="24"/>
-        <v>431792.68159527279</v>
+        <f t="shared" si="20"/>
+        <v>-180019.97400249226</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="24"/>
-        <v>354686.05298636609</v>
+        <f t="shared" si="20"/>
+        <v>-180017.66624251721</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="24"/>
-        <v>193192.30673042749</v>
+        <f t="shared" si="20"/>
+        <v>-180015.33540494237</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:O37" si="25">C43</f>
-        <v>0</v>
+        <f t="shared" ref="C37:O37" si="21">C43</f>
+        <v>-3</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="25"/>
-        <v>-22952.249999999996</v>
+        <f t="shared" si="21"/>
+        <v>-12.853260000000001</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="25"/>
-        <v>-60272.608499999995</v>
+        <f t="shared" si="21"/>
+        <v>-12.981792600000002</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="25"/>
-        <v>-46827.180449999993</v>
+        <f t="shared" si="21"/>
+        <v>-13.111610526</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="25"/>
-        <v>-56754.542705400003</v>
+        <f t="shared" si="21"/>
+        <v>-16.242726631259998</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="25"/>
-        <v>-59710.508471306253</v>
+        <f t="shared" si="21"/>
+        <v>-16.375153897572602</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="25"/>
-        <v>-33772.263591370815</v>
+        <f t="shared" si="21"/>
+        <v>-16.508905436548325</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="25"/>
-        <v>-48728.551753263608</v>
+        <f t="shared" si="21"/>
+        <v>-16.643994490913808</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="25"/>
-        <v>-54137.420997875874</v>
+        <f t="shared" si="21"/>
+        <v>-16.780434435822944</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="25"/>
-        <v>-57164.194990029828</v>
+        <f t="shared" si="21"/>
+        <v>-16.918238780181177</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="25"/>
-        <v>-60246.090719927095</v>
+        <f t="shared" si="21"/>
+        <v>-17.057421167982991</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="25"/>
-        <v>-50707.126355938635</v>
+        <f t="shared" si="21"/>
+        <v>-17.197995379662817</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="25"/>
-        <v>-30728.518571698813</v>
+        <f t="shared" si="21"/>
+        <v>-17.339975333459446</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
         <f>C36+C37</f>
-        <v>-55196.551724137928</v>
+        <v>-180253.75</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:O38" si="26">D36+D37</f>
-        <v>107381.88577586204</v>
+        <f t="shared" ref="D38:O38" si="22">D36+D37</f>
+        <v>-180101.84557500001</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="26"/>
-        <v>371734.42515086208</v>
+        <f t="shared" si="22"/>
+        <v>-180099.86403075</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="26"/>
-        <v>276495.97646336205</v>
+        <f t="shared" si="22"/>
+        <v>-180097.86267105749</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="26"/>
-        <v>346814.79243911209</v>
+        <f t="shared" si="22"/>
+        <v>-180049.59129776809</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="26"/>
-        <v>367752.8832809481</v>
+        <f t="shared" si="22"/>
+        <v>-180047.54971074575</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="26"/>
-        <v>184023.64871473869</v>
+        <f t="shared" si="22"/>
+        <v>-180045.48770785323</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="26"/>
-        <v>289964.02319481259</v>
+        <f t="shared" si="22"/>
+        <v>-180043.40508493173</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="26"/>
-        <v>328276.84701081621</v>
+        <f t="shared" si="22"/>
+        <v>-180041.30163578104</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="26"/>
-        <v>349716.49612190673</v>
+        <f t="shared" si="22"/>
+        <v>-180039.17715213887</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="26"/>
-        <v>371546.59087534569</v>
+        <f t="shared" si="22"/>
+        <v>-180037.03142366026</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="26"/>
-        <v>303978.92663042748</v>
+        <f t="shared" si="22"/>
+        <v>-180034.86423789687</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="26"/>
-        <v>162463.78815872868</v>
+        <f t="shared" si="22"/>
+        <v>-180032.67538027582</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3">
         <f>SUM($C38:C38)</f>
-        <v>-55196.551724137928</v>
+        <v>-180253.75</v>
       </c>
       <c r="D39" s="3">
         <f>SUM($C38:D38)</f>
-        <v>52185.334051724116</v>
+        <v>-360355.59557500004</v>
       </c>
       <c r="E39" s="3">
         <f>SUM($C38:E38)</f>
-        <v>423919.7592025862</v>
+        <v>-540455.45960575005</v>
       </c>
       <c r="F39" s="3">
         <f>SUM($C38:F38)</f>
-        <v>700415.73566594825</v>
+        <v>-720553.32227680751</v>
       </c>
       <c r="G39" s="3">
         <f>SUM($C38:G38)</f>
-        <v>1047230.5281050603</v>
+        <v>-900602.91357457556</v>
       </c>
       <c r="H39" s="3">
         <f>SUM($C38:H38)</f>
-        <v>1414983.4113860084</v>
+        <v>-1080650.4632853214</v>
       </c>
       <c r="I39" s="3">
         <f>SUM($C38:I38)</f>
-        <v>1599007.060100747</v>
+        <v>-1260695.9509931747</v>
       </c>
       <c r="J39" s="3">
         <f>SUM($C38:J38)</f>
-        <v>1888971.0832955595</v>
+        <v>-1440739.3560781064</v>
       </c>
       <c r="K39" s="3">
         <f>SUM($C38:K38)</f>
-        <v>2217247.930306376</v>
+        <v>-1620780.6577138875</v>
       </c>
       <c r="L39" s="3">
         <f>SUM($C38:L38)</f>
-        <v>2566964.4264282826</v>
+        <v>-1800819.8348660264</v>
       </c>
       <c r="M39" s="3">
         <f>SUM($C38:M38)</f>
-        <v>2938511.0173036284</v>
+        <v>-1980856.8662896866</v>
       </c>
       <c r="N39" s="3">
         <f>SUM($C38:N38)</f>
-        <v>3242489.943934056</v>
+        <v>-2160891.7305275835</v>
       </c>
       <c r="O39" s="3">
         <f>SUM($C38:O38)</f>
-        <v>3404953.7320927847</v>
+        <v>-2340924.4059078591</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -53821,182 +53666,182 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B41" s="4">
         <v>0.06</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" ref="C41:O41" si="27">$B41</f>
+        <f t="shared" ref="C41:O41" si="23">$B41</f>
         <v>0.06</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:O42" si="28">C5</f>
-        <v>0</v>
+        <f t="shared" ref="C42:O42" si="24">C5</f>
+        <v>50</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="28"/>
-        <v>382537.49999999994</v>
+        <f t="shared" si="24"/>
+        <v>214.221</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="28"/>
-        <v>1004543.475</v>
+        <f t="shared" si="24"/>
+        <v>216.36321000000004</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="28"/>
-        <v>780453.00749999995</v>
+        <f t="shared" si="24"/>
+        <v>218.52684210000001</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="28"/>
-        <v>945909.04509000003</v>
+        <f t="shared" si="24"/>
+        <v>270.712110521</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="28"/>
-        <v>995175.14118843758</v>
+        <f t="shared" si="24"/>
+        <v>272.91923162621003</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="28"/>
-        <v>562871.05985618022</v>
+        <f t="shared" si="24"/>
+        <v>275.14842394247211</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="28"/>
-        <v>812142.5292210601</v>
+        <f t="shared" si="24"/>
+        <v>277.39990818189682</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="28"/>
-        <v>902290.34996459796</v>
+        <f t="shared" si="24"/>
+        <v>279.67390726371576</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="28"/>
-        <v>952736.58316716389</v>
+        <f t="shared" si="24"/>
+        <v>281.97064633635296</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="28"/>
-        <v>1004101.511998785</v>
+        <f t="shared" si="24"/>
+        <v>284.29035279971652</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="28"/>
-        <v>845118.77259897732</v>
+        <f t="shared" si="24"/>
+        <v>286.63325632771364</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="28"/>
-        <v>512141.97619498021</v>
+        <f t="shared" si="24"/>
+        <v>288.99958889099076</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C43" s="3">
         <f>-C41*C42</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:O43" si="29">-D41*D42</f>
-        <v>-22952.249999999996</v>
+        <f t="shared" ref="D43:O43" si="25">-D41*D42</f>
+        <v>-12.853260000000001</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="29"/>
-        <v>-60272.608499999995</v>
+        <f t="shared" si="25"/>
+        <v>-12.981792600000002</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="29"/>
-        <v>-46827.180449999993</v>
+        <f t="shared" si="25"/>
+        <v>-13.111610526</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="29"/>
-        <v>-56754.542705400003</v>
+        <f t="shared" si="25"/>
+        <v>-16.242726631259998</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="29"/>
-        <v>-59710.508471306253</v>
+        <f t="shared" si="25"/>
+        <v>-16.375153897572602</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="29"/>
-        <v>-33772.263591370815</v>
+        <f t="shared" si="25"/>
+        <v>-16.508905436548325</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="29"/>
-        <v>-48728.551753263608</v>
+        <f t="shared" si="25"/>
+        <v>-16.643994490913808</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="29"/>
-        <v>-54137.420997875874</v>
+        <f t="shared" si="25"/>
+        <v>-16.780434435822944</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="29"/>
-        <v>-57164.194990029828</v>
+        <f t="shared" si="25"/>
+        <v>-16.918238780181177</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="29"/>
-        <v>-60246.090719927095</v>
+        <f t="shared" si="25"/>
+        <v>-17.057421167982991</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="29"/>
-        <v>-50707.126355938635</v>
+        <f t="shared" si="25"/>
+        <v>-17.197995379662817</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="29"/>
-        <v>-30728.518571698813</v>
+        <f t="shared" si="25"/>
+        <v>-17.339975333459446</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7">
@@ -54041,7 +53886,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10">
@@ -54086,7 +53931,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B47" s="3">
         <v>0</v>
@@ -54133,7 +53978,7 @@
     </row>
     <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B48" s="7">
         <v>0</v>
@@ -54180,7 +54025,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B49" s="7">
         <v>0</v>
@@ -54228,7 +54073,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B50" s="7">
         <v>0</v>
@@ -54276,7 +54121,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -54295,354 +54140,354 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:O52" si="30">B56</f>
+        <f t="shared" ref="C52:O52" si="26">B56</f>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="30"/>
-        <v>-55196.551724137928</v>
+        <f t="shared" si="26"/>
+        <v>-180253.75</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="30"/>
-        <v>52185.334051724116</v>
+        <f t="shared" si="26"/>
+        <v>-360355.59557500004</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="30"/>
-        <v>423919.7592025862</v>
+        <f t="shared" si="26"/>
+        <v>-540455.45960575005</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="30"/>
-        <v>700415.73566594825</v>
+        <f t="shared" si="26"/>
+        <v>-720553.32227680751</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="30"/>
-        <v>1047230.5281050603</v>
+        <f t="shared" si="26"/>
+        <v>-900602.91357457556</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="30"/>
-        <v>1414983.4113860084</v>
+        <f t="shared" si="26"/>
+        <v>-1080650.4632853214</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="30"/>
-        <v>1599007.060100747</v>
+        <f t="shared" si="26"/>
+        <v>-1260695.9509931747</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="30"/>
-        <v>1888971.0832955595</v>
+        <f t="shared" si="26"/>
+        <v>-1440739.3560781064</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="30"/>
-        <v>2217247.930306376</v>
+        <f t="shared" si="26"/>
+        <v>-1620780.6577138875</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="30"/>
-        <v>2566964.4264282826</v>
+        <f t="shared" si="26"/>
+        <v>-1800819.8348660264</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="30"/>
-        <v>2938511.0173036284</v>
+        <f t="shared" si="26"/>
+        <v>-1980856.8662896866</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="30"/>
-        <v>3242489.943934056</v>
+        <f t="shared" si="26"/>
+        <v>-2160891.7305275835</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C53" s="3">
         <f>C35-C46+0+C37</f>
-        <v>-55196.551724137928</v>
+        <v>-180253.75</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" ref="D53:H53" si="31">D35-D46+0+D37</f>
-        <v>107381.88577586204</v>
+        <f t="shared" ref="D53:H53" si="27">D35-D46+0+D37</f>
+        <v>-180101.84557500001</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="31"/>
-        <v>371734.42515086208</v>
+        <f t="shared" si="27"/>
+        <v>-180099.86403075</v>
       </c>
       <c r="F53" s="3">
         <f>F35-F46+0+F37</f>
-        <v>276495.97646336205</v>
+        <v>-180097.86267105749</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="31"/>
-        <v>346814.79243911209</v>
+        <f t="shared" si="27"/>
+        <v>-180049.59129776809</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="31"/>
-        <v>367752.8832809481</v>
+        <f t="shared" si="27"/>
+        <v>-180047.54971074575</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" ref="I53:N53" si="32">I35-I46+0+I37</f>
-        <v>184023.64871473869</v>
+        <f t="shared" ref="I53:N53" si="28">I35-I46+0+I37</f>
+        <v>-180045.48770785323</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="32"/>
-        <v>289964.02319481259</v>
+        <f t="shared" si="28"/>
+        <v>-180043.40508493173</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="32"/>
-        <v>328276.84701081621</v>
+        <f t="shared" si="28"/>
+        <v>-180041.30163578104</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="32"/>
-        <v>349716.49612190673</v>
+        <f t="shared" si="28"/>
+        <v>-180039.17715213887</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="32"/>
-        <v>371546.59087534569</v>
+        <f t="shared" si="28"/>
+        <v>-180037.03142366026</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="32"/>
-        <v>303978.92663042748</v>
+        <f t="shared" si="28"/>
+        <v>-180034.86423789687</v>
       </c>
       <c r="O53" s="3">
         <f>O35-O46+0+O37</f>
-        <v>162463.78815872868</v>
+        <v>-180032.67538027582</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ref="C54:O54" si="33">C92+C93+C96+C97</f>
+        <f t="shared" ref="C54:O54" si="29">C92+C93+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55:O55" si="34">SUM(C53:C54)</f>
-        <v>-55196.551724137928</v>
+        <f t="shared" ref="C55:O55" si="30">SUM(C53:C54)</f>
+        <v>-180253.75</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="34"/>
-        <v>107381.88577586204</v>
+        <f t="shared" si="30"/>
+        <v>-180101.84557500001</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="34"/>
-        <v>371734.42515086208</v>
+        <f t="shared" si="30"/>
+        <v>-180099.86403075</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="34"/>
-        <v>276495.97646336205</v>
+        <f t="shared" si="30"/>
+        <v>-180097.86267105749</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="34"/>
-        <v>346814.79243911209</v>
+        <f t="shared" si="30"/>
+        <v>-180049.59129776809</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="34"/>
-        <v>367752.8832809481</v>
+        <f t="shared" si="30"/>
+        <v>-180047.54971074575</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="34"/>
-        <v>184023.64871473869</v>
+        <f t="shared" si="30"/>
+        <v>-180045.48770785323</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="34"/>
-        <v>289964.02319481259</v>
+        <f t="shared" si="30"/>
+        <v>-180043.40508493173</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="34"/>
-        <v>328276.84701081621</v>
+        <f t="shared" si="30"/>
+        <v>-180041.30163578104</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="34"/>
-        <v>349716.49612190673</v>
+        <f t="shared" si="30"/>
+        <v>-180039.17715213887</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="34"/>
-        <v>371546.59087534569</v>
+        <f t="shared" si="30"/>
+        <v>-180037.03142366026</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="34"/>
-        <v>303978.92663042748</v>
+        <f t="shared" si="30"/>
+        <v>-180034.86423789687</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="34"/>
-        <v>162463.78815872868</v>
+        <f t="shared" si="30"/>
+        <v>-180032.67538027582</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
-        <f t="shared" ref="C56:O56" si="35">C52+C55</f>
-        <v>-55196.551724137928</v>
+        <f t="shared" ref="C56:O56" si="31">C52+C55</f>
+        <v>-180253.75</v>
       </c>
       <c r="D56" s="14">
-        <f t="shared" si="35"/>
-        <v>52185.334051724116</v>
+        <f t="shared" si="31"/>
+        <v>-360355.59557500004</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="35"/>
-        <v>423919.7592025862</v>
+        <f t="shared" si="31"/>
+        <v>-540455.45960575005</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" si="35"/>
-        <v>700415.73566594825</v>
+        <f t="shared" si="31"/>
+        <v>-720553.32227680751</v>
       </c>
       <c r="G56" s="14">
-        <f t="shared" si="35"/>
-        <v>1047230.5281050603</v>
+        <f t="shared" si="31"/>
+        <v>-900602.91357457556</v>
       </c>
       <c r="H56" s="14">
-        <f t="shared" si="35"/>
-        <v>1414983.4113860084</v>
+        <f t="shared" si="31"/>
+        <v>-1080650.4632853214</v>
       </c>
       <c r="I56" s="14">
-        <f t="shared" si="35"/>
-        <v>1599007.060100747</v>
+        <f t="shared" si="31"/>
+        <v>-1260695.9509931747</v>
       </c>
       <c r="J56" s="14">
-        <f t="shared" si="35"/>
-        <v>1888971.0832955595</v>
+        <f t="shared" si="31"/>
+        <v>-1440739.3560781064</v>
       </c>
       <c r="K56" s="14">
-        <f t="shared" si="35"/>
-        <v>2217247.930306376</v>
+        <f t="shared" si="31"/>
+        <v>-1620780.6577138875</v>
       </c>
       <c r="L56" s="14">
-        <f t="shared" si="35"/>
-        <v>2566964.4264282826</v>
+        <f t="shared" si="31"/>
+        <v>-1800819.8348660264</v>
       </c>
       <c r="M56" s="14">
-        <f t="shared" si="35"/>
-        <v>2938511.0173036284</v>
+        <f t="shared" si="31"/>
+        <v>-1980856.8662896866</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="35"/>
-        <v>3242489.943934056</v>
+        <f t="shared" si="31"/>
+        <v>-2160891.7305275835</v>
       </c>
       <c r="O56" s="14">
-        <f t="shared" si="35"/>
-        <v>3404953.7320927847</v>
+        <f t="shared" si="31"/>
+        <v>-2340924.4059078591</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3">
         <f>SUM(C57:O57)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C57" s="3">
         <f>IF(C56&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" ref="D57:O57" si="36">IF(D56&lt;0,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="D57:O57" si="32">IF(D56&lt;0,1,0)</f>
+        <v>1</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -54661,128 +54506,128 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B59" s="7">
         <f>B60</f>
         <v>0</v>
       </c>
       <c r="C59" s="7">
-        <f t="shared" ref="C59:O59" si="37">C60</f>
-        <v>-55196.551724137928</v>
+        <f t="shared" ref="C59:O59" si="33">C60</f>
+        <v>-180253.75</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="37"/>
-        <v>52185.334051724116</v>
+        <f t="shared" si="33"/>
+        <v>-360355.59557500004</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="37"/>
-        <v>423919.7592025862</v>
+        <f t="shared" si="33"/>
+        <v>-540455.45960575005</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="37"/>
-        <v>700415.73566594825</v>
+        <f t="shared" si="33"/>
+        <v>-720553.32227680751</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="37"/>
-        <v>1047230.5281050603</v>
+        <f t="shared" si="33"/>
+        <v>-900602.91357457556</v>
       </c>
       <c r="H59" s="7">
-        <f t="shared" si="37"/>
-        <v>1414983.4113860084</v>
+        <f t="shared" si="33"/>
+        <v>-1080650.4632853214</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="37"/>
-        <v>1599007.060100747</v>
+        <f t="shared" si="33"/>
+        <v>-1260695.9509931747</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="37"/>
-        <v>1888971.0832955595</v>
+        <f t="shared" si="33"/>
+        <v>-1440739.3560781064</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="37"/>
-        <v>2217247.930306376</v>
+        <f t="shared" si="33"/>
+        <v>-1620780.6577138875</v>
       </c>
       <c r="L59" s="7">
-        <f t="shared" si="37"/>
-        <v>2566964.4264282826</v>
+        <f t="shared" si="33"/>
+        <v>-1800819.8348660264</v>
       </c>
       <c r="M59" s="7">
-        <f t="shared" si="37"/>
-        <v>2938511.0173036284</v>
+        <f t="shared" si="33"/>
+        <v>-1980856.8662896866</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" si="37"/>
-        <v>3242489.943934056</v>
+        <f t="shared" si="33"/>
+        <v>-2160891.7305275835</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="37"/>
-        <v>3404953.7320927847</v>
+        <f t="shared" si="33"/>
+        <v>-2340924.4059078591</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ref="C60:O60" si="38">B60+C55</f>
-        <v>-55196.551724137928</v>
+        <f t="shared" ref="C60:O60" si="34">B60+C55</f>
+        <v>-180253.75</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="38"/>
-        <v>52185.334051724116</v>
+        <f t="shared" si="34"/>
+        <v>-360355.59557500004</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="38"/>
-        <v>423919.7592025862</v>
+        <f t="shared" si="34"/>
+        <v>-540455.45960575005</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="38"/>
-        <v>700415.73566594825</v>
+        <f t="shared" si="34"/>
+        <v>-720553.32227680751</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="38"/>
-        <v>1047230.5281050603</v>
+        <f t="shared" si="34"/>
+        <v>-900602.91357457556</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="38"/>
-        <v>1414983.4113860084</v>
+        <f t="shared" si="34"/>
+        <v>-1080650.4632853214</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="38"/>
-        <v>1599007.060100747</v>
+        <f t="shared" si="34"/>
+        <v>-1260695.9509931747</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="38"/>
-        <v>1888971.0832955595</v>
+        <f t="shared" si="34"/>
+        <v>-1440739.3560781064</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="38"/>
-        <v>2217247.930306376</v>
+        <f t="shared" si="34"/>
+        <v>-1620780.6577138875</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="38"/>
-        <v>2566964.4264282826</v>
+        <f t="shared" si="34"/>
+        <v>-1800819.8348660264</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="38"/>
-        <v>2938511.0173036284</v>
+        <f t="shared" si="34"/>
+        <v>-1980856.8662896866</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="38"/>
-        <v>3242489.943934056</v>
+        <f t="shared" si="34"/>
+        <v>-2160891.7305275835</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="38"/>
-        <v>3404953.7320927847</v>
+        <f t="shared" si="34"/>
+        <v>-2340924.4059078591</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B61" s="7">
         <f>SUM(B62:B65)</f>
@@ -54790,240 +54635,240 @@
       </c>
       <c r="C61" s="7">
         <f>SUM(C62:C65)</f>
-        <v>-55196.551724137928</v>
+        <v>-180253.75</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" ref="D61" si="39">SUM(D62:D65)</f>
-        <v>52185.334051724116</v>
+        <f t="shared" ref="D61" si="35">SUM(D62:D65)</f>
+        <v>-360355.59557500004</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" ref="E61" si="40">SUM(E62:E65)</f>
-        <v>423919.7592025862</v>
+        <f t="shared" ref="E61" si="36">SUM(E62:E65)</f>
+        <v>-540455.45960575005</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" ref="F61" si="41">SUM(F62:F65)</f>
-        <v>700415.73566594825</v>
+        <f t="shared" ref="F61" si="37">SUM(F62:F65)</f>
+        <v>-720553.32227680751</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" ref="G61" si="42">SUM(G62:G65)</f>
-        <v>1047230.5281050603</v>
+        <f t="shared" ref="G61" si="38">SUM(G62:G65)</f>
+        <v>-900602.91357457556</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" ref="H61" si="43">SUM(H62:H65)</f>
-        <v>1414983.4113860084</v>
+        <f t="shared" ref="H61" si="39">SUM(H62:H65)</f>
+        <v>-1080650.4632853214</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" ref="I61" si="44">SUM(I62:I65)</f>
-        <v>1599007.060100747</v>
+        <f t="shared" ref="I61" si="40">SUM(I62:I65)</f>
+        <v>-1260695.9509931747</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" ref="J61" si="45">SUM(J62:J65)</f>
-        <v>1888971.0832955595</v>
+        <f t="shared" ref="J61" si="41">SUM(J62:J65)</f>
+        <v>-1440739.3560781064</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" ref="K61" si="46">SUM(K62:K65)</f>
-        <v>2217247.930306376</v>
+        <f t="shared" ref="K61" si="42">SUM(K62:K65)</f>
+        <v>-1620780.6577138875</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" ref="L61" si="47">SUM(L62:L65)</f>
-        <v>2566964.4264282826</v>
+        <f t="shared" ref="L61" si="43">SUM(L62:L65)</f>
+        <v>-1800819.8348660264</v>
       </c>
       <c r="M61" s="7">
-        <f t="shared" ref="M61" si="48">SUM(M62:M65)</f>
-        <v>2938511.0173036284</v>
+        <f t="shared" ref="M61" si="44">SUM(M62:M65)</f>
+        <v>-1980856.8662896866</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" ref="N61" si="49">SUM(N62:N65)</f>
-        <v>3242489.943934056</v>
+        <f t="shared" ref="N61" si="45">SUM(N62:N65)</f>
+        <v>-2160891.7305275835</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61" si="50">SUM(O62:O65)</f>
-        <v>3404953.7320927847</v>
+        <f t="shared" ref="O61" si="46">SUM(O62:O65)</f>
+        <v>-2340924.4059078591</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ref="C62:O62" si="51">B62+C92</f>
+        <f t="shared" ref="C62:O62" si="47">B62+C92</f>
         <v>0</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ref="C63:O63" si="52">B63+C38+C93</f>
-        <v>-55196.551724137928</v>
+        <f t="shared" ref="C63:O63" si="48">B63+C38+C93</f>
+        <v>-180253.75</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="52"/>
-        <v>52185.334051724116</v>
+        <f t="shared" si="48"/>
+        <v>-360355.59557500004</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="52"/>
-        <v>423919.7592025862</v>
+        <f t="shared" si="48"/>
+        <v>-540455.45960575005</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="52"/>
-        <v>700415.73566594825</v>
+        <f t="shared" si="48"/>
+        <v>-720553.32227680751</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="52"/>
-        <v>1047230.5281050603</v>
+        <f t="shared" si="48"/>
+        <v>-900602.91357457556</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="52"/>
-        <v>1414983.4113860084</v>
+        <f t="shared" si="48"/>
+        <v>-1080650.4632853214</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="52"/>
-        <v>1599007.060100747</v>
+        <f t="shared" si="48"/>
+        <v>-1260695.9509931747</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="52"/>
-        <v>1888971.0832955595</v>
+        <f t="shared" si="48"/>
+        <v>-1440739.3560781064</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="52"/>
-        <v>2217247.930306376</v>
+        <f t="shared" si="48"/>
+        <v>-1620780.6577138875</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="52"/>
-        <v>2566964.4264282826</v>
+        <f t="shared" si="48"/>
+        <v>-1800819.8348660264</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="52"/>
-        <v>2938511.0173036284</v>
+        <f t="shared" si="48"/>
+        <v>-1980856.8662896866</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="52"/>
-        <v>3242489.943934056</v>
+        <f t="shared" si="48"/>
+        <v>-2160891.7305275835</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="52"/>
-        <v>3404953.7320927847</v>
+        <f t="shared" si="48"/>
+        <v>-2340924.4059078591</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" ref="C64:O64" si="53">B64+C96+C97</f>
+        <f t="shared" ref="C64:O64" si="49">B64+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -55033,47 +54878,47 @@
         <v>0</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ref="D65:N65" si="54">C65+D49</f>
+        <f t="shared" ref="D65:N65" si="50">C65+D49</f>
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O65" s="3">
@@ -55083,235 +54928,235 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C67" s="3">
         <f>C53</f>
-        <v>-55196.551724137928</v>
+        <v>-180253.75</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:O67" si="55">D53</f>
-        <v>107381.88577586204</v>
+        <f t="shared" ref="D67:O67" si="51">D53</f>
+        <v>-180101.84557500001</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="55"/>
-        <v>371734.42515086208</v>
+        <f t="shared" si="51"/>
+        <v>-180099.86403075</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="55"/>
-        <v>276495.97646336205</v>
+        <f t="shared" si="51"/>
+        <v>-180097.86267105749</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="55"/>
-        <v>346814.79243911209</v>
+        <f t="shared" si="51"/>
+        <v>-180049.59129776809</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="55"/>
-        <v>367752.8832809481</v>
+        <f t="shared" si="51"/>
+        <v>-180047.54971074575</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="55"/>
-        <v>184023.64871473869</v>
+        <f t="shared" si="51"/>
+        <v>-180045.48770785323</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="55"/>
-        <v>289964.02319481259</v>
+        <f t="shared" si="51"/>
+        <v>-180043.40508493173</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="55"/>
-        <v>328276.84701081621</v>
+        <f t="shared" si="51"/>
+        <v>-180041.30163578104</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="55"/>
-        <v>349716.49612190673</v>
+        <f t="shared" si="51"/>
+        <v>-180039.17715213887</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="55"/>
-        <v>371546.59087534569</v>
+        <f t="shared" si="51"/>
+        <v>-180037.03142366026</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="55"/>
-        <v>303978.92663042748</v>
+        <f t="shared" si="51"/>
+        <v>-180034.86423789687</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="55"/>
-        <v>162463.78815872868</v>
+        <f t="shared" si="51"/>
+        <v>-180032.67538027582</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3">
         <f>SUM($C67:C67)</f>
-        <v>-55196.551724137928</v>
+        <v>-180253.75</v>
       </c>
       <c r="D68" s="3">
         <f>SUM($C67:D67)</f>
-        <v>52185.334051724116</v>
+        <v>-360355.59557500004</v>
       </c>
       <c r="E68" s="3">
         <f>SUM($C67:E67)</f>
-        <v>423919.7592025862</v>
+        <v>-540455.45960575005</v>
       </c>
       <c r="F68" s="3">
         <f>SUM($C67:F67)</f>
-        <v>700415.73566594825</v>
+        <v>-720553.32227680751</v>
       </c>
       <c r="G68" s="3">
         <f>SUM($C67:G67)</f>
-        <v>1047230.5281050603</v>
+        <v>-900602.91357457556</v>
       </c>
       <c r="H68" s="3">
         <f>SUM($C67:H67)</f>
-        <v>1414983.4113860084</v>
+        <v>-1080650.4632853214</v>
       </c>
       <c r="I68" s="3">
         <f>SUM($C67:I67)</f>
-        <v>1599007.060100747</v>
+        <v>-1260695.9509931747</v>
       </c>
       <c r="J68" s="3">
         <f>SUM($C67:J67)</f>
-        <v>1888971.0832955595</v>
+        <v>-1440739.3560781064</v>
       </c>
       <c r="K68" s="3">
         <f>SUM($C67:K67)</f>
-        <v>2217247.930306376</v>
+        <v>-1620780.6577138875</v>
       </c>
       <c r="L68" s="3">
         <f>SUM($C67:L67)</f>
-        <v>2566964.4264282826</v>
+        <v>-1800819.8348660264</v>
       </c>
       <c r="M68" s="3">
         <f>SUM($C67:M67)</f>
-        <v>2938511.0173036284</v>
+        <v>-1980856.8662896866</v>
       </c>
       <c r="N68" s="3">
         <f>SUM($C67:N67)</f>
-        <v>3242489.943934056</v>
+        <v>-2160891.7305275835</v>
       </c>
       <c r="O68" s="3">
         <f>SUM($C67:O67)</f>
-        <v>3404953.7320927847</v>
+        <v>-2340924.4059078591</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ref="C70:O70" si="56">C67/(1+$B$74)^C2</f>
-        <v>-55196.551724137928</v>
+        <f t="shared" ref="C70:O70" si="52">C67/(1+$B$74)^C2</f>
+        <v>-180253.75</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" si="56"/>
-        <v>104665.3148348391</v>
+        <f t="shared" si="52"/>
+        <v>-175545.58884157965</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="56"/>
-        <v>353163.89411946631</v>
+        <f t="shared" si="52"/>
+        <v>-171102.71475576458</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="56"/>
-        <v>256037.80113181367</v>
+        <f t="shared" si="52"/>
+        <v>-166772.26676731443</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="56"/>
-        <v>313029.05013702175</v>
+        <f t="shared" si="52"/>
+        <v>-162509.65578809386</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="56"/>
-        <v>323530.23602822796</v>
+        <f t="shared" si="52"/>
+        <v>-158396.65411873994</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="56"/>
-        <v>157798.97693669869</v>
+        <f t="shared" si="52"/>
+        <v>-154387.73201594892</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="56"/>
-        <v>242351.89523079901</v>
+        <f t="shared" si="52"/>
+        <v>-150480.25601722402</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="56"/>
-        <v>267432.58030070429</v>
+        <f t="shared" si="52"/>
+        <v>-146671.6592887463</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="56"/>
-        <v>277691.0848743114</v>
+        <f t="shared" si="52"/>
+        <v>-142959.43993968205</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="56"/>
-        <v>287561.57734076527</v>
+        <f t="shared" si="52"/>
+        <v>-139341.1593791373</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="56"/>
-        <v>229315.1833902958</v>
+        <f t="shared" si="52"/>
+        <v>-135814.44071468024</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="56"/>
-        <v>119458.66776377098</v>
+        <f t="shared" si="52"/>
+        <v>-132376.96719137917</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C71" s="3">
         <f>SUM($C70:C70)</f>
-        <v>-55196.551724137928</v>
+        <v>-180253.75</v>
       </c>
       <c r="D71" s="3">
         <f>SUM($C70:D70)</f>
-        <v>49468.763110701169</v>
+        <v>-355799.33884157962</v>
       </c>
       <c r="E71" s="3">
         <f>SUM($C70:E70)</f>
-        <v>402632.65723016748</v>
+        <v>-526902.0535973442</v>
       </c>
       <c r="F71" s="3">
         <f>SUM($C70:F70)</f>
-        <v>658670.4583619812</v>
+        <v>-693674.3203646586</v>
       </c>
       <c r="G71" s="3">
         <f>SUM($C70:G70)</f>
-        <v>971699.50849900302</v>
+        <v>-856183.97615275253</v>
       </c>
       <c r="H71" s="3">
         <f>SUM($C70:H70)</f>
-        <v>1295229.744527231</v>
+        <v>-1014580.6302714925</v>
       </c>
       <c r="I71" s="3">
         <f>SUM($C70:I70)</f>
-        <v>1453028.7214639296</v>
+        <v>-1168968.3622874415</v>
       </c>
       <c r="J71" s="3">
         <f>SUM($C70:J70)</f>
-        <v>1695380.6166947286</v>
+        <v>-1319448.6183046654</v>
       </c>
       <c r="K71" s="3">
         <f>SUM($C70:K70)</f>
-        <v>1962813.196995433</v>
+        <v>-1466120.2775934117</v>
       </c>
       <c r="L71" s="3">
         <f>SUM($C70:L70)</f>
-        <v>2240504.2818697444</v>
+        <v>-1609079.7175330939</v>
       </c>
       <c r="M71" s="3">
         <f>SUM($C70:M70)</f>
-        <v>2528065.8592105098</v>
+        <v>-1748420.8769122311</v>
       </c>
       <c r="N71" s="3">
         <f>SUM($C70:N70)</f>
-        <v>2757381.0426008054</v>
+        <v>-1884235.3176269112</v>
       </c>
       <c r="O71" s="3">
         <f>SUM($C70:O70)</f>
-        <v>2876839.7103645764</v>
+        <v>-2016612.2848182903</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B73" s="5">
         <v>0.36</v>
@@ -55335,7 +55180,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B74" s="5">
         <f>C74-1</f>
@@ -55348,11 +55193,11 @@
     </row>
     <row r="76" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B76" s="3">
         <f>O71</f>
-        <v>2876839.7103645764</v>
+        <v>-2016612.2848182903</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -55370,7 +55215,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B77" s="4">
         <v>3.8025612982647847</v>
@@ -55415,7 +55260,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="8">
         <v>0.13</v>
@@ -55423,7 +55268,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="9">
         <v>0.30199999999999999</v>

--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitLab\DESING\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sysprofiles.adm.vvsu.ru\STUDENTRPROFILES$\one\Documents\GitHub\DESING\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <definedName name="НДФЛ">константы!$B$1</definedName>
     <definedName name="СОЦВЗНОСЫ">константы!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -468,46 +468,46 @@
                   <c:v>-180253.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-180101.84557500001</c:v>
+                  <c:v>-179908.26250000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-180099.86403075</c:v>
+                  <c:v>-179869.08875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-180097.86267105749</c:v>
+                  <c:v>-179825.99762499999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-180049.59129776809</c:v>
+                  <c:v>-179732.34738749999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-180047.54971074575</c:v>
+                  <c:v>-179680.20712625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-180045.48770785323</c:v>
+                  <c:v>-179622.852838875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-180043.40508493173</c:v>
+                  <c:v>-179559.76312276252</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-180041.30163578104</c:v>
+                  <c:v>-179490.36443503876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-180039.17715213887</c:v>
+                  <c:v>-179414.02587854263</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-180037.03142366026</c:v>
+                  <c:v>-179330.0534663969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-180034.86423789687</c:v>
+                  <c:v>-179237.68381303659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-180032.67538027582</c:v>
+                  <c:v>-179136.07719434021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F2FC-FE4F-AB12-AA1557455D37}"/>
             </c:ext>
@@ -549,46 +549,46 @@
                   <c:v>-180253.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-360355.59557500004</c:v>
+                  <c:v>-360162.01250000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-540455.45960575005</c:v>
+                  <c:v>-540031.10125000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-720553.32227680751</c:v>
+                  <c:v>-719857.09887500003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-900602.91357457556</c:v>
+                  <c:v>-899589.44626250002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1080650.4632853214</c:v>
+                  <c:v>-1079269.65338875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1260695.9509931747</c:v>
+                  <c:v>-1258892.5062276251</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1440739.3560781064</c:v>
+                  <c:v>-1438452.2693503876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1620780.6577138875</c:v>
+                  <c:v>-1617942.6337854264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1800819.8348660264</c:v>
+                  <c:v>-1797356.659663969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1980856.8662896866</c:v>
+                  <c:v>-1976686.7131303658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2160891.7305275835</c:v>
+                  <c:v>-2155924.3969434025</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2340924.4059078591</c:v>
+                  <c:v>-2335060.4741377425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F2FC-FE4F-AB12-AA1557455D37}"/>
             </c:ext>
@@ -603,11 +603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="691777200"/>
-        <c:axId val="691778320"/>
+        <c:axId val="620354240"/>
+        <c:axId val="620354800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="691777200"/>
+        <c:axId val="620354240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +649,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691778320"/>
+        <c:crossAx val="620354800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -657,7 +657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="691778320"/>
+        <c:axId val="620354800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +708,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691777200"/>
+        <c:crossAx val="620354240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -911,7 +911,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F92-A04B-B343-370A0633F8EB}"/>
             </c:ext>
@@ -950,7 +950,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F92-A04B-B343-370A0633F8EB}"/>
             </c:ext>
@@ -965,11 +965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="691781120"/>
-        <c:axId val="691781680"/>
+        <c:axId val="620357600"/>
+        <c:axId val="620358160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="691781120"/>
+        <c:axId val="620357600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1011,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691781680"/>
+        <c:crossAx val="620358160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1019,7 +1019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="691781680"/>
+        <c:axId val="620358160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1070,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691781120"/>
+        <c:crossAx val="620357600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2263,7 +2263,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2296,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,10 +2585,10 @@
   <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B1" s="7">
         <f>O71</f>
-        <v>-2016612.2848182903</v>
+        <v>-2011823.426702898</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -51814,56 +51814,56 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <f>C15</f>
+        <f t="shared" ref="C5:O5" si="0">C15</f>
         <v>50</v>
       </c>
       <c r="D5" s="7">
-        <f>D15</f>
-        <v>214.221</v>
+        <f t="shared" si="0"/>
+        <v>423.50000000000017</v>
       </c>
       <c r="E5" s="7">
-        <f>E15</f>
-        <v>216.36321000000004</v>
+        <f t="shared" si="0"/>
+        <v>465.85000000000019</v>
       </c>
       <c r="F5" s="7">
-        <f>F15</f>
-        <v>218.52684210000001</v>
+        <f t="shared" si="0"/>
+        <v>512.4350000000004</v>
       </c>
       <c r="G5" s="7">
-        <f>G15</f>
-        <v>270.712110521</v>
+        <f t="shared" si="0"/>
+        <v>613.67850000000044</v>
       </c>
       <c r="H5" s="7">
-        <f>H15</f>
-        <v>272.91923162621003</v>
+        <f t="shared" si="0"/>
+        <v>670.04635000000042</v>
       </c>
       <c r="I5" s="7">
-        <f>I15</f>
-        <v>275.14842394247211</v>
+        <f t="shared" si="0"/>
+        <v>732.05098500000065</v>
       </c>
       <c r="J5" s="7">
-        <f>J15</f>
-        <v>277.39990818189682</v>
+        <f t="shared" si="0"/>
+        <v>800.25608350000073</v>
       </c>
       <c r="K5" s="7">
-        <f>K15</f>
-        <v>279.67390726371576</v>
+        <f t="shared" si="0"/>
+        <v>875.28169185000093</v>
       </c>
       <c r="L5" s="7">
-        <f>L15</f>
-        <v>281.97064633635296</v>
+        <f t="shared" si="0"/>
+        <v>957.80986103500118</v>
       </c>
       <c r="M5" s="7">
-        <f>M15</f>
-        <v>284.29035279971652</v>
+        <f t="shared" si="0"/>
+        <v>1048.5908471385012</v>
       </c>
       <c r="N5" s="7">
-        <f>N15</f>
-        <v>286.63325632771364</v>
+        <f t="shared" si="0"/>
+        <v>1148.4499318523515</v>
       </c>
       <c r="O5" s="7">
-        <f>O15</f>
-        <v>288.99958889099076</v>
+        <f t="shared" si="0"/>
+        <v>1258.2949250375864</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
@@ -51876,51 +51876,51 @@
       </c>
       <c r="D6" s="3">
         <f>C8</f>
-        <v>202</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:O6" si="0">D8</f>
-        <v>204.02</v>
+        <f t="shared" ref="E6:O6" si="1">D8</f>
+        <v>242.00000000000006</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>206.06020000000001</v>
+        <f t="shared" si="1"/>
+        <v>266.2000000000001</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>208.120802</v>
+        <f t="shared" si="1"/>
+        <v>292.82000000000016</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>210.20201001999999</v>
+        <f t="shared" si="1"/>
+        <v>322.1020000000002</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>212.3040301202</v>
+        <f t="shared" si="1"/>
+        <v>354.31220000000025</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>214.42707042140199</v>
+        <f t="shared" si="1"/>
+        <v>389.7434200000003</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="0"/>
-        <v>216.57134112561602</v>
+        <f t="shared" si="1"/>
+        <v>428.71776200000039</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="0"/>
-        <v>218.73705453687217</v>
+        <f t="shared" si="1"/>
+        <v>471.58953820000045</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="0"/>
-        <v>220.9244250822409</v>
+        <f t="shared" si="1"/>
+        <v>518.74849202000053</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="0"/>
-        <v>223.13366933306332</v>
+        <f t="shared" si="1"/>
+        <v>570.62334122200059</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="0"/>
-        <v>225.36500602639396</v>
+        <f t="shared" si="1"/>
+        <v>627.68567534420072</v>
       </c>
     </row>
     <row r="7" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -51928,59 +51928,59 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:O7" si="1">$B7</f>
-        <v>0.01</v>
+        <f t="shared" ref="C7:O7" si="2">$B7</f>
+        <v>0.1</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
@@ -51992,55 +51992,55 @@
       </c>
       <c r="C8" s="3">
         <f>C6*(1+C7)</f>
-        <v>202</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="D8" s="3">
         <f>D6*(1+D7)</f>
-        <v>204.02</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8:O8" si="2">E6*(1+E7)</f>
-        <v>206.06020000000001</v>
+        <f t="shared" ref="E8:O8" si="3">E6*(1+E7)</f>
+        <v>266.2000000000001</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>208.120802</v>
+        <f t="shared" si="3"/>
+        <v>292.82000000000016</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>210.20201001999999</v>
+        <f t="shared" si="3"/>
+        <v>322.1020000000002</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
-        <v>212.3040301202</v>
+        <f t="shared" si="3"/>
+        <v>354.31220000000025</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
-        <v>214.42707042140199</v>
+        <f t="shared" si="3"/>
+        <v>389.7434200000003</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>216.57134112561602</v>
+        <f t="shared" si="3"/>
+        <v>428.71776200000039</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
-        <v>218.73705453687217</v>
+        <f t="shared" si="3"/>
+        <v>471.58953820000045</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="2"/>
-        <v>220.9244250822409</v>
+        <f t="shared" si="3"/>
+        <v>518.74849202000053</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="2"/>
-        <v>223.13366933306332</v>
+        <f t="shared" si="3"/>
+        <v>570.62334122200059</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="2"/>
-        <v>225.36500602639396</v>
+        <f t="shared" si="3"/>
+        <v>627.68567534420072</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="2"/>
-        <v>227.61865608665789</v>
+        <f t="shared" si="3"/>
+        <v>690.45424287862079</v>
       </c>
     </row>
     <row r="9" spans="1:16384" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -52048,55 +52048,55 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="D9:O9" si="3">$B9</f>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" ref="D9:O9" si="4">$B9</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52109,51 +52109,51 @@
       </c>
       <c r="D10" s="3">
         <f>D8*D9</f>
-        <v>3.0603000000000002</v>
+        <v>6.0500000000000016</v>
       </c>
       <c r="E10" s="3">
         <f>E8*E9</f>
-        <v>3.090903</v>
+        <v>6.6550000000000029</v>
       </c>
       <c r="F10" s="3">
         <f>F8*F9</f>
-        <v>3.1218120300000001</v>
+        <v>7.3205000000000044</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G10:O10" si="4">G8*G9</f>
-        <v>3.1530301502999998</v>
+        <f t="shared" ref="G10:O10" si="5">G8*G9</f>
+        <v>8.0525500000000054</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.1845604518029997</v>
+        <f t="shared" si="5"/>
+        <v>8.8578050000000061</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.2164060563210297</v>
+        <f t="shared" si="5"/>
+        <v>9.7435855000000089</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.24857011688424</v>
+        <f t="shared" si="5"/>
+        <v>10.71794405000001</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.2810558180530824</v>
+        <f t="shared" si="5"/>
+        <v>11.789738455000013</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3138663762336136</v>
+        <f t="shared" si="5"/>
+        <v>12.968712300500014</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3470050399959499</v>
+        <f t="shared" si="5"/>
+        <v>14.265583530550016</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3804750903959091</v>
+        <f t="shared" si="5"/>
+        <v>15.692141883605018</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="4"/>
-        <v>3.4142798412998681</v>
+        <f t="shared" si="5"/>
+        <v>17.261356071965519</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52165,51 +52165,51 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <f t="shared" ref="D11:O11" si="5">$B11</f>
+        <f t="shared" ref="D11:O11" si="6">$B11</f>
         <v>0.2</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="P11" s="4"/>
@@ -52223,52 +52223,52 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:O12" si="6">D10*D11</f>
-        <v>0.61206000000000005</v>
+        <f t="shared" ref="D12:O12" si="7">D10*D11</f>
+        <v>1.2100000000000004</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.61818060000000008</v>
+        <f t="shared" si="7"/>
+        <v>1.3310000000000006</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.62436240600000004</v>
+        <f t="shared" si="7"/>
+        <v>1.4641000000000011</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.63060603006000004</v>
+        <f t="shared" si="7"/>
+        <v>1.6105100000000012</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.63691209036060004</v>
+        <f t="shared" si="7"/>
+        <v>1.7715610000000013</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.64328121126420601</v>
+        <f t="shared" si="7"/>
+        <v>1.9487171000000019</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.64971402337684803</v>
+        <f t="shared" si="7"/>
+        <v>2.143588810000002</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.65621116361061649</v>
+        <f t="shared" si="7"/>
+        <v>2.3579476910000028</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.6627732752467228</v>
+        <f t="shared" si="7"/>
+        <v>2.5937424601000032</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.66940100799919</v>
+        <f t="shared" si="7"/>
+        <v>2.8531167061100033</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.67609501807918182</v>
+        <f t="shared" si="7"/>
+        <v>3.1384283767210039</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="6"/>
-        <v>0.68285596825997363</v>
+        <f t="shared" si="7"/>
+        <v>3.4522712143931038</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52283,51 +52283,51 @@
         <v>350</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ref="D13:O14" si="7">$B13</f>
+        <f t="shared" ref="D13:O14" si="8">$B13</f>
         <v>350</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
     </row>
@@ -52343,51 +52343,51 @@
         <v>50</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
@@ -52402,51 +52402,51 @@
       </c>
       <c r="D15" s="3">
         <f>D12*D13</f>
-        <v>214.221</v>
+        <v>423.50000000000017</v>
       </c>
       <c r="E15" s="3">
         <f>E12*E13</f>
-        <v>216.36321000000004</v>
+        <v>465.85000000000019</v>
       </c>
       <c r="F15" s="3">
         <f>F12*F13</f>
-        <v>218.52684210000001</v>
+        <v>512.4350000000004</v>
       </c>
       <c r="G15" s="3">
         <f>G12*G13 +G14</f>
-        <v>270.712110521</v>
+        <v>613.67850000000044</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" ref="H15:O15" si="8">H12*H13 +H14</f>
-        <v>272.91923162621003</v>
+        <f t="shared" ref="H15:O15" si="9">H12*H13 +H14</f>
+        <v>670.04635000000042</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="8"/>
-        <v>275.14842394247211</v>
+        <f t="shared" si="9"/>
+        <v>732.05098500000065</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="8"/>
-        <v>277.39990818189682</v>
+        <f t="shared" si="9"/>
+        <v>800.25608350000073</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="8"/>
-        <v>279.67390726371576</v>
+        <f t="shared" si="9"/>
+        <v>875.28169185000093</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="8"/>
-        <v>281.97064633635296</v>
+        <f t="shared" si="9"/>
+        <v>957.80986103500118</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="8"/>
-        <v>284.29035279971652</v>
+        <f t="shared" si="9"/>
+        <v>1048.5908471385012</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="8"/>
-        <v>286.63325632771364</v>
+        <f t="shared" si="9"/>
+        <v>1148.4499318523515</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="8"/>
-        <v>288.99958889099076</v>
+        <f t="shared" si="9"/>
+        <v>1258.2949250375864</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -52459,51 +52459,51 @@
       </c>
       <c r="D17" s="7">
         <f>SUM(D18,D22)</f>
-        <v>-3.2133150000000001</v>
+        <v>-6.3525000000000027</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" ref="E17:O17" si="9">SUM(E18,E22)</f>
-        <v>-3.2454481500000005</v>
+        <f t="shared" ref="E17:O17" si="10">SUM(E18,E22)</f>
+        <v>-6.9877500000000028</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="9"/>
-        <v>-3.2779026314999999</v>
+        <f t="shared" si="10"/>
+        <v>-7.6865250000000058</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.0606816578149996</v>
+        <f t="shared" si="10"/>
+        <v>-9.2051775000000067</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.0937884743931505</v>
+        <f t="shared" si="10"/>
+        <v>-10.050695250000006</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.1272263591370812</v>
+        <f t="shared" si="10"/>
+        <v>-10.98076477500001</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.1609986227284521</v>
+        <f t="shared" si="10"/>
+        <v>-12.00384125250001</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.1951086089557359</v>
+        <f t="shared" si="10"/>
+        <v>-13.129225377750013</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.2295596950452943</v>
+        <f t="shared" si="10"/>
+        <v>-14.367147915525017</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.2643552919957477</v>
+        <f t="shared" si="10"/>
+        <v>-15.728862707077518</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.2994988449157043</v>
+        <f t="shared" si="10"/>
+        <v>-17.22674897778527</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.3349938333648614</v>
+        <f t="shared" si="10"/>
+        <v>-18.874423875563796</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -52519,51 +52519,51 @@
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ref="D20:O21" si="10">$B20</f>
+        <f t="shared" ref="D20:O21" si="11">$B20</f>
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -52579,51 +52579,51 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -52632,56 +52632,56 @@
         <v>16</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:O22" si="11">-C5*C20*C21</f>
+        <f t="shared" ref="C22:O22" si="12">-C5*C20*C21</f>
         <v>-0.75</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.2133150000000001</v>
+        <f t="shared" si="12"/>
+        <v>-6.3525000000000027</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.2454481500000005</v>
+        <f t="shared" si="12"/>
+        <v>-6.9877500000000028</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.2779026314999999</v>
+        <f t="shared" si="12"/>
+        <v>-7.6865250000000058</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.0606816578149996</v>
+        <f t="shared" si="12"/>
+        <v>-9.2051775000000067</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.0937884743931505</v>
+        <f t="shared" si="12"/>
+        <v>-10.050695250000006</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.1272263591370812</v>
+        <f t="shared" si="12"/>
+        <v>-10.98076477500001</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.1609986227284521</v>
+        <f t="shared" si="12"/>
+        <v>-12.00384125250001</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.1951086089557359</v>
+        <f t="shared" si="12"/>
+        <v>-13.129225377750013</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.2295596950452943</v>
+        <f t="shared" si="12"/>
+        <v>-14.367147915525017</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.2643552919957477</v>
+        <f t="shared" si="12"/>
+        <v>-15.728862707077518</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.2994988449157043</v>
+        <f t="shared" si="12"/>
+        <v>-17.22674897778527</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="11"/>
-        <v>-4.3349938333648614</v>
+        <f t="shared" si="12"/>
+        <v>-18.874423875563796</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -52689,56 +52689,56 @@
         <v>17</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" ref="C23:O23" si="12">C5+C17</f>
+        <f t="shared" ref="C23:O23" si="13">C5+C17</f>
         <v>49.25</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="12"/>
-        <v>211.00768500000001</v>
+        <f t="shared" si="13"/>
+        <v>417.14750000000015</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="12"/>
-        <v>213.11776185000005</v>
+        <f t="shared" si="13"/>
+        <v>458.86225000000019</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="12"/>
-        <v>215.2489394685</v>
+        <f t="shared" si="13"/>
+        <v>504.74847500000038</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="12"/>
-        <v>266.651428863185</v>
+        <f t="shared" si="13"/>
+        <v>604.47332250000045</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="12"/>
-        <v>268.8254431518169</v>
+        <f t="shared" si="13"/>
+        <v>659.99565475000043</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="12"/>
-        <v>271.02119758333504</v>
+        <f t="shared" si="13"/>
+        <v>721.07022022500064</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="12"/>
-        <v>273.23890955916835</v>
+        <f t="shared" si="13"/>
+        <v>788.2522422475007</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="12"/>
-        <v>275.47879865476</v>
+        <f t="shared" si="13"/>
+        <v>862.15246647225092</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="12"/>
-        <v>277.74108664130767</v>
+        <f t="shared" si="13"/>
+        <v>943.44271311947614</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="12"/>
-        <v>280.02599750772077</v>
+        <f t="shared" si="13"/>
+        <v>1032.8619844314237</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="12"/>
-        <v>282.33375748279792</v>
+        <f t="shared" si="13"/>
+        <v>1131.2231828745662</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="12"/>
-        <v>284.66459505762589</v>
+        <f t="shared" si="13"/>
+        <v>1239.4205011620227</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -52746,56 +52746,56 @@
         <v>18</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" ref="C24:O24" si="13">IFERROR(C23/C$5,"-")</f>
+        <f t="shared" ref="C24:O24" si="14">IFERROR(C23/C$5,"-")</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98499999999999999</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="14"/>
         <v>0.9850000000000001</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98499999999999988</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.9850000000000001</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="13"/>
-        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -52807,51 +52807,51 @@
         <v>-180000</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" ref="D25:O25" si="14">-SUM(D26:D30)</f>
+        <f t="shared" ref="D25:O25" si="15">-SUM(D26:D30)</f>
         <v>-180000</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-180000</v>
       </c>
     </row>
@@ -52955,51 +52955,51 @@
         <v>40000</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28:O31" si="15">$B28</f>
+        <f t="shared" ref="D28:O31" si="16">$B28</f>
         <v>40000</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
     </row>
@@ -53015,51 +53015,51 @@
         <v>40000</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40000</v>
       </c>
     </row>
@@ -53075,51 +53075,51 @@
         <v>30000</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30000</v>
       </c>
     </row>
@@ -53135,51 +53135,51 @@
         <v>5000</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
     </row>
@@ -53188,56 +53188,56 @@
         <v>22</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" ref="C32:O32" si="16">C23+C25</f>
+        <f t="shared" ref="C32:O32" si="17">C23+C25</f>
         <v>-179950.75</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179788.99231500001</v>
+        <f t="shared" si="17"/>
+        <v>-179582.85250000001</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179786.88223814999</v>
+        <f t="shared" si="17"/>
+        <v>-179541.13774999999</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179784.7510605315</v>
+        <f t="shared" si="17"/>
+        <v>-179495.251525</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179733.34857113683</v>
+        <f t="shared" si="17"/>
+        <v>-179395.52667749999</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179731.17455684819</v>
+        <f t="shared" si="17"/>
+        <v>-179340.00434525</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179728.97880241668</v>
+        <f t="shared" si="17"/>
+        <v>-179278.929779775</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179726.76109044082</v>
+        <f t="shared" si="17"/>
+        <v>-179211.74775775251</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179724.52120134523</v>
+        <f t="shared" si="17"/>
+        <v>-179137.84753352776</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179722.2589133587</v>
+        <f t="shared" si="17"/>
+        <v>-179056.55728688053</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179719.97400249226</v>
+        <f t="shared" si="17"/>
+        <v>-178967.13801556858</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179717.66624251721</v>
+        <f t="shared" si="17"/>
+        <v>-178868.77681712544</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="16"/>
-        <v>-179715.33540494237</v>
+        <f t="shared" si="17"/>
+        <v>-178760.57949883796</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53249,51 +53249,51 @@
         <v>-300</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" ref="D33:O33" si="17">D34</f>
+        <f t="shared" ref="D33:O33" si="18">D34</f>
         <v>-300</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-300</v>
       </c>
     </row>
@@ -53305,55 +53305,55 @@
         <v>300</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:O34" si="18">-$B34</f>
+        <f t="shared" ref="C34:O34" si="19">-$B34</f>
         <v>-300</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
     </row>
@@ -53363,56 +53363,56 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:O35" si="19">C32+C33</f>
+        <f t="shared" ref="C35:O35" si="20">C32+C33</f>
         <v>-180250.75</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180088.99231500001</v>
+        <f t="shared" si="20"/>
+        <v>-179882.85250000001</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180086.88223814999</v>
+        <f t="shared" si="20"/>
+        <v>-179841.13774999999</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180084.7510605315</v>
+        <f t="shared" si="20"/>
+        <v>-179795.251525</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180033.34857113683</v>
+        <f t="shared" si="20"/>
+        <v>-179695.52667749999</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180031.17455684819</v>
+        <f t="shared" si="20"/>
+        <v>-179640.00434525</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180028.97880241668</v>
+        <f t="shared" si="20"/>
+        <v>-179578.929779775</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180026.76109044082</v>
+        <f t="shared" si="20"/>
+        <v>-179511.74775775251</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180024.52120134523</v>
+        <f t="shared" si="20"/>
+        <v>-179437.84753352776</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180022.2589133587</v>
+        <f t="shared" si="20"/>
+        <v>-179356.55728688053</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180019.97400249226</v>
+        <f t="shared" si="20"/>
+        <v>-179267.13801556858</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180017.66624251721</v>
+        <f t="shared" si="20"/>
+        <v>-179168.77681712544</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="19"/>
-        <v>-180015.33540494237</v>
+        <f t="shared" si="20"/>
+        <v>-179060.57949883796</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -53425,52 +53425,52 @@
         <v>-180250.75</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:O36" si="20">D35</f>
-        <v>-180088.99231500001</v>
+        <f t="shared" ref="D36:O36" si="21">D35</f>
+        <v>-179882.85250000001</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180086.88223814999</v>
+        <f t="shared" si="21"/>
+        <v>-179841.13774999999</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180084.7510605315</v>
+        <f t="shared" si="21"/>
+        <v>-179795.251525</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180033.34857113683</v>
+        <f t="shared" si="21"/>
+        <v>-179695.52667749999</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180031.17455684819</v>
+        <f t="shared" si="21"/>
+        <v>-179640.00434525</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180028.97880241668</v>
+        <f t="shared" si="21"/>
+        <v>-179578.929779775</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180026.76109044082</v>
+        <f t="shared" si="21"/>
+        <v>-179511.74775775251</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180024.52120134523</v>
+        <f t="shared" si="21"/>
+        <v>-179437.84753352776</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180022.2589133587</v>
+        <f t="shared" si="21"/>
+        <v>-179356.55728688053</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180019.97400249226</v>
+        <f t="shared" si="21"/>
+        <v>-179267.13801556858</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180017.66624251721</v>
+        <f t="shared" si="21"/>
+        <v>-179168.77681712544</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="20"/>
-        <v>-180015.33540494237</v>
+        <f t="shared" si="21"/>
+        <v>-179060.57949883796</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -53478,56 +53478,56 @@
         <v>27</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:O37" si="21">C43</f>
+        <f t="shared" ref="C37:O37" si="22">C43</f>
         <v>-3</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="21"/>
-        <v>-12.853260000000001</v>
+        <f t="shared" si="22"/>
+        <v>-25.410000000000011</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="21"/>
-        <v>-12.981792600000002</v>
+        <f t="shared" si="22"/>
+        <v>-27.951000000000011</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="21"/>
-        <v>-13.111610526</v>
+        <f t="shared" si="22"/>
+        <v>-30.746100000000023</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="21"/>
-        <v>-16.242726631259998</v>
+        <f t="shared" si="22"/>
+        <v>-36.820710000000027</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="21"/>
-        <v>-16.375153897572602</v>
+        <f t="shared" si="22"/>
+        <v>-40.202781000000023</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="21"/>
-        <v>-16.508905436548325</v>
+        <f t="shared" si="22"/>
+        <v>-43.923059100000039</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="21"/>
-        <v>-16.643994490913808</v>
+        <f t="shared" si="22"/>
+        <v>-48.015365010000039</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="21"/>
-        <v>-16.780434435822944</v>
+        <f t="shared" si="22"/>
+        <v>-52.51690151100005</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="21"/>
-        <v>-16.918238780181177</v>
+        <f t="shared" si="22"/>
+        <v>-57.468591662100067</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="21"/>
-        <v>-17.057421167982991</v>
+        <f t="shared" si="22"/>
+        <v>-62.915450828310071</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="21"/>
-        <v>-17.197995379662817</v>
+        <f t="shared" si="22"/>
+        <v>-68.906995911141081</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="21"/>
-        <v>-17.339975333459446</v>
+        <f t="shared" si="22"/>
+        <v>-75.497695502255183</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -53539,52 +53539,52 @@
         <v>-180253.75</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:O38" si="22">D36+D37</f>
-        <v>-180101.84557500001</v>
+        <f t="shared" ref="D38:O38" si="23">D36+D37</f>
+        <v>-179908.26250000001</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180099.86403075</v>
+        <f t="shared" si="23"/>
+        <v>-179869.08875</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180097.86267105749</v>
+        <f t="shared" si="23"/>
+        <v>-179825.99762499999</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180049.59129776809</v>
+        <f t="shared" si="23"/>
+        <v>-179732.34738749999</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180047.54971074575</v>
+        <f t="shared" si="23"/>
+        <v>-179680.20712625</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180045.48770785323</v>
+        <f t="shared" si="23"/>
+        <v>-179622.852838875</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180043.40508493173</v>
+        <f t="shared" si="23"/>
+        <v>-179559.76312276252</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180041.30163578104</v>
+        <f t="shared" si="23"/>
+        <v>-179490.36443503876</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180039.17715213887</v>
+        <f t="shared" si="23"/>
+        <v>-179414.02587854263</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180037.03142366026</v>
+        <f t="shared" si="23"/>
+        <v>-179330.0534663969</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180034.86423789687</v>
+        <f t="shared" si="23"/>
+        <v>-179237.68381303659</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="22"/>
-        <v>-180032.67538027582</v>
+        <f t="shared" si="23"/>
+        <v>-179136.07719434021</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53598,51 +53598,51 @@
       </c>
       <c r="D39" s="3">
         <f>SUM($C38:D38)</f>
-        <v>-360355.59557500004</v>
+        <v>-360162.01250000001</v>
       </c>
       <c r="E39" s="3">
         <f>SUM($C38:E38)</f>
-        <v>-540455.45960575005</v>
+        <v>-540031.10125000007</v>
       </c>
       <c r="F39" s="3">
         <f>SUM($C38:F38)</f>
-        <v>-720553.32227680751</v>
+        <v>-719857.09887500003</v>
       </c>
       <c r="G39" s="3">
         <f>SUM($C38:G38)</f>
-        <v>-900602.91357457556</v>
+        <v>-899589.44626250002</v>
       </c>
       <c r="H39" s="3">
         <f>SUM($C38:H38)</f>
-        <v>-1080650.4632853214</v>
+        <v>-1079269.65338875</v>
       </c>
       <c r="I39" s="3">
         <f>SUM($C38:I38)</f>
-        <v>-1260695.9509931747</v>
+        <v>-1258892.5062276251</v>
       </c>
       <c r="J39" s="3">
         <f>SUM($C38:J38)</f>
-        <v>-1440739.3560781064</v>
+        <v>-1438452.2693503876</v>
       </c>
       <c r="K39" s="3">
         <f>SUM($C38:K38)</f>
-        <v>-1620780.6577138875</v>
+        <v>-1617942.6337854264</v>
       </c>
       <c r="L39" s="3">
         <f>SUM($C38:L38)</f>
-        <v>-1800819.8348660264</v>
+        <v>-1797356.659663969</v>
       </c>
       <c r="M39" s="3">
         <f>SUM($C38:M38)</f>
-        <v>-1980856.8662896866</v>
+        <v>-1976686.7131303658</v>
       </c>
       <c r="N39" s="3">
         <f>SUM($C38:N38)</f>
-        <v>-2160891.7305275835</v>
+        <v>-2155924.3969434025</v>
       </c>
       <c r="O39" s="3">
         <f>SUM($C38:O38)</f>
-        <v>-2340924.4059078591</v>
+        <v>-2335060.4741377425</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -53672,55 +53672,55 @@
         <v>0.06</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" ref="C41:O41" si="23">$B41</f>
+        <f t="shared" ref="C41:O41" si="24">$B41</f>
         <v>0.06</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.06</v>
       </c>
     </row>
@@ -53730,56 +53730,56 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:O42" si="24">C5</f>
+        <f t="shared" ref="C42:O42" si="25">C5</f>
         <v>50</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="24"/>
-        <v>214.221</v>
+        <f t="shared" si="25"/>
+        <v>423.50000000000017</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="24"/>
-        <v>216.36321000000004</v>
+        <f t="shared" si="25"/>
+        <v>465.85000000000019</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="24"/>
-        <v>218.52684210000001</v>
+        <f t="shared" si="25"/>
+        <v>512.4350000000004</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="24"/>
-        <v>270.712110521</v>
+        <f t="shared" si="25"/>
+        <v>613.67850000000044</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="24"/>
-        <v>272.91923162621003</v>
+        <f t="shared" si="25"/>
+        <v>670.04635000000042</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="24"/>
-        <v>275.14842394247211</v>
+        <f t="shared" si="25"/>
+        <v>732.05098500000065</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="24"/>
-        <v>277.39990818189682</v>
+        <f t="shared" si="25"/>
+        <v>800.25608350000073</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="24"/>
-        <v>279.67390726371576</v>
+        <f t="shared" si="25"/>
+        <v>875.28169185000093</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="24"/>
-        <v>281.97064633635296</v>
+        <f t="shared" si="25"/>
+        <v>957.80986103500118</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="24"/>
-        <v>284.29035279971652</v>
+        <f t="shared" si="25"/>
+        <v>1048.5908471385012</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="24"/>
-        <v>286.63325632771364</v>
+        <f t="shared" si="25"/>
+        <v>1148.4499318523515</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="24"/>
-        <v>288.99958889099076</v>
+        <f t="shared" si="25"/>
+        <v>1258.2949250375864</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -53791,52 +53791,52 @@
         <v>-3</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:O43" si="25">-D41*D42</f>
-        <v>-12.853260000000001</v>
+        <f t="shared" ref="D43:O43" si="26">-D41*D42</f>
+        <v>-25.410000000000011</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="25"/>
-        <v>-12.981792600000002</v>
+        <f t="shared" si="26"/>
+        <v>-27.951000000000011</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="25"/>
-        <v>-13.111610526</v>
+        <f t="shared" si="26"/>
+        <v>-30.746100000000023</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="25"/>
-        <v>-16.242726631259998</v>
+        <f t="shared" si="26"/>
+        <v>-36.820710000000027</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="25"/>
-        <v>-16.375153897572602</v>
+        <f t="shared" si="26"/>
+        <v>-40.202781000000023</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="25"/>
-        <v>-16.508905436548325</v>
+        <f t="shared" si="26"/>
+        <v>-43.923059100000039</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="25"/>
-        <v>-16.643994490913808</v>
+        <f t="shared" si="26"/>
+        <v>-48.015365010000039</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="25"/>
-        <v>-16.780434435822944</v>
+        <f t="shared" si="26"/>
+        <v>-52.51690151100005</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="25"/>
-        <v>-16.918238780181177</v>
+        <f t="shared" si="26"/>
+        <v>-57.468591662100067</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="25"/>
-        <v>-17.057421167982991</v>
+        <f t="shared" si="26"/>
+        <v>-62.915450828310071</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="25"/>
-        <v>-17.197995379662817</v>
+        <f t="shared" si="26"/>
+        <v>-68.906995911141081</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="25"/>
-        <v>-17.339975333459446</v>
+        <f t="shared" si="26"/>
+        <v>-75.497695502255183</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -54143,56 +54143,56 @@
         <v>40</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:O52" si="26">B56</f>
+        <f t="shared" ref="C52:O52" si="27">B56</f>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-180253.75</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="26"/>
-        <v>-360355.59557500004</v>
+        <f t="shared" si="27"/>
+        <v>-360162.01250000001</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="26"/>
-        <v>-540455.45960575005</v>
+        <f t="shared" si="27"/>
+        <v>-540031.10125000007</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="26"/>
-        <v>-720553.32227680751</v>
+        <f t="shared" si="27"/>
+        <v>-719857.09887500003</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="26"/>
-        <v>-900602.91357457556</v>
+        <f t="shared" si="27"/>
+        <v>-899589.44626250002</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="26"/>
-        <v>-1080650.4632853214</v>
+        <f t="shared" si="27"/>
+        <v>-1079269.65338875</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="26"/>
-        <v>-1260695.9509931747</v>
+        <f t="shared" si="27"/>
+        <v>-1258892.5062276251</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="26"/>
-        <v>-1440739.3560781064</v>
+        <f t="shared" si="27"/>
+        <v>-1438452.2693503876</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="26"/>
-        <v>-1620780.6577138875</v>
+        <f t="shared" si="27"/>
+        <v>-1617942.6337854264</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="26"/>
-        <v>-1800819.8348660264</v>
+        <f t="shared" si="27"/>
+        <v>-1797356.659663969</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="26"/>
-        <v>-1980856.8662896866</v>
+        <f t="shared" si="27"/>
+        <v>-1976686.7131303658</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="26"/>
-        <v>-2160891.7305275835</v>
+        <f t="shared" si="27"/>
+        <v>-2155924.3969434025</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -54204,52 +54204,52 @@
         <v>-180253.75</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" ref="D53:H53" si="27">D35-D46+0+D37</f>
-        <v>-180101.84557500001</v>
+        <f t="shared" ref="D53:H53" si="28">D35-D46+0+D37</f>
+        <v>-179908.26250000001</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="27"/>
-        <v>-180099.86403075</v>
+        <f t="shared" si="28"/>
+        <v>-179869.08875</v>
       </c>
       <c r="F53" s="3">
         <f>F35-F46+0+F37</f>
-        <v>-180097.86267105749</v>
+        <v>-179825.99762499999</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="27"/>
-        <v>-180049.59129776809</v>
+        <f t="shared" si="28"/>
+        <v>-179732.34738749999</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="27"/>
-        <v>-180047.54971074575</v>
+        <f t="shared" si="28"/>
+        <v>-179680.20712625</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" ref="I53:N53" si="28">I35-I46+0+I37</f>
-        <v>-180045.48770785323</v>
+        <f t="shared" ref="I53:N53" si="29">I35-I46+0+I37</f>
+        <v>-179622.852838875</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="28"/>
-        <v>-180043.40508493173</v>
+        <f t="shared" si="29"/>
+        <v>-179559.76312276252</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="28"/>
-        <v>-180041.30163578104</v>
+        <f t="shared" si="29"/>
+        <v>-179490.36443503876</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="28"/>
-        <v>-180039.17715213887</v>
+        <f t="shared" si="29"/>
+        <v>-179414.02587854263</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="28"/>
-        <v>-180037.03142366026</v>
+        <f t="shared" si="29"/>
+        <v>-179330.0534663969</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="28"/>
-        <v>-180034.86423789687</v>
+        <f t="shared" si="29"/>
+        <v>-179237.68381303659</v>
       </c>
       <c r="O53" s="3">
         <f>O35-O46+0+O37</f>
-        <v>-180032.67538027582</v>
+        <v>-179136.07719434021</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -54257,55 +54257,55 @@
         <v>42</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ref="C54:O54" si="29">C92+C93+C96+C97</f>
+        <f t="shared" ref="C54:O54" si="30">C92+C93+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -54314,56 +54314,56 @@
         <v>43</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55:O55" si="30">SUM(C53:C54)</f>
+        <f t="shared" ref="C55:O55" si="31">SUM(C53:C54)</f>
         <v>-180253.75</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180101.84557500001</v>
+        <f t="shared" si="31"/>
+        <v>-179908.26250000001</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180099.86403075</v>
+        <f t="shared" si="31"/>
+        <v>-179869.08875</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180097.86267105749</v>
+        <f t="shared" si="31"/>
+        <v>-179825.99762499999</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180049.59129776809</v>
+        <f t="shared" si="31"/>
+        <v>-179732.34738749999</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180047.54971074575</v>
+        <f t="shared" si="31"/>
+        <v>-179680.20712625</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180045.48770785323</v>
+        <f t="shared" si="31"/>
+        <v>-179622.852838875</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180043.40508493173</v>
+        <f t="shared" si="31"/>
+        <v>-179559.76312276252</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180041.30163578104</v>
+        <f t="shared" si="31"/>
+        <v>-179490.36443503876</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180039.17715213887</v>
+        <f t="shared" si="31"/>
+        <v>-179414.02587854263</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180037.03142366026</v>
+        <f t="shared" si="31"/>
+        <v>-179330.0534663969</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180034.86423789687</v>
+        <f t="shared" si="31"/>
+        <v>-179237.68381303659</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="30"/>
-        <v>-180032.67538027582</v>
+        <f t="shared" si="31"/>
+        <v>-179136.07719434021</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54372,56 +54372,56 @@
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
-        <f t="shared" ref="C56:O56" si="31">C52+C55</f>
+        <f t="shared" ref="C56:O56" si="32">C52+C55</f>
         <v>-180253.75</v>
       </c>
       <c r="D56" s="14">
-        <f t="shared" si="31"/>
-        <v>-360355.59557500004</v>
+        <f t="shared" si="32"/>
+        <v>-360162.01250000001</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="31"/>
-        <v>-540455.45960575005</v>
+        <f t="shared" si="32"/>
+        <v>-540031.10125000007</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" si="31"/>
-        <v>-720553.32227680751</v>
+        <f t="shared" si="32"/>
+        <v>-719857.09887500003</v>
       </c>
       <c r="G56" s="14">
-        <f t="shared" si="31"/>
-        <v>-900602.91357457556</v>
+        <f t="shared" si="32"/>
+        <v>-899589.44626250002</v>
       </c>
       <c r="H56" s="14">
-        <f t="shared" si="31"/>
-        <v>-1080650.4632853214</v>
+        <f t="shared" si="32"/>
+        <v>-1079269.65338875</v>
       </c>
       <c r="I56" s="14">
-        <f t="shared" si="31"/>
-        <v>-1260695.9509931747</v>
+        <f t="shared" si="32"/>
+        <v>-1258892.5062276251</v>
       </c>
       <c r="J56" s="14">
-        <f t="shared" si="31"/>
-        <v>-1440739.3560781064</v>
+        <f t="shared" si="32"/>
+        <v>-1438452.2693503876</v>
       </c>
       <c r="K56" s="14">
-        <f t="shared" si="31"/>
-        <v>-1620780.6577138875</v>
+        <f t="shared" si="32"/>
+        <v>-1617942.6337854264</v>
       </c>
       <c r="L56" s="14">
-        <f t="shared" si="31"/>
-        <v>-1800819.8348660264</v>
+        <f t="shared" si="32"/>
+        <v>-1797356.659663969</v>
       </c>
       <c r="M56" s="14">
-        <f t="shared" si="31"/>
-        <v>-1980856.8662896866</v>
+        <f t="shared" si="32"/>
+        <v>-1976686.7131303658</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="31"/>
-        <v>-2160891.7305275835</v>
+        <f t="shared" si="32"/>
+        <v>-2155924.3969434025</v>
       </c>
       <c r="O56" s="14">
-        <f t="shared" si="31"/>
-        <v>-2340924.4059078591</v>
+        <f t="shared" si="32"/>
+        <v>-2335060.4741377425</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -54437,51 +54437,51 @@
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" ref="D57:O57" si="32">IF(D56&lt;0,1,0)</f>
+        <f t="shared" ref="D57:O57" si="33">IF(D56&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
@@ -54513,56 +54513,56 @@
         <v>0</v>
       </c>
       <c r="C59" s="7">
-        <f t="shared" ref="C59:O59" si="33">C60</f>
+        <f t="shared" ref="C59:O59" si="34">C60</f>
         <v>-180253.75</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="33"/>
-        <v>-360355.59557500004</v>
+        <f t="shared" si="34"/>
+        <v>-360162.01250000001</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="33"/>
-        <v>-540455.45960575005</v>
+        <f t="shared" si="34"/>
+        <v>-540031.10125000007</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="33"/>
-        <v>-720553.32227680751</v>
+        <f t="shared" si="34"/>
+        <v>-719857.09887500003</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="33"/>
-        <v>-900602.91357457556</v>
+        <f t="shared" si="34"/>
+        <v>-899589.44626250002</v>
       </c>
       <c r="H59" s="7">
-        <f t="shared" si="33"/>
-        <v>-1080650.4632853214</v>
+        <f t="shared" si="34"/>
+        <v>-1079269.65338875</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="33"/>
-        <v>-1260695.9509931747</v>
+        <f t="shared" si="34"/>
+        <v>-1258892.5062276251</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="33"/>
-        <v>-1440739.3560781064</v>
+        <f t="shared" si="34"/>
+        <v>-1438452.2693503876</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="33"/>
-        <v>-1620780.6577138875</v>
+        <f t="shared" si="34"/>
+        <v>-1617942.6337854264</v>
       </c>
       <c r="L59" s="7">
-        <f t="shared" si="33"/>
-        <v>-1800819.8348660264</v>
+        <f t="shared" si="34"/>
+        <v>-1797356.659663969</v>
       </c>
       <c r="M59" s="7">
-        <f t="shared" si="33"/>
-        <v>-1980856.8662896866</v>
+        <f t="shared" si="34"/>
+        <v>-1976686.7131303658</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" si="33"/>
-        <v>-2160891.7305275835</v>
+        <f t="shared" si="34"/>
+        <v>-2155924.3969434025</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="33"/>
-        <v>-2340924.4059078591</v>
+        <f t="shared" si="34"/>
+        <v>-2335060.4741377425</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -54573,56 +54573,56 @@
         <v>0</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ref="C60:O60" si="34">B60+C55</f>
+        <f t="shared" ref="C60:O60" si="35">B60+C55</f>
         <v>-180253.75</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="34"/>
-        <v>-360355.59557500004</v>
+        <f t="shared" si="35"/>
+        <v>-360162.01250000001</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="34"/>
-        <v>-540455.45960575005</v>
+        <f t="shared" si="35"/>
+        <v>-540031.10125000007</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="34"/>
-        <v>-720553.32227680751</v>
+        <f t="shared" si="35"/>
+        <v>-719857.09887500003</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="34"/>
-        <v>-900602.91357457556</v>
+        <f t="shared" si="35"/>
+        <v>-899589.44626250002</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="34"/>
-        <v>-1080650.4632853214</v>
+        <f t="shared" si="35"/>
+        <v>-1079269.65338875</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="34"/>
-        <v>-1260695.9509931747</v>
+        <f t="shared" si="35"/>
+        <v>-1258892.5062276251</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="34"/>
-        <v>-1440739.3560781064</v>
+        <f t="shared" si="35"/>
+        <v>-1438452.2693503876</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="34"/>
-        <v>-1620780.6577138875</v>
+        <f t="shared" si="35"/>
+        <v>-1617942.6337854264</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="34"/>
-        <v>-1800819.8348660264</v>
+        <f t="shared" si="35"/>
+        <v>-1797356.659663969</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="34"/>
-        <v>-1980856.8662896866</v>
+        <f t="shared" si="35"/>
+        <v>-1976686.7131303658</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="34"/>
-        <v>-2160891.7305275835</v>
+        <f t="shared" si="35"/>
+        <v>-2155924.3969434025</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="34"/>
-        <v>-2340924.4059078591</v>
+        <f t="shared" si="35"/>
+        <v>-2335060.4741377425</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54638,52 +54638,52 @@
         <v>-180253.75</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" ref="D61" si="35">SUM(D62:D65)</f>
-        <v>-360355.59557500004</v>
+        <f t="shared" ref="D61" si="36">SUM(D62:D65)</f>
+        <v>-360162.01250000001</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" ref="E61" si="36">SUM(E62:E65)</f>
-        <v>-540455.45960575005</v>
+        <f t="shared" ref="E61" si="37">SUM(E62:E65)</f>
+        <v>-540031.10125000007</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" ref="F61" si="37">SUM(F62:F65)</f>
-        <v>-720553.32227680751</v>
+        <f t="shared" ref="F61" si="38">SUM(F62:F65)</f>
+        <v>-719857.09887500003</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" ref="G61" si="38">SUM(G62:G65)</f>
-        <v>-900602.91357457556</v>
+        <f t="shared" ref="G61" si="39">SUM(G62:G65)</f>
+        <v>-899589.44626250002</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" ref="H61" si="39">SUM(H62:H65)</f>
-        <v>-1080650.4632853214</v>
+        <f t="shared" ref="H61" si="40">SUM(H62:H65)</f>
+        <v>-1079269.65338875</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" ref="I61" si="40">SUM(I62:I65)</f>
-        <v>-1260695.9509931747</v>
+        <f t="shared" ref="I61" si="41">SUM(I62:I65)</f>
+        <v>-1258892.5062276251</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" ref="J61" si="41">SUM(J62:J65)</f>
-        <v>-1440739.3560781064</v>
+        <f t="shared" ref="J61" si="42">SUM(J62:J65)</f>
+        <v>-1438452.2693503876</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" ref="K61" si="42">SUM(K62:K65)</f>
-        <v>-1620780.6577138875</v>
+        <f t="shared" ref="K61" si="43">SUM(K62:K65)</f>
+        <v>-1617942.6337854264</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" ref="L61" si="43">SUM(L62:L65)</f>
-        <v>-1800819.8348660264</v>
+        <f t="shared" ref="L61" si="44">SUM(L62:L65)</f>
+        <v>-1797356.659663969</v>
       </c>
       <c r="M61" s="7">
-        <f t="shared" ref="M61" si="44">SUM(M62:M65)</f>
-        <v>-1980856.8662896866</v>
+        <f t="shared" ref="M61" si="45">SUM(M62:M65)</f>
+        <v>-1976686.7131303658</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" ref="N61" si="45">SUM(N62:N65)</f>
-        <v>-2160891.7305275835</v>
+        <f t="shared" ref="N61" si="46">SUM(N62:N65)</f>
+        <v>-2155924.3969434025</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61" si="46">SUM(O62:O65)</f>
-        <v>-2340924.4059078591</v>
+        <f t="shared" ref="O61" si="47">SUM(O62:O65)</f>
+        <v>-2335060.4741377425</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -54694,55 +54694,55 @@
         <v>0</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ref="C62:O62" si="47">B62+C92</f>
+        <f t="shared" ref="C62:O62" si="48">B62+C92</f>
         <v>0</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -54754,56 +54754,56 @@
         <v>0</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ref="C63:O63" si="48">B63+C38+C93</f>
+        <f t="shared" ref="C63:O63" si="49">B63+C38+C93</f>
         <v>-180253.75</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="48"/>
-        <v>-360355.59557500004</v>
+        <f t="shared" si="49"/>
+        <v>-360162.01250000001</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="48"/>
-        <v>-540455.45960575005</v>
+        <f t="shared" si="49"/>
+        <v>-540031.10125000007</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="48"/>
-        <v>-720553.32227680751</v>
+        <f t="shared" si="49"/>
+        <v>-719857.09887500003</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="48"/>
-        <v>-900602.91357457556</v>
+        <f t="shared" si="49"/>
+        <v>-899589.44626250002</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="48"/>
-        <v>-1080650.4632853214</v>
+        <f t="shared" si="49"/>
+        <v>-1079269.65338875</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="48"/>
-        <v>-1260695.9509931747</v>
+        <f t="shared" si="49"/>
+        <v>-1258892.5062276251</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="48"/>
-        <v>-1440739.3560781064</v>
+        <f t="shared" si="49"/>
+        <v>-1438452.2693503876</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="48"/>
-        <v>-1620780.6577138875</v>
+        <f t="shared" si="49"/>
+        <v>-1617942.6337854264</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="48"/>
-        <v>-1800819.8348660264</v>
+        <f t="shared" si="49"/>
+        <v>-1797356.659663969</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="48"/>
-        <v>-1980856.8662896866</v>
+        <f t="shared" si="49"/>
+        <v>-1976686.7131303658</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="48"/>
-        <v>-2160891.7305275835</v>
+        <f t="shared" si="49"/>
+        <v>-2155924.3969434025</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="48"/>
-        <v>-2340924.4059078591</v>
+        <f t="shared" si="49"/>
+        <v>-2335060.4741377425</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54814,55 +54814,55 @@
         <v>0</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" ref="C64:O64" si="49">B64+C96+C97</f>
+        <f t="shared" ref="C64:O64" si="50">B64+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -54878,47 +54878,47 @@
         <v>0</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ref="D65:N65" si="50">C65+D49</f>
+        <f t="shared" ref="D65:N65" si="51">C65+D49</f>
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O65" s="3">
@@ -54935,52 +54935,52 @@
         <v>-180253.75</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:O67" si="51">D53</f>
-        <v>-180101.84557500001</v>
+        <f t="shared" ref="D67:O67" si="52">D53</f>
+        <v>-179908.26250000001</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180099.86403075</v>
+        <f t="shared" si="52"/>
+        <v>-179869.08875</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180097.86267105749</v>
+        <f t="shared" si="52"/>
+        <v>-179825.99762499999</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180049.59129776809</v>
+        <f t="shared" si="52"/>
+        <v>-179732.34738749999</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180047.54971074575</v>
+        <f t="shared" si="52"/>
+        <v>-179680.20712625</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180045.48770785323</v>
+        <f t="shared" si="52"/>
+        <v>-179622.852838875</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180043.40508493173</v>
+        <f t="shared" si="52"/>
+        <v>-179559.76312276252</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180041.30163578104</v>
+        <f t="shared" si="52"/>
+        <v>-179490.36443503876</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180039.17715213887</v>
+        <f t="shared" si="52"/>
+        <v>-179414.02587854263</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180037.03142366026</v>
+        <f t="shared" si="52"/>
+        <v>-179330.0534663969</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180034.86423789687</v>
+        <f t="shared" si="52"/>
+        <v>-179237.68381303659</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="51"/>
-        <v>-180032.67538027582</v>
+        <f t="shared" si="52"/>
+        <v>-179136.07719434021</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -54993,51 +54993,51 @@
       </c>
       <c r="D68" s="3">
         <f>SUM($C67:D67)</f>
-        <v>-360355.59557500004</v>
+        <v>-360162.01250000001</v>
       </c>
       <c r="E68" s="3">
         <f>SUM($C67:E67)</f>
-        <v>-540455.45960575005</v>
+        <v>-540031.10125000007</v>
       </c>
       <c r="F68" s="3">
         <f>SUM($C67:F67)</f>
-        <v>-720553.32227680751</v>
+        <v>-719857.09887500003</v>
       </c>
       <c r="G68" s="3">
         <f>SUM($C67:G67)</f>
-        <v>-900602.91357457556</v>
+        <v>-899589.44626250002</v>
       </c>
       <c r="H68" s="3">
         <f>SUM($C67:H67)</f>
-        <v>-1080650.4632853214</v>
+        <v>-1079269.65338875</v>
       </c>
       <c r="I68" s="3">
         <f>SUM($C67:I67)</f>
-        <v>-1260695.9509931747</v>
+        <v>-1258892.5062276251</v>
       </c>
       <c r="J68" s="3">
         <f>SUM($C67:J67)</f>
-        <v>-1440739.3560781064</v>
+        <v>-1438452.2693503876</v>
       </c>
       <c r="K68" s="3">
         <f>SUM($C67:K67)</f>
-        <v>-1620780.6577138875</v>
+        <v>-1617942.6337854264</v>
       </c>
       <c r="L68" s="3">
         <f>SUM($C67:L67)</f>
-        <v>-1800819.8348660264</v>
+        <v>-1797356.659663969</v>
       </c>
       <c r="M68" s="3">
         <f>SUM($C67:M67)</f>
-        <v>-1980856.8662896866</v>
+        <v>-1976686.7131303658</v>
       </c>
       <c r="N68" s="3">
         <f>SUM($C67:N67)</f>
-        <v>-2160891.7305275835</v>
+        <v>-2155924.3969434025</v>
       </c>
       <c r="O68" s="3">
         <f>SUM($C67:O67)</f>
-        <v>-2340924.4059078591</v>
+        <v>-2335060.4741377425</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -55045,56 +55045,56 @@
         <v>56</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ref="C70:O70" si="52">C67/(1+$B$74)^C2</f>
+        <f t="shared" ref="C70:O70" si="53">C67/(1+$B$74)^C2</f>
         <v>-180253.75</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" si="52"/>
-        <v>-175545.58884157965</v>
+        <f t="shared" si="53"/>
+        <v>-175356.90307446747</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="52"/>
-        <v>-171102.71475576458</v>
+        <f t="shared" si="53"/>
+        <v>-170883.46818804863</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="52"/>
-        <v>-166772.26676731443</v>
+        <f t="shared" si="53"/>
+        <v>-166520.51725006101</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="52"/>
-        <v>-162509.65578809386</v>
+        <f t="shared" si="53"/>
+        <v>-162223.31690619508</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="52"/>
-        <v>-158396.65411873994</v>
+        <f t="shared" si="53"/>
+        <v>-158073.48484266296</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="52"/>
-        <v>-154387.73201594892</v>
+        <f t="shared" si="53"/>
+        <v>-154025.32560564062</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="52"/>
-        <v>-150480.25601722402</v>
+        <f t="shared" si="53"/>
+        <v>-150076.02812421363</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="52"/>
-        <v>-146671.6592887463</v>
+        <f t="shared" si="53"/>
+        <v>-146222.8351985926</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="52"/>
-        <v>-142959.43993968205</v>
+        <f t="shared" si="53"/>
+        <v>-142463.04089273809</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="52"/>
-        <v>-139341.1593791373</v>
+        <f t="shared" si="53"/>
+        <v>-138793.98790312716</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="52"/>
-        <v>-135814.44071468024</v>
+        <f t="shared" si="53"/>
+        <v>-135213.06489778278</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="52"/>
-        <v>-132376.96719137917</v>
+        <f t="shared" si="53"/>
+        <v>-131717.70381936769</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -55107,51 +55107,51 @@
       </c>
       <c r="D71" s="3">
         <f>SUM($C70:D70)</f>
-        <v>-355799.33884157962</v>
+        <v>-355610.65307446744</v>
       </c>
       <c r="E71" s="3">
         <f>SUM($C70:E70)</f>
-        <v>-526902.0535973442</v>
+        <v>-526494.12126251613</v>
       </c>
       <c r="F71" s="3">
         <f>SUM($C70:F70)</f>
-        <v>-693674.3203646586</v>
+        <v>-693014.63851257716</v>
       </c>
       <c r="G71" s="3">
         <f>SUM($C70:G70)</f>
-        <v>-856183.97615275253</v>
+        <v>-855237.9554187723</v>
       </c>
       <c r="H71" s="3">
         <f>SUM($C70:H70)</f>
-        <v>-1014580.6302714925</v>
+        <v>-1013311.4402614352</v>
       </c>
       <c r="I71" s="3">
         <f>SUM($C70:I70)</f>
-        <v>-1168968.3622874415</v>
+        <v>-1167336.7658670759</v>
       </c>
       <c r="J71" s="3">
         <f>SUM($C70:J70)</f>
-        <v>-1319448.6183046654</v>
+        <v>-1317412.7939912896</v>
       </c>
       <c r="K71" s="3">
         <f>SUM($C70:K70)</f>
-        <v>-1466120.2775934117</v>
+        <v>-1463635.6291898822</v>
       </c>
       <c r="L71" s="3">
         <f>SUM($C70:L70)</f>
-        <v>-1609079.7175330939</v>
+        <v>-1606098.6700826203</v>
       </c>
       <c r="M71" s="3">
         <f>SUM($C70:M70)</f>
-        <v>-1748420.8769122311</v>
+        <v>-1744892.6579857476</v>
       </c>
       <c r="N71" s="3">
         <f>SUM($C70:N70)</f>
-        <v>-1884235.3176269112</v>
+        <v>-1880105.7228835304</v>
       </c>
       <c r="O71" s="3">
         <f>SUM($C70:O70)</f>
-        <v>-2016612.2848182903</v>
+        <v>-2011823.426702898</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -55197,7 +55197,7 @@
       </c>
       <c r="B76" s="3">
         <f>O71</f>
-        <v>-2016612.2848182903</v>
+        <v>-2011823.426702898</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>

--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sysprofiles.adm.vvsu.ru\STUDENTRPROFILES$\one\Documents\GitHub\DESING\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitLab\DESING\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <definedName name="НДФЛ">константы!$B$1</definedName>
     <definedName name="СОЦВЗНОСЫ">константы!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Номера периодов</t>
   </si>
@@ -219,31 +219,25 @@
     <t>IRR</t>
   </si>
   <si>
-    <t>Технический писатель</t>
-  </si>
-  <si>
     <t>Программист</t>
-  </si>
-  <si>
-    <t>Архитектор БД</t>
   </si>
   <si>
     <t>Маркетолог</t>
   </si>
   <si>
-    <t>Экономист</t>
+    <t>Телеграм-бот Дизайнер</t>
   </si>
   <si>
-    <t>Разработка и наполнение телеграмм-бота</t>
+    <t>Наполнение телеграмм-бота контентом</t>
   </si>
   <si>
-    <t>Телеграм-бот Дизайнер</t>
+    <t>Инвестиционный вклад</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -333,7 +327,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,6 +350,7 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8" hidden="1"/>
@@ -383,7 +378,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -465,49 +460,49 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-180253.75</c:v>
+                  <c:v>-11363.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-179908.26250000001</c:v>
+                  <c:v>-59908.262500000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-179869.08875</c:v>
+                  <c:v>-59869.088750000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-179825.99762499999</c:v>
+                  <c:v>-59825.997624999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-179732.34738749999</c:v>
+                  <c:v>-59732.347387499998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-179680.20712625</c:v>
+                  <c:v>-59680.207126250003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-179622.852838875</c:v>
+                  <c:v>-59622.852838874998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-179559.76312276252</c:v>
+                  <c:v>-59559.763122762495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-179490.36443503876</c:v>
+                  <c:v>-59490.364435038748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-179414.02587854263</c:v>
+                  <c:v>-59414.025878542627</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-179330.0534663969</c:v>
+                  <c:v>-59330.053466396887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-179237.68381303659</c:v>
+                  <c:v>-59237.68381303658</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-179136.07719434021</c:v>
+                  <c:v>-59136.077194340236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F2FC-FE4F-AB12-AA1557455D37}"/>
             </c:ext>
@@ -546,49 +541,49 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-180253.75</c:v>
+                  <c:v>-11363.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-360162.01250000001</c:v>
+                  <c:v>-71272.012500000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-540031.10125000007</c:v>
+                  <c:v>-131141.10125000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-719857.09887500003</c:v>
+                  <c:v>-190967.098875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-899589.44626250002</c:v>
+                  <c:v>-250699.44626249999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1079269.65338875</c:v>
+                  <c:v>-310379.65338874998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1258892.5062276251</c:v>
+                  <c:v>-370002.50622762495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1438452.2693503876</c:v>
+                  <c:v>-429562.26935038745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1617942.6337854264</c:v>
+                  <c:v>-489052.63378542621</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1797356.659663969</c:v>
+                  <c:v>-548466.65966396884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1976686.7131303658</c:v>
+                  <c:v>-607796.71313036571</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2155924.3969434025</c:v>
+                  <c:v>-667034.39694340224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2335060.4741377425</c:v>
+                  <c:v>-726170.47413774254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F2FC-FE4F-AB12-AA1557455D37}"/>
             </c:ext>
@@ -784,7 +779,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -911,7 +906,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F92-A04B-B343-370A0633F8EB}"/>
             </c:ext>
@@ -950,7 +945,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F92-A04B-B343-370A0633F8EB}"/>
             </c:ext>
@@ -2263,7 +2258,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2291,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,10 +2580,10 @@
   <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2601,11 +2596,11 @@
   <sheetData>
     <row r="1" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7">
         <f>O71</f>
-        <v>-2011823.426702898</v>
+        <v>-619087.99288528541</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -52448,6 +52443,7 @@
         <f t="shared" si="9"/>
         <v>1258.2949250375864</v>
       </c>
+      <c r="P15" s="16"/>
     </row>
     <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -52803,62 +52799,65 @@
         <v>19</v>
       </c>
       <c r="C25" s="7">
-        <f>-SUM(C26:C30)</f>
-        <v>-180000</v>
+        <f>-SUM(C26:C28)</f>
+        <v>-60000</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" ref="D25:O25" si="15">-SUM(D26:D30)</f>
-        <v>-180000</v>
+        <f t="shared" ref="D25:O25" si="15">-SUM(D26:D28)</f>
+        <v>-60000</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="N25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
       <c r="O25" s="7">
         <f t="shared" si="15"/>
-        <v>-180000</v>
+        <v>-60000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="B26" s="3">
+        <v>30000</v>
+      </c>
       <c r="C26" s="3">
         <v>30000</v>
       </c>
@@ -52903,398 +52902,242 @@
       <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="B27" s="3">
+        <v>25000</v>
+      </c>
       <c r="C27" s="3">
-        <v>40000</v>
+        <f t="shared" ref="C27:O28" si="16">$B27</f>
+        <v>25000</v>
       </c>
       <c r="D27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="E27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="F27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="G27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="H27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="I27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="J27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="K27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="L27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="M27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="N27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
       <c r="O27" s="3">
-        <v>40000</v>
+        <f t="shared" si="16"/>
+        <v>25000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="3">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="C28" s="3">
-        <f>$B28</f>
-        <v>40000</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" ref="D28:O31" si="16">$B28</f>
-        <v>40000</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="N28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="3">
-        <v>40000</v>
-      </c>
-      <c r="C29" s="3">
-        <f>$B29</f>
-        <v>40000</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="N29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="O29" s="3">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3">
-        <v>30000</v>
-      </c>
-      <c r="C30" s="3">
-        <f>$B30</f>
-        <v>30000</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="J30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="N30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="O30" s="3">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C31" s="3">
-        <f>$B31</f>
-        <v>5000</v>
-      </c>
-      <c r="D31" s="3">
         <f t="shared" si="16"/>
         <v>5000</v>
       </c>
-      <c r="E31" s="3">
-        <f t="shared" si="16"/>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:O28" si="17">$B28</f>
         <v>5000</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" si="16"/>
+      <c r="E28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" si="16"/>
+      <c r="F28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="H31" s="3">
-        <f t="shared" si="16"/>
+      <c r="G28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="I31" s="3">
-        <f t="shared" si="16"/>
+      <c r="H28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="J31" s="3">
-        <f t="shared" si="16"/>
+      <c r="I28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="K31" s="3">
-        <f t="shared" si="16"/>
+      <c r="J28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="L31" s="3">
-        <f t="shared" si="16"/>
+      <c r="K28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="M31" s="3">
-        <f t="shared" si="16"/>
+      <c r="L28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="N31" s="3">
-        <f t="shared" si="16"/>
+      <c r="M28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
-      <c r="O31" s="3">
-        <f t="shared" si="16"/>
+      <c r="N28" s="3">
+        <f t="shared" si="17"/>
         <v>5000</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="17"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" ref="C31:O31" si="18">C23+C25</f>
+        <v>-59950.75</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59582.852500000001</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59541.137750000002</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59495.251525</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59395.526677499998</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59340.004345250003</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59278.929779774997</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59211.747757752499</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59137.847533527747</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="18"/>
+        <v>-59056.557286880525</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="18"/>
+        <v>-58967.138015568577</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="18"/>
+        <v>-58868.776817125436</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="18"/>
+        <v>-58760.579498837978</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" ref="C32:O32" si="17">C23+C25</f>
-        <v>-179950.75</v>
+        <f>C34+C33</f>
+        <v>48590</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179582.85250000001</v>
+        <f t="shared" ref="D32:O32" si="19">D34</f>
+        <v>-300</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179541.13774999999</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179495.251525</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179395.52667749999</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179340.00434525</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179278.929779775</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179211.74775775251</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179137.84753352776</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="17"/>
-        <v>-179056.55728688053</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="17"/>
-        <v>-178967.13801556858</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="17"/>
-        <v>-178868.77681712544</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="17"/>
-        <v>-178760.57949883796</v>
+        <f t="shared" si="19"/>
+        <v>-300</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="7">
-        <f>C34</f>
-        <v>-300</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" ref="D33:O33" si="18">D34</f>
-        <v>-300</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="I33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="J33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="K33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="M33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="N33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
-      </c>
-      <c r="O33" s="7">
-        <f t="shared" si="18"/>
-        <v>-300</v>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3">
+        <v>48890</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -53305,55 +53148,55 @@
         <v>300</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:O34" si="19">-$B34</f>
+        <f t="shared" ref="C34:O34" si="20">-$B34</f>
         <v>-300</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-300</v>
       </c>
     </row>
@@ -53363,56 +53206,56 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7">
-        <f t="shared" ref="C35:O35" si="20">C32+C33</f>
-        <v>-180250.75</v>
+        <f t="shared" ref="C35:O35" si="21">C31+C32</f>
+        <v>-11360.75</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179882.85250000001</v>
+        <f t="shared" si="21"/>
+        <v>-59882.852500000001</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179841.13774999999</v>
+        <f t="shared" si="21"/>
+        <v>-59841.137750000002</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179795.251525</v>
+        <f t="shared" si="21"/>
+        <v>-59795.251525</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179695.52667749999</v>
+        <f t="shared" si="21"/>
+        <v>-59695.526677499998</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179640.00434525</v>
+        <f t="shared" si="21"/>
+        <v>-59640.004345250003</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179578.929779775</v>
+        <f t="shared" si="21"/>
+        <v>-59578.929779774997</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179511.74775775251</v>
+        <f t="shared" si="21"/>
+        <v>-59511.747757752499</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179437.84753352776</v>
+        <f t="shared" si="21"/>
+        <v>-59437.847533527747</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179356.55728688053</v>
+        <f t="shared" si="21"/>
+        <v>-59356.557286880525</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179267.13801556858</v>
+        <f t="shared" si="21"/>
+        <v>-59267.138015568577</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179168.77681712544</v>
+        <f t="shared" si="21"/>
+        <v>-59168.776817125436</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="20"/>
-        <v>-179060.57949883796</v>
+        <f t="shared" si="21"/>
+        <v>-59060.579498837978</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -53422,55 +53265,55 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7">
         <f>C35</f>
-        <v>-180250.75</v>
+        <v>-11360.75</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:O36" si="21">D35</f>
-        <v>-179882.85250000001</v>
+        <f t="shared" ref="D36:O36" si="22">D35</f>
+        <v>-59882.852500000001</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179841.13774999999</v>
+        <f t="shared" si="22"/>
+        <v>-59841.137750000002</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179795.251525</v>
+        <f t="shared" si="22"/>
+        <v>-59795.251525</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179695.52667749999</v>
+        <f t="shared" si="22"/>
+        <v>-59695.526677499998</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179640.00434525</v>
+        <f t="shared" si="22"/>
+        <v>-59640.004345250003</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179578.929779775</v>
+        <f t="shared" si="22"/>
+        <v>-59578.929779774997</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179511.74775775251</v>
+        <f t="shared" si="22"/>
+        <v>-59511.747757752499</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179437.84753352776</v>
+        <f t="shared" si="22"/>
+        <v>-59437.847533527747</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179356.55728688053</v>
+        <f t="shared" si="22"/>
+        <v>-59356.557286880525</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179267.13801556858</v>
+        <f t="shared" si="22"/>
+        <v>-59267.138015568577</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179168.77681712544</v>
+        <f t="shared" si="22"/>
+        <v>-59168.776817125436</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="21"/>
-        <v>-179060.57949883796</v>
+        <f t="shared" si="22"/>
+        <v>-59060.579498837978</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -53478,55 +53321,55 @@
         <v>27</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:O37" si="22">C43</f>
+        <f t="shared" ref="C37:O37" si="23">C43</f>
         <v>-3</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-25.410000000000011</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-27.951000000000011</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-30.746100000000023</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-36.820710000000027</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-40.202781000000023</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-43.923059100000039</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-48.015365010000039</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-52.51690151100005</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-57.468591662100067</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-62.915450828310071</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-68.906995911141081</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-75.497695502255183</v>
       </c>
     </row>
@@ -53536,55 +53379,55 @@
       </c>
       <c r="C38" s="3">
         <f>C36+C37</f>
-        <v>-180253.75</v>
+        <v>-11363.75</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:O38" si="23">D36+D37</f>
-        <v>-179908.26250000001</v>
+        <f t="shared" ref="D38:O38" si="24">D36+D37</f>
+        <v>-59908.262500000004</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179869.08875</v>
+        <f t="shared" si="24"/>
+        <v>-59869.088750000003</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179825.99762499999</v>
+        <f t="shared" si="24"/>
+        <v>-59825.997624999996</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179732.34738749999</v>
+        <f t="shared" si="24"/>
+        <v>-59732.347387499998</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179680.20712625</v>
+        <f t="shared" si="24"/>
+        <v>-59680.207126250003</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179622.852838875</v>
+        <f t="shared" si="24"/>
+        <v>-59622.852838874998</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179559.76312276252</v>
+        <f t="shared" si="24"/>
+        <v>-59559.763122762495</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179490.36443503876</v>
+        <f t="shared" si="24"/>
+        <v>-59490.364435038748</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179414.02587854263</v>
+        <f t="shared" si="24"/>
+        <v>-59414.025878542627</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179330.0534663969</v>
+        <f t="shared" si="24"/>
+        <v>-59330.053466396887</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179237.68381303659</v>
+        <f t="shared" si="24"/>
+        <v>-59237.68381303658</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="23"/>
-        <v>-179136.07719434021</v>
+        <f t="shared" si="24"/>
+        <v>-59136.077194340236</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53594,55 +53437,55 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3">
         <f>SUM($C38:C38)</f>
-        <v>-180253.75</v>
+        <v>-11363.75</v>
       </c>
       <c r="D39" s="3">
         <f>SUM($C38:D38)</f>
-        <v>-360162.01250000001</v>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E39" s="3">
         <f>SUM($C38:E38)</f>
-        <v>-540031.10125000007</v>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F39" s="3">
         <f>SUM($C38:F38)</f>
-        <v>-719857.09887500003</v>
+        <v>-190967.098875</v>
       </c>
       <c r="G39" s="3">
         <f>SUM($C38:G38)</f>
-        <v>-899589.44626250002</v>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H39" s="3">
         <f>SUM($C38:H38)</f>
-        <v>-1079269.65338875</v>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I39" s="3">
         <f>SUM($C38:I38)</f>
-        <v>-1258892.5062276251</v>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J39" s="3">
         <f>SUM($C38:J38)</f>
-        <v>-1438452.2693503876</v>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K39" s="3">
         <f>SUM($C38:K38)</f>
-        <v>-1617942.6337854264</v>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L39" s="3">
         <f>SUM($C38:L38)</f>
-        <v>-1797356.659663969</v>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M39" s="3">
         <f>SUM($C38:M38)</f>
-        <v>-1976686.7131303658</v>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N39" s="3">
         <f>SUM($C38:N38)</f>
-        <v>-2155924.3969434025</v>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O39" s="3">
         <f>SUM($C38:O38)</f>
-        <v>-2335060.4741377425</v>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -53672,55 +53515,55 @@
         <v>0.06</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" ref="C41:O41" si="24">$B41</f>
+        <f t="shared" ref="C41:O41" si="25">$B41</f>
         <v>0.06</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.06</v>
       </c>
     </row>
@@ -53730,55 +53573,55 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:O42" si="25">C5</f>
+        <f t="shared" ref="C42:O42" si="26">C5</f>
         <v>50</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>423.50000000000017</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>465.85000000000019</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>512.4350000000004</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>613.67850000000044</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>670.04635000000042</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>732.05098500000065</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>800.25608350000073</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>875.28169185000093</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>957.80986103500118</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1048.5908471385012</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1148.4499318523515</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1258.2949250375864</v>
       </c>
     </row>
@@ -53791,51 +53634,51 @@
         <v>-3</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:O43" si="26">-D41*D42</f>
+        <f t="shared" ref="D43:O43" si="27">-D41*D42</f>
         <v>-25.410000000000011</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-27.951000000000011</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-30.746100000000023</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-36.820710000000027</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-40.202781000000023</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-43.923059100000039</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-48.015365010000039</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-52.51690151100005</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-57.468591662100067</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-62.915450828310071</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-68.906995911141081</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-75.497695502255183</v>
       </c>
     </row>
@@ -54143,56 +53986,56 @@
         <v>40</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:O52" si="27">B56</f>
+        <f t="shared" ref="C52:O52" si="28">B56</f>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="27"/>
-        <v>-180253.75</v>
+        <f t="shared" si="28"/>
+        <v>-11363.75</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="27"/>
-        <v>-360162.01250000001</v>
+        <f t="shared" si="28"/>
+        <v>-71272.012500000012</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="27"/>
-        <v>-540031.10125000007</v>
+        <f t="shared" si="28"/>
+        <v>-131141.10125000001</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="27"/>
-        <v>-719857.09887500003</v>
+        <f t="shared" si="28"/>
+        <v>-190967.098875</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="27"/>
-        <v>-899589.44626250002</v>
+        <f t="shared" si="28"/>
+        <v>-250699.44626249999</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="27"/>
-        <v>-1079269.65338875</v>
+        <f t="shared" si="28"/>
+        <v>-310379.65338874998</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="27"/>
-        <v>-1258892.5062276251</v>
+        <f t="shared" si="28"/>
+        <v>-370002.50622762495</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="27"/>
-        <v>-1438452.2693503876</v>
+        <f t="shared" si="28"/>
+        <v>-429562.26935038745</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="27"/>
-        <v>-1617942.6337854264</v>
+        <f t="shared" si="28"/>
+        <v>-489052.63378542621</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="27"/>
-        <v>-1797356.659663969</v>
+        <f t="shared" si="28"/>
+        <v>-548466.65966396884</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="27"/>
-        <v>-1976686.7131303658</v>
+        <f t="shared" si="28"/>
+        <v>-607796.71313036571</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="27"/>
-        <v>-2155924.3969434025</v>
+        <f t="shared" si="28"/>
+        <v>-667034.39694340224</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -54201,55 +54044,55 @@
       </c>
       <c r="C53" s="3">
         <f>C35-C46+0+C37</f>
-        <v>-180253.75</v>
+        <v>-11363.75</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" ref="D53:H53" si="28">D35-D46+0+D37</f>
-        <v>-179908.26250000001</v>
+        <f t="shared" ref="D53:H53" si="29">D35-D46+0+D37</f>
+        <v>-59908.262500000004</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="28"/>
-        <v>-179869.08875</v>
+        <f t="shared" si="29"/>
+        <v>-59869.088750000003</v>
       </c>
       <c r="F53" s="3">
         <f>F35-F46+0+F37</f>
-        <v>-179825.99762499999</v>
+        <v>-59825.997624999996</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="28"/>
-        <v>-179732.34738749999</v>
+        <f t="shared" si="29"/>
+        <v>-59732.347387499998</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="28"/>
-        <v>-179680.20712625</v>
+        <f t="shared" si="29"/>
+        <v>-59680.207126250003</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" ref="I53:N53" si="29">I35-I46+0+I37</f>
-        <v>-179622.852838875</v>
+        <f t="shared" ref="I53:N53" si="30">I35-I46+0+I37</f>
+        <v>-59622.852838874998</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="29"/>
-        <v>-179559.76312276252</v>
+        <f t="shared" si="30"/>
+        <v>-59559.763122762495</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="29"/>
-        <v>-179490.36443503876</v>
+        <f t="shared" si="30"/>
+        <v>-59490.364435038748</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="29"/>
-        <v>-179414.02587854263</v>
+        <f t="shared" si="30"/>
+        <v>-59414.025878542627</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="29"/>
-        <v>-179330.0534663969</v>
+        <f t="shared" si="30"/>
+        <v>-59330.053466396887</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="29"/>
-        <v>-179237.68381303659</v>
+        <f t="shared" si="30"/>
+        <v>-59237.68381303658</v>
       </c>
       <c r="O53" s="3">
         <f>O35-O46+0+O37</f>
-        <v>-179136.07719434021</v>
+        <v>-59136.077194340236</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -54257,55 +54100,55 @@
         <v>42</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ref="C54:O54" si="30">C92+C93+C96+C97</f>
+        <f t="shared" ref="C54:O54" si="31">C92+C93+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -54314,56 +54157,56 @@
         <v>43</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55:O55" si="31">SUM(C53:C54)</f>
-        <v>-180253.75</v>
+        <f t="shared" ref="C55:O55" si="32">SUM(C53:C54)</f>
+        <v>-11363.75</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179908.26250000001</v>
+        <f t="shared" si="32"/>
+        <v>-59908.262500000004</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179869.08875</v>
+        <f t="shared" si="32"/>
+        <v>-59869.088750000003</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179825.99762499999</v>
+        <f t="shared" si="32"/>
+        <v>-59825.997624999996</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179732.34738749999</v>
+        <f t="shared" si="32"/>
+        <v>-59732.347387499998</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179680.20712625</v>
+        <f t="shared" si="32"/>
+        <v>-59680.207126250003</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179622.852838875</v>
+        <f t="shared" si="32"/>
+        <v>-59622.852838874998</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179559.76312276252</v>
+        <f t="shared" si="32"/>
+        <v>-59559.763122762495</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179490.36443503876</v>
+        <f t="shared" si="32"/>
+        <v>-59490.364435038748</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179414.02587854263</v>
+        <f t="shared" si="32"/>
+        <v>-59414.025878542627</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179330.0534663969</v>
+        <f t="shared" si="32"/>
+        <v>-59330.053466396887</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179237.68381303659</v>
+        <f t="shared" si="32"/>
+        <v>-59237.68381303658</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="31"/>
-        <v>-179136.07719434021</v>
+        <f t="shared" si="32"/>
+        <v>-59136.077194340236</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54372,56 +54215,56 @@
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14">
-        <f t="shared" ref="C56:O56" si="32">C52+C55</f>
-        <v>-180253.75</v>
+        <f t="shared" ref="C56:O56" si="33">C52+C55</f>
+        <v>-11363.75</v>
       </c>
       <c r="D56" s="14">
-        <f t="shared" si="32"/>
-        <v>-360162.01250000001</v>
+        <f t="shared" si="33"/>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" si="32"/>
-        <v>-540031.10125000007</v>
+        <f t="shared" si="33"/>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" si="32"/>
-        <v>-719857.09887500003</v>
+        <f t="shared" si="33"/>
+        <v>-190967.098875</v>
       </c>
       <c r="G56" s="14">
-        <f t="shared" si="32"/>
-        <v>-899589.44626250002</v>
+        <f t="shared" si="33"/>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H56" s="14">
-        <f t="shared" si="32"/>
-        <v>-1079269.65338875</v>
+        <f t="shared" si="33"/>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I56" s="14">
-        <f t="shared" si="32"/>
-        <v>-1258892.5062276251</v>
+        <f t="shared" si="33"/>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J56" s="14">
-        <f t="shared" si="32"/>
-        <v>-1438452.2693503876</v>
+        <f t="shared" si="33"/>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K56" s="14">
-        <f t="shared" si="32"/>
-        <v>-1617942.6337854264</v>
+        <f t="shared" si="33"/>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L56" s="14">
-        <f t="shared" si="32"/>
-        <v>-1797356.659663969</v>
+        <f t="shared" si="33"/>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M56" s="14">
-        <f t="shared" si="32"/>
-        <v>-1976686.7131303658</v>
+        <f t="shared" si="33"/>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N56" s="14">
-        <f t="shared" si="32"/>
-        <v>-2155924.3969434025</v>
+        <f t="shared" si="33"/>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O56" s="14">
-        <f t="shared" si="32"/>
-        <v>-2335060.4741377425</v>
+        <f t="shared" si="33"/>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -54437,51 +54280,51 @@
         <v>1</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" ref="D57:O57" si="33">IF(D56&lt;0,1,0)</f>
+        <f t="shared" ref="D57:O57" si="34">IF(D56&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -54513,56 +54356,56 @@
         <v>0</v>
       </c>
       <c r="C59" s="7">
-        <f t="shared" ref="C59:O59" si="34">C60</f>
-        <v>-180253.75</v>
+        <f t="shared" ref="C59:O59" si="35">C60</f>
+        <v>-11363.75</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="34"/>
-        <v>-360162.01250000001</v>
+        <f t="shared" si="35"/>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="34"/>
-        <v>-540031.10125000007</v>
+        <f t="shared" si="35"/>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="34"/>
-        <v>-719857.09887500003</v>
+        <f t="shared" si="35"/>
+        <v>-190967.098875</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="34"/>
-        <v>-899589.44626250002</v>
+        <f t="shared" si="35"/>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H59" s="7">
-        <f t="shared" si="34"/>
-        <v>-1079269.65338875</v>
+        <f t="shared" si="35"/>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="34"/>
-        <v>-1258892.5062276251</v>
+        <f t="shared" si="35"/>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J59" s="7">
-        <f t="shared" si="34"/>
-        <v>-1438452.2693503876</v>
+        <f t="shared" si="35"/>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="34"/>
-        <v>-1617942.6337854264</v>
+        <f t="shared" si="35"/>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L59" s="7">
-        <f t="shared" si="34"/>
-        <v>-1797356.659663969</v>
+        <f t="shared" si="35"/>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M59" s="7">
-        <f t="shared" si="34"/>
-        <v>-1976686.7131303658</v>
+        <f t="shared" si="35"/>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" si="34"/>
-        <v>-2155924.3969434025</v>
+        <f t="shared" si="35"/>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="34"/>
-        <v>-2335060.4741377425</v>
+        <f t="shared" si="35"/>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -54573,56 +54416,56 @@
         <v>0</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ref="C60:O60" si="35">B60+C55</f>
-        <v>-180253.75</v>
+        <f t="shared" ref="C60:O60" si="36">B60+C55</f>
+        <v>-11363.75</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="35"/>
-        <v>-360162.01250000001</v>
+        <f t="shared" si="36"/>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="35"/>
-        <v>-540031.10125000007</v>
+        <f t="shared" si="36"/>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="35"/>
-        <v>-719857.09887500003</v>
+        <f t="shared" si="36"/>
+        <v>-190967.098875</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="35"/>
-        <v>-899589.44626250002</v>
+        <f t="shared" si="36"/>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="35"/>
-        <v>-1079269.65338875</v>
+        <f t="shared" si="36"/>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="35"/>
-        <v>-1258892.5062276251</v>
+        <f t="shared" si="36"/>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="35"/>
-        <v>-1438452.2693503876</v>
+        <f t="shared" si="36"/>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="35"/>
-        <v>-1617942.6337854264</v>
+        <f t="shared" si="36"/>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="35"/>
-        <v>-1797356.659663969</v>
+        <f t="shared" si="36"/>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="35"/>
-        <v>-1976686.7131303658</v>
+        <f t="shared" si="36"/>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="35"/>
-        <v>-2155924.3969434025</v>
+        <f t="shared" si="36"/>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="35"/>
-        <v>-2335060.4741377425</v>
+        <f t="shared" si="36"/>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54635,55 +54478,55 @@
       </c>
       <c r="C61" s="7">
         <f>SUM(C62:C65)</f>
-        <v>-180253.75</v>
+        <v>-11363.75</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" ref="D61" si="36">SUM(D62:D65)</f>
-        <v>-360162.01250000001</v>
+        <f t="shared" ref="D61" si="37">SUM(D62:D65)</f>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" ref="E61" si="37">SUM(E62:E65)</f>
-        <v>-540031.10125000007</v>
+        <f t="shared" ref="E61" si="38">SUM(E62:E65)</f>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" ref="F61" si="38">SUM(F62:F65)</f>
-        <v>-719857.09887500003</v>
+        <f t="shared" ref="F61" si="39">SUM(F62:F65)</f>
+        <v>-190967.098875</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" ref="G61" si="39">SUM(G62:G65)</f>
-        <v>-899589.44626250002</v>
+        <f t="shared" ref="G61" si="40">SUM(G62:G65)</f>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H61" s="7">
-        <f t="shared" ref="H61" si="40">SUM(H62:H65)</f>
-        <v>-1079269.65338875</v>
+        <f t="shared" ref="H61" si="41">SUM(H62:H65)</f>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I61" s="7">
-        <f t="shared" ref="I61" si="41">SUM(I62:I65)</f>
-        <v>-1258892.5062276251</v>
+        <f t="shared" ref="I61" si="42">SUM(I62:I65)</f>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J61" s="7">
-        <f t="shared" ref="J61" si="42">SUM(J62:J65)</f>
-        <v>-1438452.2693503876</v>
+        <f t="shared" ref="J61" si="43">SUM(J62:J65)</f>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" ref="K61" si="43">SUM(K62:K65)</f>
-        <v>-1617942.6337854264</v>
+        <f t="shared" ref="K61" si="44">SUM(K62:K65)</f>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" ref="L61" si="44">SUM(L62:L65)</f>
-        <v>-1797356.659663969</v>
+        <f t="shared" ref="L61" si="45">SUM(L62:L65)</f>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M61" s="7">
-        <f t="shared" ref="M61" si="45">SUM(M62:M65)</f>
-        <v>-1976686.7131303658</v>
+        <f t="shared" ref="M61" si="46">SUM(M62:M65)</f>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" ref="N61" si="46">SUM(N62:N65)</f>
-        <v>-2155924.3969434025</v>
+        <f t="shared" ref="N61" si="47">SUM(N62:N65)</f>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61" si="47">SUM(O62:O65)</f>
-        <v>-2335060.4741377425</v>
+        <f t="shared" ref="O61" si="48">SUM(O62:O65)</f>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -54694,55 +54537,55 @@
         <v>0</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ref="C62:O62" si="48">B62+C92</f>
+        <f t="shared" ref="C62:O62" si="49">B62+C92</f>
         <v>0</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -54754,56 +54597,56 @@
         <v>0</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ref="C63:O63" si="49">B63+C38+C93</f>
-        <v>-180253.75</v>
+        <f t="shared" ref="C63:O63" si="50">B63+C38+C93</f>
+        <v>-11363.75</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="49"/>
-        <v>-360162.01250000001</v>
+        <f t="shared" si="50"/>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="49"/>
-        <v>-540031.10125000007</v>
+        <f t="shared" si="50"/>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="49"/>
-        <v>-719857.09887500003</v>
+        <f t="shared" si="50"/>
+        <v>-190967.098875</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="49"/>
-        <v>-899589.44626250002</v>
+        <f t="shared" si="50"/>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="49"/>
-        <v>-1079269.65338875</v>
+        <f t="shared" si="50"/>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="49"/>
-        <v>-1258892.5062276251</v>
+        <f t="shared" si="50"/>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="49"/>
-        <v>-1438452.2693503876</v>
+        <f t="shared" si="50"/>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="49"/>
-        <v>-1617942.6337854264</v>
+        <f t="shared" si="50"/>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="49"/>
-        <v>-1797356.659663969</v>
+        <f t="shared" si="50"/>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="49"/>
-        <v>-1976686.7131303658</v>
+        <f t="shared" si="50"/>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="49"/>
-        <v>-2155924.3969434025</v>
+        <f t="shared" si="50"/>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="49"/>
-        <v>-2335060.4741377425</v>
+        <f t="shared" si="50"/>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54814,55 +54657,55 @@
         <v>0</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" ref="C64:O64" si="50">B64+C96+C97</f>
+        <f t="shared" ref="C64:O64" si="51">B64+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -54878,47 +54721,47 @@
         <v>0</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ref="D65:N65" si="51">C65+D49</f>
+        <f t="shared" ref="D65:N65" si="52">C65+D49</f>
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O65" s="3">
@@ -54932,55 +54775,55 @@
       </c>
       <c r="C67" s="3">
         <f>C53</f>
-        <v>-180253.75</v>
+        <v>-11363.75</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ref="D67:O67" si="52">D53</f>
-        <v>-179908.26250000001</v>
+        <f t="shared" ref="D67:O67" si="53">D53</f>
+        <v>-59908.262500000004</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179869.08875</v>
+        <f t="shared" si="53"/>
+        <v>-59869.088750000003</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179825.99762499999</v>
+        <f t="shared" si="53"/>
+        <v>-59825.997624999996</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179732.34738749999</v>
+        <f t="shared" si="53"/>
+        <v>-59732.347387499998</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179680.20712625</v>
+        <f t="shared" si="53"/>
+        <v>-59680.207126250003</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179622.852838875</v>
+        <f t="shared" si="53"/>
+        <v>-59622.852838874998</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179559.76312276252</v>
+        <f t="shared" si="53"/>
+        <v>-59559.763122762495</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179490.36443503876</v>
+        <f t="shared" si="53"/>
+        <v>-59490.364435038748</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179414.02587854263</v>
+        <f t="shared" si="53"/>
+        <v>-59414.025878542627</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179330.0534663969</v>
+        <f t="shared" si="53"/>
+        <v>-59330.053466396887</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179237.68381303659</v>
+        <f t="shared" si="53"/>
+        <v>-59237.68381303658</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="52"/>
-        <v>-179136.07719434021</v>
+        <f t="shared" si="53"/>
+        <v>-59136.077194340236</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -54989,55 +54832,55 @@
       </c>
       <c r="C68" s="3">
         <f>SUM($C67:C67)</f>
-        <v>-180253.75</v>
+        <v>-11363.75</v>
       </c>
       <c r="D68" s="3">
         <f>SUM($C67:D67)</f>
-        <v>-360162.01250000001</v>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E68" s="3">
         <f>SUM($C67:E67)</f>
-        <v>-540031.10125000007</v>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F68" s="3">
         <f>SUM($C67:F67)</f>
-        <v>-719857.09887500003</v>
+        <v>-190967.098875</v>
       </c>
       <c r="G68" s="3">
         <f>SUM($C67:G67)</f>
-        <v>-899589.44626250002</v>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H68" s="3">
         <f>SUM($C67:H67)</f>
-        <v>-1079269.65338875</v>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I68" s="3">
         <f>SUM($C67:I67)</f>
-        <v>-1258892.5062276251</v>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J68" s="3">
         <f>SUM($C67:J67)</f>
-        <v>-1438452.2693503876</v>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K68" s="3">
         <f>SUM($C67:K67)</f>
-        <v>-1617942.6337854264</v>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L68" s="3">
         <f>SUM($C67:L67)</f>
-        <v>-1797356.659663969</v>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M68" s="3">
         <f>SUM($C67:M67)</f>
-        <v>-1976686.7131303658</v>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N68" s="3">
         <f>SUM($C67:N67)</f>
-        <v>-2155924.3969434025</v>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O68" s="3">
         <f>SUM($C67:O67)</f>
-        <v>-2335060.4741377425</v>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -55045,56 +54888,56 @@
         <v>56</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ref="C70:O70" si="53">C67/(1+$B$74)^C2</f>
-        <v>-180253.75</v>
+        <f t="shared" ref="C70:O70" si="54">C67/(1+$B$74)^C2</f>
+        <v>-11363.75</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" si="53"/>
-        <v>-175356.90307446747</v>
+        <f t="shared" si="54"/>
+        <v>-58392.689888671761</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="53"/>
-        <v>-170883.46818804863</v>
+        <f t="shared" si="54"/>
+        <v>-56878.24180327975</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="53"/>
-        <v>-166520.51725006101</v>
+        <f t="shared" si="54"/>
+        <v>-55399.420557035941</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="53"/>
-        <v>-162223.31690619508</v>
+        <f t="shared" si="54"/>
+        <v>-53913.386547508388</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="53"/>
-        <v>-158073.48484266296</v>
+        <f t="shared" si="54"/>
+        <v>-52503.603304228636</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="53"/>
-        <v>-154025.32560564062</v>
+        <f t="shared" si="54"/>
+        <v>-51126.17452013537</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="53"/>
-        <v>-150076.02812421363</v>
+        <f t="shared" si="54"/>
+        <v>-49780.042755859969</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="53"/>
-        <v>-146222.8351985926</v>
+        <f t="shared" si="54"/>
+        <v>-48464.160079396221</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="53"/>
-        <v>-142463.04089273809</v>
+        <f t="shared" si="54"/>
+        <v>-47177.486581049525</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="53"/>
-        <v>-138793.98790312716</v>
+        <f t="shared" si="54"/>
+        <v>-45918.988836135031</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="53"/>
-        <v>-135213.06489778278</v>
+        <f t="shared" si="54"/>
+        <v>-44687.638310264061</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="53"/>
-        <v>-131717.70381936769</v>
+        <f t="shared" si="54"/>
+        <v>-43482.409701720724</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -55103,55 +54946,55 @@
       </c>
       <c r="C71" s="3">
         <f>SUM($C70:C70)</f>
-        <v>-180253.75</v>
+        <v>-11363.75</v>
       </c>
       <c r="D71" s="3">
         <f>SUM($C70:D70)</f>
-        <v>-355610.65307446744</v>
+        <v>-69756.439888671768</v>
       </c>
       <c r="E71" s="3">
         <f>SUM($C70:E70)</f>
-        <v>-526494.12126251613</v>
+        <v>-126634.68169195153</v>
       </c>
       <c r="F71" s="3">
         <f>SUM($C70:F70)</f>
-        <v>-693014.63851257716</v>
+        <v>-182034.10224898747</v>
       </c>
       <c r="G71" s="3">
         <f>SUM($C70:G70)</f>
-        <v>-855237.9554187723</v>
+        <v>-235947.48879649586</v>
       </c>
       <c r="H71" s="3">
         <f>SUM($C70:H70)</f>
-        <v>-1013311.4402614352</v>
+        <v>-288451.09210072452</v>
       </c>
       <c r="I71" s="3">
         <f>SUM($C70:I70)</f>
-        <v>-1167336.7658670759</v>
+        <v>-339577.26662085991</v>
       </c>
       <c r="J71" s="3">
         <f>SUM($C70:J70)</f>
-        <v>-1317412.7939912896</v>
+        <v>-389357.30937671987</v>
       </c>
       <c r="K71" s="3">
         <f>SUM($C70:K70)</f>
-        <v>-1463635.6291898822</v>
+        <v>-437821.46945611609</v>
       </c>
       <c r="L71" s="3">
         <f>SUM($C70:L70)</f>
-        <v>-1606098.6700826203</v>
+        <v>-484998.9560371656</v>
       </c>
       <c r="M71" s="3">
         <f>SUM($C70:M70)</f>
-        <v>-1744892.6579857476</v>
+        <v>-530917.94487330061</v>
       </c>
       <c r="N71" s="3">
         <f>SUM($C70:N70)</f>
-        <v>-1880105.7228835304</v>
+        <v>-575605.58318356471</v>
       </c>
       <c r="O71" s="3">
         <f>SUM($C70:O70)</f>
-        <v>-2011823.426702898</v>
+        <v>-619087.99288528541</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -55197,7 +55040,7 @@
       </c>
       <c r="B76" s="3">
         <f>O71</f>
-        <v>-2011823.426702898</v>
+        <v>-619087.99288528541</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>

--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Номера периодов</t>
   </si>
@@ -135,18 +135,6 @@
     <t>Налог</t>
   </si>
   <si>
-    <t>ОБОРОТНЫЙ КАПИТАЛ</t>
-  </si>
-  <si>
-    <t>Изменение оборотного капитала</t>
-  </si>
-  <si>
-    <t>Дебиторская задолженность</t>
-  </si>
-  <si>
-    <t>Запасы</t>
-  </si>
-  <si>
     <t>Кредиторская задолженность</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
   </si>
   <si>
     <t>Флаг кассового разрыва</t>
-  </si>
-  <si>
-    <t>Банковский кредит</t>
   </si>
   <si>
     <t>БАЛАНС</t>
@@ -432,7 +417,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$55</c:f>
+              <c:f>Лист1!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -455,7 +440,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$55:$O$55</c:f>
+              <c:f>Лист1!$C$43:$O$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -513,7 +498,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$56</c:f>
+              <c:f>Лист1!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -536,7 +521,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$56:$O$56</c:f>
+              <c:f>Лист1!$C$44:$O$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -917,7 +902,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$16</c:f>
+              <c:f>Лист1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -937,9 +922,9 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$16:$XFD$16</c:f>
+              <c:f>Лист1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
               </c:numCache>
             </c:numRef>
@@ -2577,13 +2562,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:XFD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2596,10 +2584,10 @@
   <sheetData>
     <row r="1" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="7">
-        <f>O71</f>
+        <f>O59</f>
         <v>-619087.99288528541</v>
       </c>
       <c r="C1" s="3"/>
@@ -2691,9 +2679,7 @@
       <c r="O3" s="1">
         <v>43374</v>
       </c>
-      <c r="P3" s="1">
-        <v>43405</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1">
         <v>43435</v>
       </c>
@@ -52445,2625 +52431,2396 @@
       </c>
       <c r="P15" s="16"/>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="16" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="7">
-        <f>SUM(C18,C22)</f>
+      <c r="C16" s="7">
+        <f>C19</f>
         <v>-0.75</v>
       </c>
-      <c r="D17" s="7">
-        <f>SUM(D18,D22)</f>
+      <c r="D16" s="7">
+        <f t="shared" ref="D16:O16" si="10">D19</f>
         <v>-6.3525000000000027</v>
       </c>
-      <c r="E17" s="7">
-        <f t="shared" ref="E17:O17" si="10">SUM(E18,E22)</f>
+      <c r="E16" s="7">
+        <f t="shared" si="10"/>
         <v>-6.9877500000000028</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="10"/>
         <v>-7.6865250000000058</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G16" s="7">
         <f t="shared" si="10"/>
         <v>-9.2051775000000067</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H16" s="7">
         <f t="shared" si="10"/>
         <v>-10.050695250000006</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I16" s="7">
         <f t="shared" si="10"/>
         <v>-10.98076477500001</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J16" s="7">
         <f t="shared" si="10"/>
         <v>-12.00384125250001</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K16" s="7">
         <f t="shared" si="10"/>
         <v>-13.129225377750013</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L16" s="7">
         <f t="shared" si="10"/>
         <v>-14.367147915525017</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M16" s="7">
         <f t="shared" si="10"/>
         <v>-15.728862707077518</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N16" s="7">
         <f t="shared" si="10"/>
         <v>-17.22674897778527</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O16" s="7">
         <f t="shared" si="10"/>
         <v>-18.874423875563796</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <f>$B17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O18" s="5">
+        <f>$B18</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <f>-C5*C17*C18</f>
+        <v>-0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <f>-D5*D17*D18</f>
+        <v>-6.3525000000000027</v>
+      </c>
+      <c r="E19" s="3">
+        <f>-E5*E17*E18</f>
+        <v>-6.9877500000000028</v>
+      </c>
+      <c r="F19" s="3">
+        <f>-F5*F17*F18</f>
+        <v>-7.6865250000000058</v>
+      </c>
+      <c r="G19" s="3">
+        <f>-G5*G17*G18</f>
+        <v>-9.2051775000000067</v>
+      </c>
+      <c r="H19" s="3">
+        <f>-H5*H17*H18</f>
+        <v>-10.050695250000006</v>
+      </c>
+      <c r="I19" s="3">
+        <f>-I5*I17*I18</f>
+        <v>-10.98076477500001</v>
+      </c>
+      <c r="J19" s="3">
+        <f>-J5*J17*J18</f>
+        <v>-12.00384125250001</v>
+      </c>
+      <c r="K19" s="3">
+        <f>-K5*K17*K18</f>
+        <v>-13.129225377750013</v>
+      </c>
+      <c r="L19" s="3">
+        <f>-L5*L17*L18</f>
+        <v>-14.367147915525017</v>
+      </c>
+      <c r="M19" s="3">
+        <f>-M5*M17*M18</f>
+        <v>-15.728862707077518</v>
+      </c>
+      <c r="N19" s="3">
+        <f>-N5*N17*N18</f>
+        <v>-17.22674897778527</v>
+      </c>
+      <c r="O19" s="3">
+        <f>-O5*O17*O18</f>
+        <v>-18.874423875563796</v>
+      </c>
+    </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <f>$B20</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" ref="D20:O21" si="11">$B20</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <f>C5+C16</f>
+        <v>49.25</v>
+      </c>
+      <c r="D20" s="7">
+        <f>D5+D16</f>
+        <v>417.14750000000015</v>
+      </c>
+      <c r="E20" s="7">
+        <f>E5+E16</f>
+        <v>458.86225000000019</v>
+      </c>
+      <c r="F20" s="7">
+        <f>F5+F16</f>
+        <v>504.74847500000038</v>
+      </c>
+      <c r="G20" s="7">
+        <f>G5+G16</f>
+        <v>604.47332250000045</v>
+      </c>
+      <c r="H20" s="7">
+        <f>H5+H16</f>
+        <v>659.99565475000043</v>
+      </c>
+      <c r="I20" s="7">
+        <f>I5+I16</f>
+        <v>721.07022022500064</v>
+      </c>
+      <c r="J20" s="7">
+        <f>J5+J16</f>
+        <v>788.2522422475007</v>
+      </c>
+      <c r="K20" s="7">
+        <f>K5+K16</f>
+        <v>862.15246647225092</v>
+      </c>
+      <c r="L20" s="7">
+        <f>L5+L16</f>
+        <v>943.44271311947614</v>
+      </c>
+      <c r="M20" s="7">
+        <f>M5+M16</f>
+        <v>1032.8619844314237</v>
+      </c>
+      <c r="N20" s="7">
+        <f>N5+N16</f>
+        <v>1131.2231828745662</v>
+      </c>
+      <c r="O20" s="7">
+        <f>O5+O16</f>
+        <v>1239.4205011620227</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C21" s="5">
-        <f>$B21</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="11"/>
-        <v>1.4999999999999999E-2</v>
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
+        <f>IFERROR(C20/C$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <f>IFERROR(D20/D$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E21" s="4">
+        <f>IFERROR(E20/E$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <f>IFERROR(F20/F$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <f>IFERROR(G20/G$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <f>IFERROR(H20/H$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I21" s="4">
+        <f>IFERROR(I20/I$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J21" s="4">
+        <f>IFERROR(J20/J$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <f>IFERROR(K20/K$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L21" s="4">
+        <f>IFERROR(L20/L$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M21" s="4">
+        <f>IFERROR(M20/M$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="N21" s="4">
+        <f>IFERROR(N20/N$5,"-")</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="O21" s="4">
+        <f>IFERROR(O20/O$5,"-")</f>
+        <v>0.9850000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:O22" si="12">-C5*C20*C21</f>
-        <v>-0.75</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="12"/>
-        <v>-6.3525000000000027</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="12"/>
-        <v>-6.9877500000000028</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="12"/>
-        <v>-7.6865250000000058</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="12"/>
-        <v>-9.2051775000000067</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="12"/>
-        <v>-10.050695250000006</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="12"/>
-        <v>-10.98076477500001</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="12"/>
-        <v>-12.00384125250001</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="12"/>
-        <v>-13.129225377750013</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="12"/>
-        <v>-14.367147915525017</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="12"/>
-        <v>-15.728862707077518</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="12"/>
-        <v>-17.22674897778527</v>
-      </c>
-      <c r="O22" s="3">
-        <f t="shared" si="12"/>
-        <v>-18.874423875563796</v>
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <f>-SUM(C23:C25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="D22" s="7">
+        <f>-SUM(D23:D25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="E22" s="7">
+        <f>-SUM(E23:E25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="F22" s="7">
+        <f>-SUM(F23:F25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="G22" s="7">
+        <f>-SUM(G23:G25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="H22" s="7">
+        <f>-SUM(H23:H25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="I22" s="7">
+        <f>-SUM(I23:I25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="J22" s="7">
+        <f>-SUM(J23:J25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="K22" s="7">
+        <f>-SUM(K23:K25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="L22" s="7">
+        <f>-SUM(L23:L25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="M22" s="7">
+        <f>-SUM(M23:M25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="N22" s="7">
+        <f>-SUM(N23:N25)</f>
+        <v>-60000</v>
+      </c>
+      <c r="O22" s="7">
+        <f>-SUM(O23:O25)</f>
+        <v>-60000</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" ref="C23:O23" si="13">C5+C17</f>
-        <v>49.25</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="13"/>
-        <v>417.14750000000015</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" si="13"/>
-        <v>458.86225000000019</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="13"/>
-        <v>504.74847500000038</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="13"/>
-        <v>604.47332250000045</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="13"/>
-        <v>659.99565475000043</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="13"/>
-        <v>721.07022022500064</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="13"/>
-        <v>788.2522422475007</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="13"/>
-        <v>862.15246647225092</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="13"/>
-        <v>943.44271311947614</v>
-      </c>
-      <c r="M23" s="7">
-        <f t="shared" si="13"/>
-        <v>1032.8619844314237</v>
-      </c>
-      <c r="N23" s="7">
-        <f t="shared" si="13"/>
-        <v>1131.2231828745662</v>
-      </c>
-      <c r="O23" s="7">
-        <f t="shared" si="13"/>
-        <v>1239.4205011620227</v>
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>30000</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" ref="C24:O24" si="14">IFERROR(C23/C$5,"-")</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="O24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.9850000000000001</v>
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="C24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="D24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="F24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="G24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="H24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="I24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="J24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="K24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="L24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="M24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="N24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
+      </c>
+      <c r="O24" s="3">
+        <f>$B24</f>
+        <v>25000</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="7">
-        <f>-SUM(C26:C28)</f>
-        <v>-60000</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" ref="D25:O25" si="15">-SUM(D26:D28)</f>
-        <v>-60000</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="M25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="N25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
-      </c>
-      <c r="O25" s="7">
-        <f t="shared" si="15"/>
-        <v>-60000</v>
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="D25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="E25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="F25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="G25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="H25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="I25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="J25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="K25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="L25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="M25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="N25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
+      </c>
+      <c r="O25" s="3">
+        <f>$B25</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="C26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>30000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>30000</v>
+      <c r="A26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7">
+        <f>C20+C22</f>
+        <v>-59950.75</v>
+      </c>
+      <c r="D26" s="7">
+        <f>D20+D22</f>
+        <v>-59582.852500000001</v>
+      </c>
+      <c r="E26" s="7">
+        <f>E20+E22</f>
+        <v>-59541.137750000002</v>
+      </c>
+      <c r="F26" s="7">
+        <f>F20+F22</f>
+        <v>-59495.251525</v>
+      </c>
+      <c r="G26" s="7">
+        <f>G20+G22</f>
+        <v>-59395.526677499998</v>
+      </c>
+      <c r="H26" s="7">
+        <f>H20+H22</f>
+        <v>-59340.004345250003</v>
+      </c>
+      <c r="I26" s="7">
+        <f>I20+I22</f>
+        <v>-59278.929779774997</v>
+      </c>
+      <c r="J26" s="7">
+        <f>J20+J22</f>
+        <v>-59211.747757752499</v>
+      </c>
+      <c r="K26" s="7">
+        <f>K20+K22</f>
+        <v>-59137.847533527747</v>
+      </c>
+      <c r="L26" s="7">
+        <f>L20+L22</f>
+        <v>-59056.557286880525</v>
+      </c>
+      <c r="M26" s="7">
+        <f>M20+M22</f>
+        <v>-58967.138015568577</v>
+      </c>
+      <c r="N26" s="7">
+        <f>N20+N22</f>
+        <v>-58868.776817125436</v>
+      </c>
+      <c r="O26" s="7">
+        <f>O20+O22</f>
+        <v>-58760.579498837978</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="3">
-        <v>25000</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:O28" si="16">$B27</f>
-        <v>25000</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="N27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
-      </c>
-      <c r="O27" s="3">
-        <f t="shared" si="16"/>
-        <v>25000</v>
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7">
+        <f>C29+C28</f>
+        <v>48590</v>
+      </c>
+      <c r="D27" s="7">
+        <f>D29</f>
+        <v>-300</v>
+      </c>
+      <c r="E27" s="7">
+        <f>E29</f>
+        <v>-300</v>
+      </c>
+      <c r="F27" s="7">
+        <f>F29</f>
+        <v>-300</v>
+      </c>
+      <c r="G27" s="7">
+        <f>G29</f>
+        <v>-300</v>
+      </c>
+      <c r="H27" s="7">
+        <f>H29</f>
+        <v>-300</v>
+      </c>
+      <c r="I27" s="7">
+        <f>I29</f>
+        <v>-300</v>
+      </c>
+      <c r="J27" s="7">
+        <f>J29</f>
+        <v>-300</v>
+      </c>
+      <c r="K27" s="7">
+        <f>K29</f>
+        <v>-300</v>
+      </c>
+      <c r="L27" s="7">
+        <f>L29</f>
+        <v>-300</v>
+      </c>
+      <c r="M27" s="7">
+        <f>M29</f>
+        <v>-300</v>
+      </c>
+      <c r="N27" s="7">
+        <f>N29</f>
+        <v>-300</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" ref="O27" si="11">O29</f>
+        <v>-300</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5000</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="16"/>
-        <v>5000</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" ref="D28:O28" si="17">$B28</f>
-        <v>5000</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="N28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="O28" s="3">
-        <f t="shared" si="17"/>
-        <v>5000</v>
+        <v>48890</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3">
+        <v>300</v>
+      </c>
+      <c r="C29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="D29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="E29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="F29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="G29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="H29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="I29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="J29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="K29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="L29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="M29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="N29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+      <c r="O29" s="3">
+        <f>-$B29</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7">
+        <f>C26+C27</f>
+        <v>-11360.75</v>
+      </c>
+      <c r="D30" s="7">
+        <f>D26+D27</f>
+        <v>-59882.852500000001</v>
+      </c>
+      <c r="E30" s="7">
+        <f>E26+E27</f>
+        <v>-59841.137750000002</v>
+      </c>
+      <c r="F30" s="7">
+        <f>F26+F27</f>
+        <v>-59795.251525</v>
+      </c>
+      <c r="G30" s="7">
+        <f>G26+G27</f>
+        <v>-59695.526677499998</v>
+      </c>
+      <c r="H30" s="7">
+        <f>H26+H27</f>
+        <v>-59640.004345250003</v>
+      </c>
+      <c r="I30" s="7">
+        <f>I26+I27</f>
+        <v>-59578.929779774997</v>
+      </c>
+      <c r="J30" s="7">
+        <f>J26+J27</f>
+        <v>-59511.747757752499</v>
+      </c>
+      <c r="K30" s="7">
+        <f>K26+K27</f>
+        <v>-59437.847533527747</v>
+      </c>
+      <c r="L30" s="7">
+        <f>L26+L27</f>
+        <v>-59356.557286880525</v>
+      </c>
+      <c r="M30" s="7">
+        <f>M26+M27</f>
+        <v>-59267.138015568577</v>
+      </c>
+      <c r="N30" s="7">
+        <f>N26+N27</f>
+        <v>-59168.776817125436</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" ref="O30" si="12">O26+O27</f>
+        <v>-59060.579498837978</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" ref="C31:O31" si="18">C23+C25</f>
-        <v>-59950.75</v>
+        <f>C30</f>
+        <v>-11360.75</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59582.852500000001</v>
+        <f>D30</f>
+        <v>-59882.852500000001</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59541.137750000002</v>
+        <f>E30</f>
+        <v>-59841.137750000002</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59495.251525</v>
+        <f>F30</f>
+        <v>-59795.251525</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59395.526677499998</v>
+        <f>G30</f>
+        <v>-59695.526677499998</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59340.004345250003</v>
+        <f>H30</f>
+        <v>-59640.004345250003</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59278.929779774997</v>
+        <f>I30</f>
+        <v>-59578.929779774997</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59211.747757752499</v>
+        <f>J30</f>
+        <v>-59511.747757752499</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59137.847533527747</v>
+        <f>K30</f>
+        <v>-59437.847533527747</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="18"/>
-        <v>-59056.557286880525</v>
+        <f>L30</f>
+        <v>-59356.557286880525</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="18"/>
-        <v>-58967.138015568577</v>
+        <f>M30</f>
+        <v>-59267.138015568577</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="18"/>
-        <v>-58868.776817125436</v>
+        <f>N30</f>
+        <v>-59168.776817125436</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="18"/>
-        <v>-58760.579498837978</v>
+        <f t="shared" ref="O31" si="13">O30</f>
+        <v>-59060.579498837978</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="7">
-        <f>C34+C33</f>
-        <v>48590</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" ref="D32:O32" si="19">D34</f>
-        <v>-300</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="H32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="J32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="K32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="M32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="N32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
-      </c>
-      <c r="O32" s="7">
-        <f t="shared" si="19"/>
-        <v>-300</v>
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3">
+        <f>C38</f>
+        <v>-3</v>
+      </c>
+      <c r="D32" s="3">
+        <f>D38</f>
+        <v>-25.410000000000011</v>
+      </c>
+      <c r="E32" s="3">
+        <f>E38</f>
+        <v>-27.951000000000011</v>
+      </c>
+      <c r="F32" s="3">
+        <f>F38</f>
+        <v>-30.746100000000023</v>
+      </c>
+      <c r="G32" s="3">
+        <f>G38</f>
+        <v>-36.820710000000027</v>
+      </c>
+      <c r="H32" s="3">
+        <f>H38</f>
+        <v>-40.202781000000023</v>
+      </c>
+      <c r="I32" s="3">
+        <f>I38</f>
+        <v>-43.923059100000039</v>
+      </c>
+      <c r="J32" s="3">
+        <f>J38</f>
+        <v>-48.015365010000039</v>
+      </c>
+      <c r="K32" s="3">
+        <f>K38</f>
+        <v>-52.51690151100005</v>
+      </c>
+      <c r="L32" s="3">
+        <f>L38</f>
+        <v>-57.468591662100067</v>
+      </c>
+      <c r="M32" s="3">
+        <f>M38</f>
+        <v>-62.915450828310071</v>
+      </c>
+      <c r="N32" s="3">
+        <f>N38</f>
+        <v>-68.906995911141081</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" ref="O32" si="14">O38</f>
+        <v>-75.497695502255183</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3">
-        <v>48890</v>
+        <f>C31+C32</f>
+        <v>-11363.75</v>
+      </c>
+      <c r="D33" s="3">
+        <f>D31+D32</f>
+        <v>-59908.262500000004</v>
+      </c>
+      <c r="E33" s="3">
+        <f>E31+E32</f>
+        <v>-59869.088750000003</v>
+      </c>
+      <c r="F33" s="3">
+        <f>F31+F32</f>
+        <v>-59825.997624999996</v>
+      </c>
+      <c r="G33" s="3">
+        <f>G31+G32</f>
+        <v>-59732.347387499998</v>
+      </c>
+      <c r="H33" s="3">
+        <f>H31+H32</f>
+        <v>-59680.207126250003</v>
+      </c>
+      <c r="I33" s="3">
+        <f>I31+I32</f>
+        <v>-59622.852838874998</v>
+      </c>
+      <c r="J33" s="3">
+        <f>J31+J32</f>
+        <v>-59559.763122762495</v>
+      </c>
+      <c r="K33" s="3">
+        <f>K31+K32</f>
+        <v>-59490.364435038748</v>
+      </c>
+      <c r="L33" s="3">
+        <f>L31+L32</f>
+        <v>-59414.025878542627</v>
+      </c>
+      <c r="M33" s="3">
+        <f>M31+M32</f>
+        <v>-59330.053466396887</v>
+      </c>
+      <c r="N33" s="3">
+        <f>N31+N32</f>
+        <v>-59237.68381303658</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" ref="O33" si="15">O31+O32</f>
+        <v>-59136.077194340236</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="3">
-        <v>300</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:O34" si="20">-$B34</f>
-        <v>-300</v>
+        <f>SUM($C33:C33)</f>
+        <v>-11363.75</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:D33)</f>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:E33)</f>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:F33)</f>
+        <v>-190967.098875</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:G33)</f>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:H33)</f>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:I33)</f>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:J33)</f>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:K33)</f>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:L33)</f>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:M33)</f>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:N33)</f>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="20"/>
-        <v>-300</v>
+        <f>SUM($C33:O33)</f>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="7">
-        <f t="shared" ref="C35:O35" si="21">C31+C32</f>
-        <v>-11360.75</v>
-      </c>
-      <c r="D35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59882.852500000001</v>
-      </c>
-      <c r="E35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59841.137750000002</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59795.251525</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59695.526677499998</v>
-      </c>
-      <c r="H35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59640.004345250003</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59578.929779774997</v>
-      </c>
-      <c r="J35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59511.747757752499</v>
-      </c>
-      <c r="K35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59437.847533527747</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59356.557286880525</v>
-      </c>
-      <c r="M35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59267.138015568577</v>
-      </c>
-      <c r="N35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59168.776817125436</v>
-      </c>
-      <c r="O35" s="7">
-        <f t="shared" si="21"/>
-        <v>-59060.579498837978</v>
-      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7">
-        <f>C35</f>
-        <v>-11360.75</v>
-      </c>
-      <c r="D36" s="7">
-        <f t="shared" ref="D36:O36" si="22">D35</f>
-        <v>-59882.852500000001</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59841.137750000002</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59795.251525</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59695.526677499998</v>
-      </c>
-      <c r="H36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59640.004345250003</v>
-      </c>
-      <c r="I36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59578.929779774997</v>
-      </c>
-      <c r="J36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59511.747757752499</v>
-      </c>
-      <c r="K36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59437.847533527747</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59356.557286880525</v>
-      </c>
-      <c r="M36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59267.138015568577</v>
-      </c>
-      <c r="N36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59168.776817125436</v>
-      </c>
-      <c r="O36" s="7">
-        <f t="shared" si="22"/>
-        <v>-59060.579498837978</v>
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="C36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="D36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="E36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="G36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="H36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="I36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="J36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="K36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="L36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="M36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="N36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
+      </c>
+      <c r="O36" s="4">
+        <f>$B36</f>
+        <v>0.06</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:O37" si="23">C43</f>
-        <v>-3</v>
+        <f>C5</f>
+        <v>50</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="23"/>
-        <v>-25.410000000000011</v>
+        <f>D5</f>
+        <v>423.50000000000017</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="23"/>
-        <v>-27.951000000000011</v>
+        <f>E5</f>
+        <v>465.85000000000019</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="23"/>
-        <v>-30.746100000000023</v>
+        <f>F5</f>
+        <v>512.4350000000004</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="23"/>
-        <v>-36.820710000000027</v>
+        <f>G5</f>
+        <v>613.67850000000044</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="23"/>
-        <v>-40.202781000000023</v>
+        <f>H5</f>
+        <v>670.04635000000042</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="23"/>
-        <v>-43.923059100000039</v>
+        <f>I5</f>
+        <v>732.05098500000065</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="23"/>
-        <v>-48.015365010000039</v>
+        <f>J5</f>
+        <v>800.25608350000073</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="23"/>
-        <v>-52.51690151100005</v>
+        <f>K5</f>
+        <v>875.28169185000093</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="23"/>
-        <v>-57.468591662100067</v>
+        <f>L5</f>
+        <v>957.80986103500118</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="23"/>
-        <v>-62.915450828310071</v>
+        <f>M5</f>
+        <v>1048.5908471385012</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="23"/>
-        <v>-68.906995911141081</v>
+        <f>N5</f>
+        <v>1148.4499318523515</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="23"/>
-        <v>-75.497695502255183</v>
+        <f>O5</f>
+        <v>1258.2949250375864</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3">
-        <f>C36+C37</f>
-        <v>-11363.75</v>
+        <f>-C36*C37</f>
+        <v>-3</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:O38" si="24">D36+D37</f>
-        <v>-59908.262500000004</v>
+        <f>-D36*D37</f>
+        <v>-25.410000000000011</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59869.088750000003</v>
+        <f>-E36*E37</f>
+        <v>-27.951000000000011</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59825.997624999996</v>
+        <f>-F36*F37</f>
+        <v>-30.746100000000023</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59732.347387499998</v>
+        <f>-G36*G37</f>
+        <v>-36.820710000000027</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59680.207126250003</v>
+        <f>-H36*H37</f>
+        <v>-40.202781000000023</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59622.852838874998</v>
+        <f>-I36*I37</f>
+        <v>-43.923059100000039</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59559.763122762495</v>
+        <f>-J36*J37</f>
+        <v>-48.015365010000039</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59490.364435038748</v>
+        <f>-K36*K37</f>
+        <v>-52.51690151100005</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59414.025878542627</v>
+        <f>-L36*L37</f>
+        <v>-57.468591662100067</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59330.053466396887</v>
+        <f>-M36*M37</f>
+        <v>-62.915450828310071</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59237.68381303658</v>
+        <f>-N36*N37</f>
+        <v>-68.906995911141081</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="24"/>
-        <v>-59136.077194340236</v>
+        <f t="shared" ref="O38" si="16">-O36*O37</f>
+        <v>-75.497695502255183</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
-        <f>SUM($C38:C38)</f>
-        <v>-11363.75</v>
-      </c>
-      <c r="D39" s="3">
-        <f>SUM($C38:D38)</f>
-        <v>-71272.012500000012</v>
-      </c>
-      <c r="E39" s="3">
-        <f>SUM($C38:E38)</f>
-        <v>-131141.10125000001</v>
-      </c>
-      <c r="F39" s="3">
-        <f>SUM($C38:F38)</f>
-        <v>-190967.098875</v>
-      </c>
-      <c r="G39" s="3">
-        <f>SUM($C38:G38)</f>
-        <v>-250699.44626249999</v>
-      </c>
-      <c r="H39" s="3">
-        <f>SUM($C38:H38)</f>
-        <v>-310379.65338874998</v>
-      </c>
-      <c r="I39" s="3">
-        <f>SUM($C38:I38)</f>
-        <v>-370002.50622762495</v>
-      </c>
-      <c r="J39" s="3">
-        <f>SUM($C38:J38)</f>
-        <v>-429562.26935038745</v>
-      </c>
-      <c r="K39" s="3">
-        <f>SUM($C38:K38)</f>
-        <v>-489052.63378542621</v>
-      </c>
-      <c r="L39" s="3">
-        <f>SUM($C38:L38)</f>
-        <v>-548466.65966396884</v>
-      </c>
-      <c r="M39" s="3">
-        <f>SUM($C38:M38)</f>
-        <v>-607796.71313036571</v>
-      </c>
-      <c r="N39" s="3">
-        <f>SUM($C38:N38)</f>
-        <v>-667034.39694340224</v>
-      </c>
-      <c r="O39" s="3">
-        <f>SUM($C38:O38)</f>
-        <v>-726170.47413774254</v>
-      </c>
+      <c r="A39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="A40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="3">
+        <f>B44</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f>C44</f>
+        <v>-11363.75</v>
+      </c>
+      <c r="E40" s="3">
+        <f>D44</f>
+        <v>-71272.012500000012</v>
+      </c>
+      <c r="F40" s="3">
+        <f>E44</f>
+        <v>-131141.10125000001</v>
+      </c>
+      <c r="G40" s="3">
+        <f>F44</f>
+        <v>-190967.098875</v>
+      </c>
+      <c r="H40" s="3">
+        <f>G44</f>
+        <v>-250699.44626249999</v>
+      </c>
+      <c r="I40" s="3">
+        <f>H44</f>
+        <v>-310379.65338874998</v>
+      </c>
+      <c r="J40" s="3">
+        <f>I44</f>
+        <v>-370002.50622762495</v>
+      </c>
+      <c r="K40" s="3">
+        <f>J44</f>
+        <v>-429562.26935038745</v>
+      </c>
+      <c r="L40" s="3">
+        <f>K44</f>
+        <v>-489052.63378542621</v>
+      </c>
+      <c r="M40" s="3">
+        <f>L44</f>
+        <v>-548466.65966396884</v>
+      </c>
+      <c r="N40" s="3">
+        <f>M44</f>
+        <v>-607796.71313036571</v>
+      </c>
+      <c r="O40" s="3">
+        <f>N44</f>
+        <v>-667034.39694340224</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" ref="C41:O41" si="25">$B41</f>
-        <v>0.06</v>
-      </c>
-      <c r="D41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="L41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="M41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="N41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
-      </c>
-      <c r="O41" s="4">
-        <f t="shared" si="25"/>
-        <v>0.06</v>
+      <c r="A41" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="3">
+        <f>C30+0+C32</f>
+        <v>-11363.75</v>
+      </c>
+      <c r="D41" s="3">
+        <f>D30+0+D32</f>
+        <v>-59908.262500000004</v>
+      </c>
+      <c r="E41" s="3">
+        <f>E30+0+E32</f>
+        <v>-59869.088750000003</v>
+      </c>
+      <c r="F41" s="3">
+        <f>F30+0+F32</f>
+        <v>-59825.997624999996</v>
+      </c>
+      <c r="G41" s="3">
+        <f>G30+0+G32</f>
+        <v>-59732.347387499998</v>
+      </c>
+      <c r="H41" s="3">
+        <f>H30+0+H32</f>
+        <v>-59680.207126250003</v>
+      </c>
+      <c r="I41" s="3">
+        <f>I30+0+I32</f>
+        <v>-59622.852838874998</v>
+      </c>
+      <c r="J41" s="3">
+        <f>J30+0+J32</f>
+        <v>-59559.763122762495</v>
+      </c>
+      <c r="K41" s="3">
+        <f>K30+0+K32</f>
+        <v>-59490.364435038748</v>
+      </c>
+      <c r="L41" s="3">
+        <f>L30+0+L32</f>
+        <v>-59414.025878542627</v>
+      </c>
+      <c r="M41" s="3">
+        <f>M30+0+M32</f>
+        <v>-59330.053466396887</v>
+      </c>
+      <c r="N41" s="3">
+        <f>N30+0+N32</f>
+        <v>-59237.68381303658</v>
+      </c>
+      <c r="O41" s="3">
+        <f>O30+0+O32</f>
+        <v>-59136.077194340236</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>32</v>
+      <c r="A42" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:O42" si="26">C5</f>
-        <v>50</v>
+        <f>C92+C93+C96+C97</f>
+        <v>0</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="26"/>
-        <v>423.50000000000017</v>
+        <f>D92+D93+D96+D97</f>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="26"/>
-        <v>465.85000000000019</v>
+        <f>E92+E93+E96+E97</f>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="26"/>
-        <v>512.4350000000004</v>
+        <f>F92+F93+F96+F97</f>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="26"/>
-        <v>613.67850000000044</v>
+        <f>G92+G93+G96+G97</f>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="26"/>
-        <v>670.04635000000042</v>
+        <f>H92+H93+H96+H97</f>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="26"/>
-        <v>732.05098500000065</v>
+        <f>I92+I93+I96+I97</f>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="26"/>
-        <v>800.25608350000073</v>
+        <f>J92+J93+J96+J97</f>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="26"/>
-        <v>875.28169185000093</v>
+        <f>K92+K93+K96+K97</f>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="26"/>
-        <v>957.80986103500118</v>
+        <f>L92+L93+L96+L97</f>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="26"/>
-        <v>1048.5908471385012</v>
+        <f>M92+M93+M96+M97</f>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="26"/>
-        <v>1148.4499318523515</v>
+        <f>N92+N93+N96+N97</f>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="26"/>
-        <v>1258.2949250375864</v>
+        <f>O92+O93+O96+O97</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>33</v>
+      <c r="A43" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C43" s="3">
-        <f>-C41*C42</f>
-        <v>-3</v>
+        <f>SUM(C41:C42)</f>
+        <v>-11363.75</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:O43" si="27">-D41*D42</f>
-        <v>-25.410000000000011</v>
+        <f>SUM(D41:D42)</f>
+        <v>-59908.262500000004</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="27"/>
-        <v>-27.951000000000011</v>
+        <f>SUM(E41:E42)</f>
+        <v>-59869.088750000003</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="27"/>
-        <v>-30.746100000000023</v>
+        <f>SUM(F41:F42)</f>
+        <v>-59825.997624999996</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="27"/>
-        <v>-36.820710000000027</v>
+        <f>SUM(G41:G42)</f>
+        <v>-59732.347387499998</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="27"/>
-        <v>-40.202781000000023</v>
+        <f>SUM(H41:H42)</f>
+        <v>-59680.207126250003</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="27"/>
-        <v>-43.923059100000039</v>
+        <f>SUM(I41:I42)</f>
+        <v>-59622.852838874998</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="27"/>
-        <v>-48.015365010000039</v>
+        <f>SUM(J41:J42)</f>
+        <v>-59559.763122762495</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="27"/>
-        <v>-52.51690151100005</v>
+        <f>SUM(K41:K42)</f>
+        <v>-59490.364435038748</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="27"/>
-        <v>-57.468591662100067</v>
+        <f>SUM(L41:L42)</f>
+        <v>-59414.025878542627</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="27"/>
-        <v>-62.915450828310071</v>
+        <f>SUM(M41:M42)</f>
+        <v>-59330.053466396887</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="27"/>
-        <v>-68.906995911141081</v>
+        <f>SUM(N41:N42)</f>
+        <v>-59237.68381303658</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="27"/>
-        <v>-75.497695502255183</v>
+        <f t="shared" ref="O43" si="17">SUM(O41:O42)</f>
+        <v>-59136.077194340236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14">
+        <f>C40+C43</f>
+        <v>-11363.75</v>
+      </c>
+      <c r="D44" s="14">
+        <f>D40+D43</f>
+        <v>-71272.012500000012</v>
+      </c>
+      <c r="E44" s="14">
+        <f>E40+E43</f>
+        <v>-131141.10125000001</v>
+      </c>
+      <c r="F44" s="14">
+        <f>F40+F43</f>
+        <v>-190967.098875</v>
+      </c>
+      <c r="G44" s="14">
+        <f>G40+G43</f>
+        <v>-250699.44626249999</v>
+      </c>
+      <c r="H44" s="14">
+        <f>H40+H43</f>
+        <v>-310379.65338874998</v>
+      </c>
+      <c r="I44" s="14">
+        <f>I40+I43</f>
+        <v>-370002.50622762495</v>
+      </c>
+      <c r="J44" s="14">
+        <f>J40+J43</f>
+        <v>-429562.26935038745</v>
+      </c>
+      <c r="K44" s="14">
+        <f>K40+K43</f>
+        <v>-489052.63378542621</v>
+      </c>
+      <c r="L44" s="14">
+        <f>L40+L43</f>
+        <v>-548466.65966396884</v>
+      </c>
+      <c r="M44" s="14">
+        <f>M40+M43</f>
+        <v>-607796.71313036571</v>
+      </c>
+      <c r="N44" s="14">
+        <f>N40+N43</f>
+        <v>-667034.39694340224</v>
+      </c>
+      <c r="O44" s="14">
+        <f t="shared" ref="O44" si="18">O40+O43</f>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
+      <c r="A45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3">
+        <f>SUM(C45:O45)</f>
+        <v>13</v>
+      </c>
+      <c r="C45" s="3">
+        <f>IF(C44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <f>IF(D44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <f>IF(E44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <f>IF(F44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <f>IF(G44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <f>IF(H44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <f>IF(I44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <f>IF(J44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <f>IF(K44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
+        <f>IF(L44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M45" s="3">
+        <f>IF(M44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="3">
+        <f>IF(N44&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" ref="O45" si="19">IF(O44&lt;0,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10">
-        <v>0</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10">
-        <v>0</v>
-      </c>
-      <c r="I46" s="10">
-        <v>0</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0</v>
-      </c>
-      <c r="L46" s="10">
-        <v>0</v>
-      </c>
-      <c r="M46" s="10">
-        <v>0</v>
-      </c>
-      <c r="N46" s="10">
-        <v>0</v>
-      </c>
-      <c r="O46" s="10">
-        <v>0</v>
-      </c>
+      <c r="A46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="3">
+        <v>43</v>
+      </c>
+      <c r="B47" s="7">
+        <f>B48</f>
         <v>0</v>
       </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="C47" s="7">
+        <f>C48</f>
+        <v>-11363.75</v>
+      </c>
+      <c r="D47" s="7">
+        <f>D48</f>
+        <v>-71272.012500000012</v>
+      </c>
+      <c r="E47" s="7">
+        <f>E48</f>
+        <v>-131141.10125000001</v>
+      </c>
+      <c r="F47" s="7">
+        <f>F48</f>
+        <v>-190967.098875</v>
+      </c>
+      <c r="G47" s="7">
+        <f>G48</f>
+        <v>-250699.44626249999</v>
+      </c>
+      <c r="H47" s="7">
+        <f>H48</f>
+        <v>-310379.65338874998</v>
+      </c>
+      <c r="I47" s="7">
+        <f>I48</f>
+        <v>-370002.50622762495</v>
+      </c>
+      <c r="J47" s="7">
+        <f>J48</f>
+        <v>-429562.26935038745</v>
+      </c>
+      <c r="K47" s="7">
+        <f>K48</f>
+        <v>-489052.63378542621</v>
+      </c>
+      <c r="L47" s="7">
+        <f>L48</f>
+        <v>-548466.65966396884</v>
+      </c>
+      <c r="M47" s="7">
+        <f>M48</f>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N47" s="7">
-        <v>0</v>
+        <f>N48</f>
+        <v>-667034.39694340224</v>
       </c>
       <c r="O47" s="7">
-        <v>0</v>
+        <f t="shared" ref="O47" si="20">O48</f>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="7">
+      <c r="A48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="3">
         <v>0</v>
       </c>
-      <c r="C48" s="7">
-        <v>0</v>
-      </c>
-      <c r="D48" s="7">
-        <v>0</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7">
-        <v>0</v>
-      </c>
-      <c r="L48" s="7">
-        <v>0</v>
-      </c>
-      <c r="M48" s="7">
-        <v>0</v>
-      </c>
-      <c r="N48" s="7">
-        <v>0</v>
-      </c>
-      <c r="O48" s="7">
-        <v>0</v>
+      <c r="C48" s="3">
+        <f>B48+C43</f>
+        <v>-11363.75</v>
+      </c>
+      <c r="D48" s="3">
+        <f>C48+D43</f>
+        <v>-71272.012500000012</v>
+      </c>
+      <c r="E48" s="3">
+        <f>D48+E43</f>
+        <v>-131141.10125000001</v>
+      </c>
+      <c r="F48" s="3">
+        <f>E48+F43</f>
+        <v>-190967.098875</v>
+      </c>
+      <c r="G48" s="3">
+        <f>F48+G43</f>
+        <v>-250699.44626249999</v>
+      </c>
+      <c r="H48" s="3">
+        <f>G48+H43</f>
+        <v>-310379.65338874998</v>
+      </c>
+      <c r="I48" s="3">
+        <f>H48+I43</f>
+        <v>-370002.50622762495</v>
+      </c>
+      <c r="J48" s="3">
+        <f>I48+J43</f>
+        <v>-429562.26935038745</v>
+      </c>
+      <c r="K48" s="3">
+        <f>J48+K43</f>
+        <v>-489052.63378542621</v>
+      </c>
+      <c r="L48" s="3">
+        <f>K48+L43</f>
+        <v>-548466.65966396884</v>
+      </c>
+      <c r="M48" s="3">
+        <f>L48+M43</f>
+        <v>-607796.71313036571</v>
+      </c>
+      <c r="N48" s="3">
+        <f>M48+N43</f>
+        <v>-667034.39694340224</v>
+      </c>
+      <c r="O48" s="3">
+        <f>N48+O43</f>
+        <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B49" s="7">
+        <f>SUM(B50:B53)</f>
         <v>0</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <f>SUM(C50:C53)</f>
+        <v>-11363.75</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <f>SUM(D50:D53)</f>
+        <v>-71272.012500000012</v>
       </c>
       <c r="E49" s="7">
-        <v>0</v>
+        <f>SUM(E50:E53)</f>
+        <v>-131141.10125000001</v>
       </c>
       <c r="F49" s="7">
-        <v>0</v>
+        <f>SUM(F50:F53)</f>
+        <v>-190967.098875</v>
       </c>
       <c r="G49" s="7">
-        <v>0</v>
+        <f>SUM(G50:G53)</f>
+        <v>-250699.44626249999</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <f>SUM(H50:H53)</f>
+        <v>-310379.65338874998</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <f>SUM(I50:I53)</f>
+        <v>-370002.50622762495</v>
       </c>
       <c r="J49" s="7">
-        <v>0</v>
+        <f>SUM(J50:J53)</f>
+        <v>-429562.26935038745</v>
       </c>
       <c r="K49" s="7">
-        <v>0</v>
+        <f>SUM(K50:K53)</f>
+        <v>-489052.63378542621</v>
       </c>
       <c r="L49" s="7">
-        <v>0</v>
+        <f>SUM(L50:L53)</f>
+        <v>-548466.65966396884</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <f>SUM(M50:M53)</f>
+        <v>-607796.71313036571</v>
       </c>
       <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="15">
-        <v>0</v>
+        <f>SUM(N50:N53)</f>
+        <v>-667034.39694340224</v>
+      </c>
+      <c r="O49" s="7">
+        <f t="shared" ref="O49" si="21">SUM(O50:O53)</f>
+        <v>-726170.47413774254</v>
       </c>
       <c r="P49" s="7"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="3">
         <v>0</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="3">
+        <f>B50+C92</f>
         <v>0</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="3">
+        <f>C50+D92</f>
         <v>0</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="3">
+        <f>D50+E92</f>
         <v>0</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="3">
+        <f>E50+F92</f>
         <v>0</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="3">
+        <f>F50+G92</f>
         <v>0</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="3">
+        <f>G50+H92</f>
         <v>0</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="3">
+        <f>H50+I92</f>
         <v>0</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="3">
+        <f>I50+J92</f>
         <v>0</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="3">
+        <f>J50+K92</f>
         <v>0</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="3">
+        <f>K50+L92</f>
         <v>0</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="3">
+        <f>L50+M92</f>
         <v>0</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="3">
+        <f>M50+N92</f>
         <v>0</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O50" s="3">
+        <f>N50+O92</f>
         <v>0</v>
       </c>
       <c r="P50" s="7"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
+      <c r="A51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <f>B51+C33+C93</f>
+        <v>-11363.75</v>
+      </c>
+      <c r="D51" s="3">
+        <f>C51+D33+D93</f>
+        <v>-71272.012500000012</v>
+      </c>
+      <c r="E51" s="3">
+        <f>D51+E33+E93</f>
+        <v>-131141.10125000001</v>
+      </c>
+      <c r="F51" s="3">
+        <f>E51+F33+F93</f>
+        <v>-190967.098875</v>
+      </c>
+      <c r="G51" s="3">
+        <f>F51+G33+G93</f>
+        <v>-250699.44626249999</v>
+      </c>
+      <c r="H51" s="3">
+        <f>G51+H33+H93</f>
+        <v>-310379.65338874998</v>
+      </c>
+      <c r="I51" s="3">
+        <f>H51+I33+I93</f>
+        <v>-370002.50622762495</v>
+      </c>
+      <c r="J51" s="3">
+        <f>I51+J33+J93</f>
+        <v>-429562.26935038745</v>
+      </c>
+      <c r="K51" s="3">
+        <f>J51+K33+K93</f>
+        <v>-489052.63378542621</v>
+      </c>
+      <c r="L51" s="3">
+        <f>K51+L33+L93</f>
+        <v>-548466.65966396884</v>
+      </c>
+      <c r="M51" s="3">
+        <f>L51+M33+M93</f>
+        <v>-607796.71313036571</v>
+      </c>
+      <c r="N51" s="3">
+        <f>M51+N33+N93</f>
+        <v>-667034.39694340224</v>
+      </c>
+      <c r="O51" s="3">
+        <f>N51+O33+O93</f>
+        <v>-726170.47413774254</v>
+      </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:O52" si="28">B56</f>
+        <f>B52+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="28"/>
-        <v>-11363.75</v>
+        <f>C52+D96+D97</f>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="28"/>
-        <v>-71272.012500000012</v>
+        <f>D52+E96+E97</f>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="28"/>
-        <v>-131141.10125000001</v>
+        <f>E52+F96+F97</f>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="28"/>
-        <v>-190967.098875</v>
+        <f>F52+G96+G97</f>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="28"/>
-        <v>-250699.44626249999</v>
+        <f>G52+H96+H97</f>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="28"/>
-        <v>-310379.65338874998</v>
+        <f>H52+I96+I97</f>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="28"/>
-        <v>-370002.50622762495</v>
+        <f>I52+J96+J97</f>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="28"/>
-        <v>-429562.26935038745</v>
+        <f>J52+K96+K97</f>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="28"/>
-        <v>-489052.63378542621</v>
+        <f>K52+L96+L97</f>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="28"/>
-        <v>-548466.65966396884</v>
+        <f>L52+M96+M97</f>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="28"/>
-        <v>-607796.71313036571</v>
+        <f>M52+N96+N97</f>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="28"/>
-        <v>-667034.39694340224</v>
+        <f>N52+O96+O97</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>41</v>
+      <c r="A53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
       </c>
       <c r="C53" s="3">
-        <f>C35-C46+0+C37</f>
-        <v>-11363.75</v>
+        <f>B53+0</f>
+        <v>0</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" ref="D53:H53" si="29">D35-D46+0+D37</f>
-        <v>-59908.262500000004</v>
+        <f t="shared" ref="D53:O53" si="22">C53+0</f>
+        <v>0</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="29"/>
-        <v>-59869.088750000003</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="F53" s="3">
-        <f>F35-F46+0+F37</f>
-        <v>-59825.997624999996</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="29"/>
-        <v>-59732.347387499998</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="29"/>
-        <v>-59680.207126250003</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" ref="I53:N53" si="30">I35-I46+0+I37</f>
-        <v>-59622.852838874998</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="30"/>
-        <v>-59559.763122762495</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="30"/>
-        <v>-59490.364435038748</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="30"/>
-        <v>-59414.025878542627</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="30"/>
-        <v>-59330.053466396887</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="30"/>
-        <v>-59237.68381303658</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="O53" s="3">
-        <f>O35-O46+0+O37</f>
-        <v>-59136.077194340236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" ref="C54:O54" si="31">C92+C93+C96+C97</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>43</v>
+      <c r="A55" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55:O55" si="32">SUM(C53:C54)</f>
+        <f>C41</f>
         <v>-11363.75</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="32"/>
+        <f>D41</f>
         <v>-59908.262500000004</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="32"/>
+        <f>E41</f>
         <v>-59869.088750000003</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="32"/>
+        <f>F41</f>
         <v>-59825.997624999996</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="32"/>
+        <f>G41</f>
         <v>-59732.347387499998</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="32"/>
+        <f>H41</f>
         <v>-59680.207126250003</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="32"/>
+        <f>I41</f>
         <v>-59622.852838874998</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="32"/>
+        <f>J41</f>
         <v>-59559.763122762495</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="32"/>
+        <f>K41</f>
         <v>-59490.364435038748</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="32"/>
+        <f>L41</f>
         <v>-59414.025878542627</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="32"/>
+        <f>M41</f>
         <v>-59330.053466396887</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="32"/>
+        <f>N41</f>
         <v>-59237.68381303658</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="O55" si="23">O41</f>
         <v>-59136.077194340236</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14">
-        <f t="shared" ref="C56:O56" si="33">C52+C55</f>
+      <c r="A56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3">
+        <f>SUM($C55:C55)</f>
         <v>-11363.75</v>
       </c>
-      <c r="D56" s="14">
-        <f t="shared" si="33"/>
+      <c r="D56" s="3">
+        <f>SUM($C55:D55)</f>
         <v>-71272.012500000012</v>
       </c>
-      <c r="E56" s="14">
-        <f t="shared" si="33"/>
+      <c r="E56" s="3">
+        <f>SUM($C55:E55)</f>
         <v>-131141.10125000001</v>
       </c>
-      <c r="F56" s="14">
-        <f t="shared" si="33"/>
+      <c r="F56" s="3">
+        <f>SUM($C55:F55)</f>
         <v>-190967.098875</v>
       </c>
-      <c r="G56" s="14">
-        <f t="shared" si="33"/>
+      <c r="G56" s="3">
+        <f>SUM($C55:G55)</f>
         <v>-250699.44626249999</v>
       </c>
-      <c r="H56" s="14">
-        <f t="shared" si="33"/>
+      <c r="H56" s="3">
+        <f>SUM($C55:H55)</f>
         <v>-310379.65338874998</v>
       </c>
-      <c r="I56" s="14">
-        <f t="shared" si="33"/>
+      <c r="I56" s="3">
+        <f>SUM($C55:I55)</f>
         <v>-370002.50622762495</v>
       </c>
-      <c r="J56" s="14">
-        <f t="shared" si="33"/>
+      <c r="J56" s="3">
+        <f>SUM($C55:J55)</f>
         <v>-429562.26935038745</v>
       </c>
-      <c r="K56" s="14">
-        <f t="shared" si="33"/>
+      <c r="K56" s="3">
+        <f>SUM($C55:K55)</f>
         <v>-489052.63378542621</v>
       </c>
-      <c r="L56" s="14">
-        <f t="shared" si="33"/>
+      <c r="L56" s="3">
+        <f>SUM($C55:L55)</f>
         <v>-548466.65966396884</v>
       </c>
-      <c r="M56" s="14">
-        <f t="shared" si="33"/>
+      <c r="M56" s="3">
+        <f>SUM($C55:M55)</f>
         <v>-607796.71313036571</v>
       </c>
-      <c r="N56" s="14">
-        <f t="shared" si="33"/>
+      <c r="N56" s="3">
+        <f>SUM($C55:N55)</f>
         <v>-667034.39694340224</v>
       </c>
-      <c r="O56" s="14">
-        <f t="shared" si="33"/>
+      <c r="O56" s="3">
+        <f>SUM($C55:O55)</f>
         <v>-726170.47413774254</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="3">
-        <f>SUM(C57:O57)</f>
-        <v>13</v>
-      </c>
-      <c r="C57" s="3">
-        <f>IF(C56&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" ref="D57:O57" si="34">IF(D56&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="J57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="K57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="L57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="M57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="N57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="O57" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
+      <c r="A58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="3">
+        <f>C55/(1+$B$62)^C2</f>
+        <v>-11363.75</v>
+      </c>
+      <c r="D58" s="3">
+        <f>D55/(1+$B$62)^D2</f>
+        <v>-58392.689888671761</v>
+      </c>
+      <c r="E58" s="3">
+        <f>E55/(1+$B$62)^E2</f>
+        <v>-56878.24180327975</v>
+      </c>
+      <c r="F58" s="3">
+        <f>F55/(1+$B$62)^F2</f>
+        <v>-55399.420557035941</v>
+      </c>
+      <c r="G58" s="3">
+        <f>G55/(1+$B$62)^G2</f>
+        <v>-53913.386547508388</v>
+      </c>
+      <c r="H58" s="3">
+        <f>H55/(1+$B$62)^H2</f>
+        <v>-52503.603304228636</v>
+      </c>
+      <c r="I58" s="3">
+        <f>I55/(1+$B$62)^I2</f>
+        <v>-51126.17452013537</v>
+      </c>
+      <c r="J58" s="3">
+        <f>J55/(1+$B$62)^J2</f>
+        <v>-49780.042755859969</v>
+      </c>
+      <c r="K58" s="3">
+        <f>K55/(1+$B$62)^K2</f>
+        <v>-48464.160079396221</v>
+      </c>
+      <c r="L58" s="3">
+        <f>L55/(1+$B$62)^L2</f>
+        <v>-47177.486581049525</v>
+      </c>
+      <c r="M58" s="3">
+        <f>M55/(1+$B$62)^M2</f>
+        <v>-45918.988836135031</v>
+      </c>
+      <c r="N58" s="3">
+        <f>N55/(1+$B$62)^N2</f>
+        <v>-44687.638310264061</v>
+      </c>
+      <c r="O58" s="3">
+        <f>O55/(1+$B$62)^O2</f>
+        <v>-43482.409701720724</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="7">
-        <f>B60</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="7">
-        <f t="shared" ref="C59:O59" si="35">C60</f>
+      <c r="A59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="3">
+        <f>SUM($C58:C58)</f>
         <v>-11363.75</v>
       </c>
-      <c r="D59" s="7">
-        <f t="shared" si="35"/>
-        <v>-71272.012500000012</v>
-      </c>
-      <c r="E59" s="7">
-        <f t="shared" si="35"/>
-        <v>-131141.10125000001</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" si="35"/>
-        <v>-190967.098875</v>
-      </c>
-      <c r="G59" s="7">
-        <f t="shared" si="35"/>
-        <v>-250699.44626249999</v>
-      </c>
-      <c r="H59" s="7">
-        <f t="shared" si="35"/>
-        <v>-310379.65338874998</v>
-      </c>
-      <c r="I59" s="7">
-        <f t="shared" si="35"/>
-        <v>-370002.50622762495</v>
-      </c>
-      <c r="J59" s="7">
-        <f t="shared" si="35"/>
-        <v>-429562.26935038745</v>
-      </c>
-      <c r="K59" s="7">
-        <f t="shared" si="35"/>
-        <v>-489052.63378542621</v>
-      </c>
-      <c r="L59" s="7">
-        <f t="shared" si="35"/>
-        <v>-548466.65966396884</v>
-      </c>
-      <c r="M59" s="7">
-        <f t="shared" si="35"/>
-        <v>-607796.71313036571</v>
-      </c>
-      <c r="N59" s="7">
-        <f t="shared" si="35"/>
-        <v>-667034.39694340224</v>
-      </c>
-      <c r="O59" s="7">
-        <f t="shared" si="35"/>
-        <v>-726170.47413774254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" ref="C60:O60" si="36">B60+C55</f>
-        <v>-11363.75</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" si="36"/>
-        <v>-71272.012500000012</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="36"/>
-        <v>-131141.10125000001</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="36"/>
-        <v>-190967.098875</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="36"/>
-        <v>-250699.44626249999</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="36"/>
-        <v>-310379.65338874998</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="36"/>
-        <v>-370002.50622762495</v>
-      </c>
-      <c r="J60" s="3">
-        <f t="shared" si="36"/>
-        <v>-429562.26935038745</v>
-      </c>
-      <c r="K60" s="3">
-        <f t="shared" si="36"/>
-        <v>-489052.63378542621</v>
-      </c>
-      <c r="L60" s="3">
-        <f t="shared" si="36"/>
-        <v>-548466.65966396884</v>
-      </c>
-      <c r="M60" s="3">
-        <f t="shared" si="36"/>
-        <v>-607796.71313036571</v>
-      </c>
-      <c r="N60" s="3">
-        <f t="shared" si="36"/>
-        <v>-667034.39694340224</v>
-      </c>
-      <c r="O60" s="3">
-        <f t="shared" si="36"/>
-        <v>-726170.47413774254</v>
+      <c r="D59" s="3">
+        <f>SUM($C58:D58)</f>
+        <v>-69756.439888671768</v>
+      </c>
+      <c r="E59" s="3">
+        <f>SUM($C58:E58)</f>
+        <v>-126634.68169195153</v>
+      </c>
+      <c r="F59" s="3">
+        <f>SUM($C58:F58)</f>
+        <v>-182034.10224898747</v>
+      </c>
+      <c r="G59" s="3">
+        <f>SUM($C58:G58)</f>
+        <v>-235947.48879649586</v>
+      </c>
+      <c r="H59" s="3">
+        <f>SUM($C58:H58)</f>
+        <v>-288451.09210072452</v>
+      </c>
+      <c r="I59" s="3">
+        <f>SUM($C58:I58)</f>
+        <v>-339577.26662085991</v>
+      </c>
+      <c r="J59" s="3">
+        <f>SUM($C58:J58)</f>
+        <v>-389357.30937671987</v>
+      </c>
+      <c r="K59" s="3">
+        <f>SUM($C58:K58)</f>
+        <v>-437821.46945611609</v>
+      </c>
+      <c r="L59" s="3">
+        <f>SUM($C58:L58)</f>
+        <v>-484998.9560371656</v>
+      </c>
+      <c r="M59" s="3">
+        <f>SUM($C58:M58)</f>
+        <v>-530917.94487330061</v>
+      </c>
+      <c r="N59" s="3">
+        <f>SUM($C58:N58)</f>
+        <v>-575605.58318356471</v>
+      </c>
+      <c r="O59" s="3">
+        <f>SUM($C58:O58)</f>
+        <v>-619087.99288528541</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="7">
-        <f>SUM(B62:B65)</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="7">
-        <f>SUM(C62:C65)</f>
-        <v>-11363.75</v>
-      </c>
-      <c r="D61" s="7">
-        <f t="shared" ref="D61" si="37">SUM(D62:D65)</f>
-        <v>-71272.012500000012</v>
-      </c>
-      <c r="E61" s="7">
-        <f t="shared" ref="E61" si="38">SUM(E62:E65)</f>
-        <v>-131141.10125000001</v>
-      </c>
-      <c r="F61" s="7">
-        <f t="shared" ref="F61" si="39">SUM(F62:F65)</f>
-        <v>-190967.098875</v>
-      </c>
-      <c r="G61" s="7">
-        <f t="shared" ref="G61" si="40">SUM(G62:G65)</f>
-        <v>-250699.44626249999</v>
-      </c>
-      <c r="H61" s="7">
-        <f t="shared" ref="H61" si="41">SUM(H62:H65)</f>
-        <v>-310379.65338874998</v>
-      </c>
-      <c r="I61" s="7">
-        <f t="shared" ref="I61" si="42">SUM(I62:I65)</f>
-        <v>-370002.50622762495</v>
-      </c>
-      <c r="J61" s="7">
-        <f t="shared" ref="J61" si="43">SUM(J62:J65)</f>
-        <v>-429562.26935038745</v>
-      </c>
-      <c r="K61" s="7">
-        <f t="shared" ref="K61" si="44">SUM(K62:K65)</f>
-        <v>-489052.63378542621</v>
-      </c>
-      <c r="L61" s="7">
-        <f t="shared" ref="L61" si="45">SUM(L62:L65)</f>
-        <v>-548466.65966396884</v>
-      </c>
-      <c r="M61" s="7">
-        <f t="shared" ref="M61" si="46">SUM(M62:M65)</f>
-        <v>-607796.71313036571</v>
-      </c>
-      <c r="N61" s="7">
-        <f t="shared" ref="N61" si="47">SUM(N62:N65)</f>
-        <v>-667034.39694340224</v>
-      </c>
-      <c r="O61" s="7">
-        <f t="shared" ref="O61" si="48">SUM(O62:O65)</f>
-        <v>-726170.47413774254</v>
-      </c>
+      <c r="A61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="C61" s="6">
+        <f>1+B61</f>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" ref="C62:O62" si="49">B62+C92</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" ref="C63:O63" si="50">B63+C38+C93</f>
-        <v>-11363.75</v>
-      </c>
-      <c r="D63" s="3">
-        <f t="shared" si="50"/>
-        <v>-71272.012500000012</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="50"/>
-        <v>-131141.10125000001</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" si="50"/>
-        <v>-190967.098875</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="50"/>
-        <v>-250699.44626249999</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="50"/>
-        <v>-310379.65338874998</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="50"/>
-        <v>-370002.50622762495</v>
-      </c>
-      <c r="J63" s="3">
-        <f t="shared" si="50"/>
-        <v>-429562.26935038745</v>
-      </c>
-      <c r="K63" s="3">
-        <f t="shared" si="50"/>
-        <v>-489052.63378542621</v>
-      </c>
-      <c r="L63" s="3">
-        <f t="shared" si="50"/>
-        <v>-548466.65966396884</v>
-      </c>
-      <c r="M63" s="3">
-        <f t="shared" si="50"/>
-        <v>-607796.71313036571</v>
-      </c>
-      <c r="N63" s="3">
-        <f t="shared" si="50"/>
-        <v>-667034.39694340224</v>
-      </c>
-      <c r="O63" s="3">
-        <f t="shared" si="50"/>
-        <v>-726170.47413774254</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B62" s="5">
+        <f>C62-1</f>
+        <v>2.5954834658546311E-2</v>
+      </c>
+      <c r="C62" s="6">
+        <f>C61^(1/12)</f>
+        <v>1.0259548346585463</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B64" s="3">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" ref="C64:O64" si="51">B64+C96+C97</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="3">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
+        <f>O59</f>
+        <v>-619087.99288528541</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3">
-        <f>B65+C49</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" ref="D65:N65" si="52">C65+D49</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="3">
-        <f>N65+O49</f>
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B65" s="4">
+        <v>3.8025612982647847</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="3">
-        <f>C53</f>
-        <v>-11363.75</v>
-      </c>
-      <c r="D67" s="3">
-        <f t="shared" ref="D67:O67" si="53">D53</f>
-        <v>-59908.262500000004</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59869.088750000003</v>
-      </c>
-      <c r="F67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59825.997624999996</v>
-      </c>
-      <c r="G67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59732.347387499998</v>
-      </c>
-      <c r="H67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59680.207126250003</v>
-      </c>
-      <c r="I67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59622.852838874998</v>
-      </c>
-      <c r="J67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59559.763122762495</v>
-      </c>
-      <c r="K67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59490.364435038748</v>
-      </c>
-      <c r="L67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59414.025878542627</v>
-      </c>
-      <c r="M67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59330.053466396887</v>
-      </c>
-      <c r="N67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59237.68381303658</v>
-      </c>
-      <c r="O67" s="3">
-        <f t="shared" si="53"/>
-        <v>-59136.077194340236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" s="3">
-        <f>SUM($C67:C67)</f>
-        <v>-11363.75</v>
-      </c>
-      <c r="D68" s="3">
-        <f>SUM($C67:D67)</f>
-        <v>-71272.012500000012</v>
-      </c>
-      <c r="E68" s="3">
-        <f>SUM($C67:E67)</f>
-        <v>-131141.10125000001</v>
-      </c>
-      <c r="F68" s="3">
-        <f>SUM($C67:F67)</f>
-        <v>-190967.098875</v>
-      </c>
-      <c r="G68" s="3">
-        <f>SUM($C67:G67)</f>
-        <v>-250699.44626249999</v>
-      </c>
-      <c r="H68" s="3">
-        <f>SUM($C67:H67)</f>
-        <v>-310379.65338874998</v>
-      </c>
-      <c r="I68" s="3">
-        <f>SUM($C67:I67)</f>
-        <v>-370002.50622762495</v>
-      </c>
-      <c r="J68" s="3">
-        <f>SUM($C67:J67)</f>
-        <v>-429562.26935038745</v>
-      </c>
-      <c r="K68" s="3">
-        <f>SUM($C67:K67)</f>
-        <v>-489052.63378542621</v>
-      </c>
-      <c r="L68" s="3">
-        <f>SUM($C67:L67)</f>
-        <v>-548466.65966396884</v>
-      </c>
-      <c r="M68" s="3">
-        <f>SUM($C67:M67)</f>
-        <v>-607796.71313036571</v>
-      </c>
-      <c r="N68" s="3">
-        <f>SUM($C67:N67)</f>
-        <v>-667034.39694340224</v>
-      </c>
-      <c r="O68" s="3">
-        <f>SUM($C67:O67)</f>
-        <v>-726170.47413774254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="3">
-        <f t="shared" ref="C70:O70" si="54">C67/(1+$B$74)^C2</f>
-        <v>-11363.75</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" si="54"/>
-        <v>-58392.689888671761</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="54"/>
-        <v>-56878.24180327975</v>
-      </c>
-      <c r="F70" s="3">
-        <f t="shared" si="54"/>
-        <v>-55399.420557035941</v>
-      </c>
-      <c r="G70" s="3">
-        <f t="shared" si="54"/>
-        <v>-53913.386547508388</v>
-      </c>
-      <c r="H70" s="3">
-        <f t="shared" si="54"/>
-        <v>-52503.603304228636</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" si="54"/>
-        <v>-51126.17452013537</v>
-      </c>
-      <c r="J70" s="3">
-        <f t="shared" si="54"/>
-        <v>-49780.042755859969</v>
-      </c>
-      <c r="K70" s="3">
-        <f t="shared" si="54"/>
-        <v>-48464.160079396221</v>
-      </c>
-      <c r="L70" s="3">
-        <f t="shared" si="54"/>
-        <v>-47177.486581049525</v>
-      </c>
-      <c r="M70" s="3">
-        <f t="shared" si="54"/>
-        <v>-45918.988836135031</v>
-      </c>
-      <c r="N70" s="3">
-        <f t="shared" si="54"/>
-        <v>-44687.638310264061</v>
-      </c>
-      <c r="O70" s="3">
-        <f t="shared" si="54"/>
-        <v>-43482.409701720724</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="3">
-        <f>SUM($C70:C70)</f>
-        <v>-11363.75</v>
-      </c>
-      <c r="D71" s="3">
-        <f>SUM($C70:D70)</f>
-        <v>-69756.439888671768</v>
-      </c>
-      <c r="E71" s="3">
-        <f>SUM($C70:E70)</f>
-        <v>-126634.68169195153</v>
-      </c>
-      <c r="F71" s="3">
-        <f>SUM($C70:F70)</f>
-        <v>-182034.10224898747</v>
-      </c>
-      <c r="G71" s="3">
-        <f>SUM($C70:G70)</f>
-        <v>-235947.48879649586</v>
-      </c>
-      <c r="H71" s="3">
-        <f>SUM($C70:H70)</f>
-        <v>-288451.09210072452</v>
-      </c>
-      <c r="I71" s="3">
-        <f>SUM($C70:I70)</f>
-        <v>-339577.26662085991</v>
-      </c>
-      <c r="J71" s="3">
-        <f>SUM($C70:J70)</f>
-        <v>-389357.30937671987</v>
-      </c>
-      <c r="K71" s="3">
-        <f>SUM($C70:K70)</f>
-        <v>-437821.46945611609</v>
-      </c>
-      <c r="L71" s="3">
-        <f>SUM($C70:L70)</f>
-        <v>-484998.9560371656</v>
-      </c>
-      <c r="M71" s="3">
-        <f>SUM($C70:M70)</f>
-        <v>-530917.94487330061</v>
-      </c>
-      <c r="N71" s="3">
-        <f>SUM($C70:N70)</f>
-        <v>-575605.58318356471</v>
-      </c>
-      <c r="O71" s="3">
-        <f>SUM($C70:O70)</f>
-        <v>-619087.99288528541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="C73" s="6">
-        <f>1+B73</f>
-        <v>1.3599999999999999</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="5">
-        <f>C74-1</f>
-        <v>2.5954834658546311E-2</v>
-      </c>
-      <c r="C74" s="6">
-        <f>C73^(1/12)</f>
-        <v>1.0259548346585463</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="3">
-        <f>O71</f>
-        <v>-619087.99288528541</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" s="4">
-        <v>3.8025612982647847</v>
-      </c>
-    </row>
+    <row r="73" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -55087,7 +54844,9 @@
     <row r="102" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="5" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -445,43 +445,43 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-11363.75</c:v>
+                  <c:v>-11150.999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-59908.262500000004</c:v>
+                  <c:v>-52351.238717999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-59869.088750000003</c:v>
+                  <c:v>-51556.362589799995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-59825.997624999996</c:v>
+                  <c:v>-50681.998848779993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-59732.347387499998</c:v>
+                  <c:v>-28560.596200973981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-59680.207126250003</c:v>
+                  <c:v>-25386.655821071377</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-59622.852838874998</c:v>
+                  <c:v>-21895.32140317851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-59559.763122762495</c:v>
+                  <c:v>-18054.853543496363</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-59490.364435038748</c:v>
+                  <c:v>-13830.338897845981</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-59414.025878542627</c:v>
+                  <c:v>-9183.3727876305875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-59330.053466396887</c:v>
+                  <c:v>-4071.710066393634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-59237.68381303658</c:v>
+                  <c:v>1551.1189269670149</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-59136.077194340236</c:v>
+                  <c:v>7736.2308196637168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,43 +526,43 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-11363.75</c:v>
+                  <c:v>-11150.999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-71272.012500000012</c:v>
+                  <c:v>-63502.238717999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-131141.10125000001</c:v>
+                  <c:v>-115058.60130779998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-190967.098875</c:v>
+                  <c:v>-165740.60015657998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-250699.44626249999</c:v>
+                  <c:v>-194301.19635755397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-310379.65338874998</c:v>
+                  <c:v>-219687.85217862536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-370002.50622762495</c:v>
+                  <c:v>-241583.17358180386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-429562.26935038745</c:v>
+                  <c:v>-259638.02712530023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-489052.63378542621</c:v>
+                  <c:v>-273468.3660231462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-548466.65966396884</c:v>
+                  <c:v>-282651.73881077679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-607796.71313036571</c:v>
+                  <c:v>-286723.44887717045</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-667034.39694340224</c:v>
+                  <c:v>-285172.32995020342</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-726170.47413774254</c:v>
+                  <c:v>-277436.09913053969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,46 +846,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>22875.245981280012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>25162.770579408014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>27679.047637348816</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>30446.952401083705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>33491.647641192081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>36840.812405311292</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>40524.893645842421</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>44577.383010426667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>49035.121311469346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,7 +2571,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B1" s="7">
         <f>O59</f>
-        <v>-619087.99288528541</v>
+        <v>-254919.92843648445</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -51796,55 +51796,55 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:O5" si="0">C15</f>
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>423.50000000000017</v>
+        <v>8593.2554400000026</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>465.85000000000019</v>
+        <v>9452.580984000002</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>512.4350000000004</v>
+        <v>10397.839082400005</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>613.67850000000044</v>
+        <v>34312.868971920019</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
-        <v>670.04635000000042</v>
+        <v>37744.155869112023</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>732.05098500000065</v>
+        <v>41518.57145602323</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>800.25608350000073</v>
+        <v>45670.428601625557</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="0"/>
-        <v>875.28169185000093</v>
+        <v>50237.471461788125</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="0"/>
-        <v>957.80986103500118</v>
+        <v>55261.218607966934</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="0"/>
-        <v>1048.5908471385012</v>
+        <v>60787.340468763636</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="0"/>
-        <v>1148.4499318523515</v>
+        <v>66866.074515640008</v>
       </c>
       <c r="O5" s="7">
         <f t="shared" si="0"/>
-        <v>1258.2949250375864</v>
+        <v>73552.681967204015</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
@@ -51852,56 +51852,55 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>B8</f>
-        <v>200</v>
+        <v>8052</v>
       </c>
       <c r="D6" s="3">
         <f>C8</f>
-        <v>220.00000000000003</v>
+        <v>8857.2000000000007</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ref="E6:O6" si="1">D8</f>
-        <v>242.00000000000006</v>
+        <v>9742.9200000000019</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="1"/>
-        <v>266.2000000000001</v>
+        <v>10717.212000000003</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>292.82000000000016</v>
+        <v>11788.933200000005</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>322.1020000000002</v>
+        <v>12967.826520000006</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>354.31220000000025</v>
+        <v>14264.609172000008</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>389.7434200000003</v>
+        <v>15691.07008920001</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>428.71776200000039</v>
+        <v>17260.177098120013</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="1"/>
-        <v>471.58953820000045</v>
+        <v>18986.194807932017</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="1"/>
-        <v>518.74849202000053</v>
+        <v>20884.814288725222</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="1"/>
-        <v>570.62334122200059</v>
+        <v>22973.295717597746</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>627.68567534420072</v>
+        <v>25270.625289357522</v>
       </c>
     </row>
     <row r="7" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -51973,55 +51972,55 @@
       </c>
       <c r="C8" s="3">
         <f>C6*(1+C7)</f>
-        <v>220.00000000000003</v>
+        <v>8857.2000000000007</v>
       </c>
       <c r="D8" s="3">
         <f>D6*(1+D7)</f>
-        <v>242.00000000000006</v>
+        <v>9742.9200000000019</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ref="E8:O8" si="3">E6*(1+E7)</f>
-        <v>266.2000000000001</v>
+        <v>10717.212000000003</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="3"/>
-        <v>292.82000000000016</v>
+        <v>11788.933200000005</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="3"/>
-        <v>322.1020000000002</v>
+        <v>12967.826520000006</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>354.31220000000025</v>
+        <v>14264.609172000008</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
-        <v>389.7434200000003</v>
+        <v>15691.07008920001</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="3"/>
-        <v>428.71776200000039</v>
+        <v>17260.177098120013</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="3"/>
-        <v>471.58953820000045</v>
+        <v>18986.194807932017</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="3"/>
-        <v>518.74849202000053</v>
+        <v>20884.814288725222</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>570.62334122200059</v>
+        <v>22973.295717597746</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="3"/>
-        <v>627.68567534420072</v>
+        <v>25270.625289357522</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="3"/>
-        <v>690.45424287862079</v>
+        <v>27797.687818293278</v>
       </c>
     </row>
     <row r="9" spans="1:16384" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -52029,55 +52028,55 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" ref="D9:O9" si="4">$B9</f>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="4"/>
-        <v>2.5000000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52090,51 +52089,51 @@
       </c>
       <c r="D10" s="3">
         <f>D8*D9</f>
-        <v>6.0500000000000016</v>
+        <v>61.380396000000012</v>
       </c>
       <c r="E10" s="3">
         <f>E8*E9</f>
-        <v>6.6550000000000029</v>
+        <v>67.518435600000018</v>
       </c>
       <c r="F10" s="3">
         <f>F8*F9</f>
-        <v>7.3205000000000044</v>
+        <v>74.27027916000003</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" ref="G10:O10" si="5">G8*G9</f>
-        <v>8.0525500000000054</v>
+        <v>81.697307076000044</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="5"/>
-        <v>8.8578050000000061</v>
+        <v>89.867037783600054</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="5"/>
-        <v>9.7435855000000089</v>
+        <v>98.853741561960064</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="5"/>
-        <v>10.71794405000001</v>
+        <v>108.73911571815609</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="5"/>
-        <v>11.789738455000013</v>
+        <v>119.61302728997171</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="5"/>
-        <v>12.968712300500014</v>
+        <v>131.57433001896891</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="5"/>
-        <v>14.265583530550016</v>
+        <v>144.7317630208658</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="5"/>
-        <v>15.692141883605018</v>
+        <v>159.20493932295238</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="5"/>
-        <v>17.261356071965519</v>
+        <v>175.12543325524766</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52142,56 +52141,56 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <f t="shared" ref="D11:O11" si="6">$B11</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="6"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P11" s="4"/>
     </row>
@@ -52205,51 +52204,51 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12:O12" si="7">D10*D11</f>
-        <v>1.2100000000000004</v>
+        <v>24.552158400000007</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="7"/>
-        <v>1.3310000000000006</v>
+        <v>27.007374240000008</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="7"/>
-        <v>1.4641000000000011</v>
+        <v>29.708111664000015</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="7"/>
-        <v>1.6105100000000012</v>
+        <v>32.678922830400019</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="7"/>
-        <v>1.7715610000000013</v>
+        <v>35.946815113440024</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="7"/>
-        <v>1.9487171000000019</v>
+        <v>39.541496624784031</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="7"/>
-        <v>2.143588810000002</v>
+        <v>43.495646287262439</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="7"/>
-        <v>2.3579476910000028</v>
+        <v>47.845210915988687</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="7"/>
-        <v>2.5937424601000032</v>
+        <v>52.629732007587563</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="7"/>
-        <v>2.8531167061100033</v>
+        <v>57.892705208346321</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="7"/>
-        <v>3.1384283767210039</v>
+        <v>63.681975729180955</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="7"/>
-        <v>3.4522712143931038</v>
+        <v>70.050173302099068</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
@@ -52317,59 +52316,59 @@
         <v>24</v>
       </c>
       <c r="B14" s="3">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="C14" s="3">
         <f>$B14</f>
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f>$B14*G10</f>
+        <v>22875.245981280012</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" ref="H14:O14" si="9">$B14*H10</f>
+        <v>25162.770579408014</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>27679.047637348816</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>30446.952401083705</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>33491.647641192081</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>36840.812405311292</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>40524.893645842421</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>44577.383010426667</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>49035.121311469346</v>
       </c>
     </row>
     <row r="15" spans="1:16384" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -52379,55 +52378,55 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3">
         <f>C12*C13+C14</f>
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="D15" s="3">
         <f>D12*D13</f>
-        <v>423.50000000000017</v>
+        <v>8593.2554400000026</v>
       </c>
       <c r="E15" s="3">
         <f>E12*E13</f>
-        <v>465.85000000000019</v>
+        <v>9452.580984000002</v>
       </c>
       <c r="F15" s="3">
         <f>F12*F13</f>
-        <v>512.4350000000004</v>
+        <v>10397.839082400005</v>
       </c>
       <c r="G15" s="3">
         <f>G12*G13 +G14</f>
-        <v>613.67850000000044</v>
+        <v>34312.868971920019</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" ref="H15:O15" si="9">H12*H13 +H14</f>
-        <v>670.04635000000042</v>
+        <f t="shared" ref="H15:O15" si="10">H12*H13 +H14</f>
+        <v>37744.155869112023</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="9"/>
-        <v>732.05098500000065</v>
+        <f t="shared" si="10"/>
+        <v>41518.57145602323</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="9"/>
-        <v>800.25608350000073</v>
+        <f t="shared" si="10"/>
+        <v>45670.428601625557</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="9"/>
-        <v>875.28169185000093</v>
+        <f t="shared" si="10"/>
+        <v>50237.471461788125</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="9"/>
-        <v>957.80986103500118</v>
+        <f t="shared" si="10"/>
+        <v>55261.218607966934</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="9"/>
-        <v>1048.5908471385012</v>
+        <f t="shared" si="10"/>
+        <v>60787.340468763636</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="9"/>
-        <v>1148.4499318523515</v>
+        <f t="shared" si="10"/>
+        <v>66866.074515640008</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="9"/>
-        <v>1258.2949250375864</v>
+        <f t="shared" si="10"/>
+        <v>73552.681967204015</v>
       </c>
       <c r="P15" s="16"/>
     </row>
@@ -52437,55 +52436,55 @@
       </c>
       <c r="C16" s="7">
         <f>C19</f>
-        <v>-0.75</v>
+        <v>-4.2</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" ref="D16:O16" si="10">D19</f>
-        <v>-6.3525000000000027</v>
+        <f t="shared" ref="D16:O16" si="11">D19</f>
+        <v>-128.89883160000002</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="10"/>
-        <v>-6.9877500000000028</v>
+        <f t="shared" si="11"/>
+        <v>-141.78871476000003</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="10"/>
-        <v>-7.6865250000000058</v>
+        <f t="shared" si="11"/>
+        <v>-155.96758623600007</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="10"/>
-        <v>-9.2051775000000067</v>
+        <f t="shared" si="11"/>
+        <v>-514.69303457880028</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="10"/>
-        <v>-10.050695250000006</v>
+        <f t="shared" si="11"/>
+        <v>-566.16233803668035</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="10"/>
-        <v>-10.98076477500001</v>
+        <f t="shared" si="11"/>
+        <v>-622.77857184034838</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="10"/>
-        <v>-12.00384125250001</v>
+        <f t="shared" si="11"/>
+        <v>-685.05642902438331</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="10"/>
-        <v>-13.129225377750013</v>
+        <f t="shared" si="11"/>
+        <v>-753.56207192682189</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="10"/>
-        <v>-14.367147915525017</v>
+        <f t="shared" si="11"/>
+        <v>-828.91827911950395</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="10"/>
-        <v>-15.728862707077518</v>
+        <f t="shared" si="11"/>
+        <v>-911.81010703145455</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="10"/>
-        <v>-17.22674897778527</v>
+        <f t="shared" si="11"/>
+        <v>-1002.9911177346</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="10"/>
-        <v>-18.874423875563796</v>
+        <f t="shared" si="11"/>
+        <v>-1103.2902295080603</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -52496,55 +52495,55 @@
         <v>1</v>
       </c>
       <c r="C17" s="4">
-        <f>$B17</f>
+        <f t="shared" ref="C17:O18" si="12">$B17</f>
         <v>1</v>
       </c>
       <c r="D17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="O17" s="4">
-        <f>$B17</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -52556,55 +52555,55 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O18" s="5">
-        <f>$B18</f>
+        <f t="shared" si="12"/>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -52614,56 +52613,56 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
-        <f>-C5*C17*C18</f>
-        <v>-0.75</v>
+        <f t="shared" ref="C19:O19" si="13">-C5*C17*C18</f>
+        <v>-4.2</v>
       </c>
       <c r="D19" s="3">
-        <f>-D5*D17*D18</f>
-        <v>-6.3525000000000027</v>
+        <f t="shared" si="13"/>
+        <v>-128.89883160000002</v>
       </c>
       <c r="E19" s="3">
-        <f>-E5*E17*E18</f>
-        <v>-6.9877500000000028</v>
+        <f t="shared" si="13"/>
+        <v>-141.78871476000003</v>
       </c>
       <c r="F19" s="3">
-        <f>-F5*F17*F18</f>
-        <v>-7.6865250000000058</v>
+        <f t="shared" si="13"/>
+        <v>-155.96758623600007</v>
       </c>
       <c r="G19" s="3">
-        <f>-G5*G17*G18</f>
-        <v>-9.2051775000000067</v>
+        <f t="shared" si="13"/>
+        <v>-514.69303457880028</v>
       </c>
       <c r="H19" s="3">
-        <f>-H5*H17*H18</f>
-        <v>-10.050695250000006</v>
+        <f t="shared" si="13"/>
+        <v>-566.16233803668035</v>
       </c>
       <c r="I19" s="3">
-        <f>-I5*I17*I18</f>
-        <v>-10.98076477500001</v>
+        <f t="shared" si="13"/>
+        <v>-622.77857184034838</v>
       </c>
       <c r="J19" s="3">
-        <f>-J5*J17*J18</f>
-        <v>-12.00384125250001</v>
+        <f t="shared" si="13"/>
+        <v>-685.05642902438331</v>
       </c>
       <c r="K19" s="3">
-        <f>-K5*K17*K18</f>
-        <v>-13.129225377750013</v>
+        <f t="shared" si="13"/>
+        <v>-753.56207192682189</v>
       </c>
       <c r="L19" s="3">
-        <f>-L5*L17*L18</f>
-        <v>-14.367147915525017</v>
+        <f t="shared" si="13"/>
+        <v>-828.91827911950395</v>
       </c>
       <c r="M19" s="3">
-        <f>-M5*M17*M18</f>
-        <v>-15.728862707077518</v>
+        <f t="shared" si="13"/>
+        <v>-911.81010703145455</v>
       </c>
       <c r="N19" s="3">
-        <f>-N5*N17*N18</f>
-        <v>-17.22674897778527</v>
+        <f t="shared" si="13"/>
+        <v>-1002.9911177346</v>
       </c>
       <c r="O19" s="3">
-        <f>-O5*O17*O18</f>
-        <v>-18.874423875563796</v>
+        <f t="shared" si="13"/>
+        <v>-1103.2902295080603</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -52672,56 +52671,56 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7">
-        <f>C5+C16</f>
-        <v>49.25</v>
+        <f t="shared" ref="C20:O20" si="14">C5+C16</f>
+        <v>275.8</v>
       </c>
       <c r="D20" s="7">
-        <f>D5+D16</f>
-        <v>417.14750000000015</v>
+        <f t="shared" si="14"/>
+        <v>8464.3566084000031</v>
       </c>
       <c r="E20" s="7">
-        <f>E5+E16</f>
-        <v>458.86225000000019</v>
+        <f t="shared" si="14"/>
+        <v>9310.7922692400025</v>
       </c>
       <c r="F20" s="7">
-        <f>F5+F16</f>
-        <v>504.74847500000038</v>
+        <f t="shared" si="14"/>
+        <v>10241.871496164005</v>
       </c>
       <c r="G20" s="7">
-        <f>G5+G16</f>
-        <v>604.47332250000045</v>
+        <f t="shared" si="14"/>
+        <v>33798.175937341221</v>
       </c>
       <c r="H20" s="7">
-        <f>H5+H16</f>
-        <v>659.99565475000043</v>
+        <f t="shared" si="14"/>
+        <v>37177.993531075343</v>
       </c>
       <c r="I20" s="7">
-        <f>I5+I16</f>
-        <v>721.07022022500064</v>
+        <f t="shared" si="14"/>
+        <v>40895.792884182883</v>
       </c>
       <c r="J20" s="7">
-        <f>J5+J16</f>
-        <v>788.2522422475007</v>
+        <f t="shared" si="14"/>
+        <v>44985.372172601172</v>
       </c>
       <c r="K20" s="7">
-        <f>K5+K16</f>
-        <v>862.15246647225092</v>
+        <f t="shared" si="14"/>
+        <v>49483.909389861306</v>
       </c>
       <c r="L20" s="7">
-        <f>L5+L16</f>
-        <v>943.44271311947614</v>
+        <f t="shared" si="14"/>
+        <v>54432.300328847428</v>
       </c>
       <c r="M20" s="7">
-        <f>M5+M16</f>
-        <v>1032.8619844314237</v>
+        <f t="shared" si="14"/>
+        <v>59875.530361732184</v>
       </c>
       <c r="N20" s="7">
-        <f>N5+N16</f>
-        <v>1131.2231828745662</v>
+        <f t="shared" si="14"/>
+        <v>65863.083397905415</v>
       </c>
       <c r="O20" s="7">
-        <f>O5+O16</f>
-        <v>1239.4205011620227</v>
+        <f t="shared" si="14"/>
+        <v>72449.391737695958</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -52730,55 +52729,55 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <f>IFERROR(C20/C$5,"-")</f>
+        <f t="shared" ref="C21:O21" si="15">IFERROR(C20/C$5,"-")</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="D21" s="4">
-        <f>IFERROR(D20/D$5,"-")</f>
+        <f t="shared" si="15"/>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="15"/>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="15"/>
         <v>0.98499999999999999</v>
       </c>
-      <c r="E21" s="4">
-        <f>IFERROR(E20/E$5,"-")</f>
+      <c r="G21" s="4">
+        <f t="shared" si="15"/>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="15"/>
         <v>0.98499999999999999</v>
       </c>
-      <c r="F21" s="4">
-        <f>IFERROR(F20/F$5,"-")</f>
+      <c r="I21" s="4">
+        <f t="shared" si="15"/>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="15"/>
         <v>0.98499999999999999</v>
       </c>
-      <c r="G21" s="4">
-        <f>IFERROR(G20/G$5,"-")</f>
+      <c r="K21" s="4">
+        <f t="shared" si="15"/>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="15"/>
         <v>0.98499999999999999</v>
       </c>
-      <c r="H21" s="4">
-        <f>IFERROR(H20/H$5,"-")</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I21" s="4">
-        <f>IFERROR(I20/I$5,"-")</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="J21" s="4">
-        <f>IFERROR(J20/J$5,"-")</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="K21" s="4">
-        <f>IFERROR(K20/K$5,"-")</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="L21" s="4">
-        <f>IFERROR(L20/L$5,"-")</f>
-        <v>0.98499999999999999</v>
-      </c>
       <c r="M21" s="4">
-        <f>IFERROR(M20/M$5,"-")</f>
-        <v>0.98499999999999999</v>
+        <f t="shared" si="15"/>
+        <v>0.9850000000000001</v>
       </c>
       <c r="N21" s="4">
-        <f>IFERROR(N20/N$5,"-")</f>
-        <v>0.98499999999999999</v>
+        <f t="shared" si="15"/>
+        <v>0.9850000000000001</v>
       </c>
       <c r="O21" s="4">
-        <f>IFERROR(O20/O$5,"-")</f>
+        <f t="shared" si="15"/>
         <v>0.9850000000000001</v>
       </c>
     </row>
@@ -52788,55 +52787,55 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <f>-SUM(C23:C25)</f>
+        <f t="shared" ref="C22:O22" si="16">-SUM(C23:C25)</f>
         <v>-60000</v>
       </c>
       <c r="D22" s="7">
-        <f>-SUM(D23:D25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="E22" s="7">
-        <f>-SUM(E23:E25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="F22" s="7">
-        <f>-SUM(F23:F25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="G22" s="7">
-        <f>-SUM(G23:G25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="H22" s="7">
-        <f>-SUM(H23:H25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="I22" s="7">
-        <f>-SUM(I23:I25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="J22" s="7">
-        <f>-SUM(J23:J25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="K22" s="7">
-        <f>-SUM(K23:K25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="L22" s="7">
-        <f>-SUM(L23:L25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="M22" s="7">
-        <f>-SUM(M23:M25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="N22" s="7">
-        <f>-SUM(N23:N25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
       <c r="O22" s="7">
-        <f>-SUM(O23:O25)</f>
+        <f t="shared" si="16"/>
         <v>-60000</v>
       </c>
     </row>
@@ -52895,55 +52894,55 @@
         <v>25000</v>
       </c>
       <c r="C24" s="3">
-        <f>$B24</f>
+        <f t="shared" ref="C24:O25" si="17">$B24</f>
         <v>25000</v>
       </c>
       <c r="D24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="E24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="F24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="G24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="H24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="I24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="J24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="K24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="L24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="M24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="N24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
       <c r="O24" s="3">
-        <f>$B24</f>
+        <f t="shared" si="17"/>
         <v>25000</v>
       </c>
     </row>
@@ -52955,55 +52954,55 @@
         <v>5000</v>
       </c>
       <c r="C25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="D25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="E25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="F25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="G25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="H25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="I25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="J25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="K25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="L25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="M25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="N25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="O25" s="3">
-        <f>$B25</f>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
     </row>
@@ -53013,56 +53012,56 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7">
-        <f>C20+C22</f>
-        <v>-59950.75</v>
+        <f t="shared" ref="C26:O26" si="18">C20+C22</f>
+        <v>-59724.2</v>
       </c>
       <c r="D26" s="7">
-        <f>D20+D22</f>
-        <v>-59582.852500000001</v>
+        <f t="shared" si="18"/>
+        <v>-51535.643391599995</v>
       </c>
       <c r="E26" s="7">
-        <f>E20+E22</f>
-        <v>-59541.137750000002</v>
+        <f t="shared" si="18"/>
+        <v>-50689.207730759998</v>
       </c>
       <c r="F26" s="7">
-        <f>F20+F22</f>
-        <v>-59495.251525</v>
+        <f t="shared" si="18"/>
+        <v>-49758.128503835993</v>
       </c>
       <c r="G26" s="7">
-        <f>G20+G22</f>
-        <v>-59395.526677499998</v>
+        <f t="shared" si="18"/>
+        <v>-26201.824062658779</v>
       </c>
       <c r="H26" s="7">
-        <f>H20+H22</f>
-        <v>-59340.004345250003</v>
+        <f t="shared" si="18"/>
+        <v>-22822.006468924657</v>
       </c>
       <c r="I26" s="7">
-        <f>I20+I22</f>
-        <v>-59278.929779774997</v>
+        <f t="shared" si="18"/>
+        <v>-19104.207115817117</v>
       </c>
       <c r="J26" s="7">
-        <f>J20+J22</f>
-        <v>-59211.747757752499</v>
+        <f t="shared" si="18"/>
+        <v>-15014.627827398828</v>
       </c>
       <c r="K26" s="7">
-        <f>K20+K22</f>
-        <v>-59137.847533527747</v>
+        <f t="shared" si="18"/>
+        <v>-10516.090610138694</v>
       </c>
       <c r="L26" s="7">
-        <f>L20+L22</f>
-        <v>-59056.557286880525</v>
+        <f t="shared" si="18"/>
+        <v>-5567.6996711525717</v>
       </c>
       <c r="M26" s="7">
-        <f>M20+M22</f>
-        <v>-58967.138015568577</v>
+        <f t="shared" si="18"/>
+        <v>-124.46963826781575</v>
       </c>
       <c r="N26" s="7">
-        <f>N20+N22</f>
-        <v>-58868.776817125436</v>
+        <f t="shared" si="18"/>
+        <v>5863.083397905415</v>
       </c>
       <c r="O26" s="7">
-        <f>O20+O22</f>
-        <v>-58760.579498837978</v>
+        <f t="shared" si="18"/>
+        <v>12449.391737695958</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -53075,51 +53074,51 @@
         <v>48590</v>
       </c>
       <c r="D27" s="7">
-        <f>D29</f>
+        <f t="shared" ref="D27:N27" si="19">D29</f>
         <v>-300</v>
       </c>
       <c r="E27" s="7">
-        <f>E29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="F27" s="7">
-        <f>F29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="G27" s="7">
-        <f>G29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="H27" s="7">
-        <f>H29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="I27" s="7">
-        <f>I29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="J27" s="7">
-        <f>J29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="K27" s="7">
-        <f>K29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="L27" s="7">
-        <f>L29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="M27" s="7">
-        <f>M29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="N27" s="7">
-        <f>N29</f>
+        <f t="shared" si="19"/>
         <v>-300</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" ref="O27" si="11">O29</f>
+        <f t="shared" ref="O27" si="20">O29</f>
         <v>-300</v>
       </c>
     </row>
@@ -53139,55 +53138,55 @@
         <v>300</v>
       </c>
       <c r="C29" s="3">
-        <f>-$B29</f>
+        <f t="shared" ref="C29:O29" si="21">-$B29</f>
         <v>-300</v>
       </c>
       <c r="D29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="E29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="F29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="G29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="H29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="I29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="J29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="K29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="L29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="M29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="N29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
       <c r="O29" s="3">
-        <f>-$B29</f>
+        <f t="shared" si="21"/>
         <v>-300</v>
       </c>
     </row>
@@ -53197,56 +53196,56 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7">
-        <f>C26+C27</f>
-        <v>-11360.75</v>
+        <f t="shared" ref="C30:N30" si="22">C26+C27</f>
+        <v>-11134.199999999997</v>
       </c>
       <c r="D30" s="7">
-        <f>D26+D27</f>
-        <v>-59882.852500000001</v>
+        <f t="shared" si="22"/>
+        <v>-51835.643391599995</v>
       </c>
       <c r="E30" s="7">
-        <f>E26+E27</f>
-        <v>-59841.137750000002</v>
+        <f t="shared" si="22"/>
+        <v>-50989.207730759998</v>
       </c>
       <c r="F30" s="7">
-        <f>F26+F27</f>
-        <v>-59795.251525</v>
+        <f t="shared" si="22"/>
+        <v>-50058.128503835993</v>
       </c>
       <c r="G30" s="7">
-        <f>G26+G27</f>
-        <v>-59695.526677499998</v>
+        <f t="shared" si="22"/>
+        <v>-26501.824062658779</v>
       </c>
       <c r="H30" s="7">
-        <f>H26+H27</f>
-        <v>-59640.004345250003</v>
+        <f t="shared" si="22"/>
+        <v>-23122.006468924657</v>
       </c>
       <c r="I30" s="7">
-        <f>I26+I27</f>
-        <v>-59578.929779774997</v>
+        <f t="shared" si="22"/>
+        <v>-19404.207115817117</v>
       </c>
       <c r="J30" s="7">
-        <f>J26+J27</f>
-        <v>-59511.747757752499</v>
+        <f t="shared" si="22"/>
+        <v>-15314.627827398828</v>
       </c>
       <c r="K30" s="7">
-        <f>K26+K27</f>
-        <v>-59437.847533527747</v>
+        <f t="shared" si="22"/>
+        <v>-10816.090610138694</v>
       </c>
       <c r="L30" s="7">
-        <f>L26+L27</f>
-        <v>-59356.557286880525</v>
+        <f t="shared" si="22"/>
+        <v>-5867.6996711525717</v>
       </c>
       <c r="M30" s="7">
-        <f>M26+M27</f>
-        <v>-59267.138015568577</v>
+        <f t="shared" si="22"/>
+        <v>-424.46963826781575</v>
       </c>
       <c r="N30" s="7">
-        <f>N26+N27</f>
-        <v>-59168.776817125436</v>
+        <f t="shared" si="22"/>
+        <v>5563.083397905415</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" ref="O30" si="12">O26+O27</f>
-        <v>-59060.579498837978</v>
+        <f t="shared" ref="O30" si="23">O26+O27</f>
+        <v>12149.391737695958</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53254,56 +53253,56 @@
         <v>26</v>
       </c>
       <c r="C31" s="7">
-        <f>C30</f>
-        <v>-11360.75</v>
+        <f t="shared" ref="C31:N31" si="24">C30</f>
+        <v>-11134.199999999997</v>
       </c>
       <c r="D31" s="7">
-        <f>D30</f>
-        <v>-59882.852500000001</v>
+        <f t="shared" si="24"/>
+        <v>-51835.643391599995</v>
       </c>
       <c r="E31" s="7">
-        <f>E30</f>
-        <v>-59841.137750000002</v>
+        <f t="shared" si="24"/>
+        <v>-50989.207730759998</v>
       </c>
       <c r="F31" s="7">
-        <f>F30</f>
-        <v>-59795.251525</v>
+        <f t="shared" si="24"/>
+        <v>-50058.128503835993</v>
       </c>
       <c r="G31" s="7">
-        <f>G30</f>
-        <v>-59695.526677499998</v>
+        <f t="shared" si="24"/>
+        <v>-26501.824062658779</v>
       </c>
       <c r="H31" s="7">
-        <f>H30</f>
-        <v>-59640.004345250003</v>
+        <f t="shared" si="24"/>
+        <v>-23122.006468924657</v>
       </c>
       <c r="I31" s="7">
-        <f>I30</f>
-        <v>-59578.929779774997</v>
+        <f t="shared" si="24"/>
+        <v>-19404.207115817117</v>
       </c>
       <c r="J31" s="7">
-        <f>J30</f>
-        <v>-59511.747757752499</v>
+        <f t="shared" si="24"/>
+        <v>-15314.627827398828</v>
       </c>
       <c r="K31" s="7">
-        <f>K30</f>
-        <v>-59437.847533527747</v>
+        <f t="shared" si="24"/>
+        <v>-10816.090610138694</v>
       </c>
       <c r="L31" s="7">
-        <f>L30</f>
-        <v>-59356.557286880525</v>
+        <f t="shared" si="24"/>
+        <v>-5867.6996711525717</v>
       </c>
       <c r="M31" s="7">
-        <f>M30</f>
-        <v>-59267.138015568577</v>
+        <f t="shared" si="24"/>
+        <v>-424.46963826781575</v>
       </c>
       <c r="N31" s="7">
-        <f>N30</f>
-        <v>-59168.776817125436</v>
+        <f t="shared" si="24"/>
+        <v>5563.083397905415</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" ref="O31" si="13">O30</f>
-        <v>-59060.579498837978</v>
+        <f t="shared" ref="O31" si="25">O30</f>
+        <v>12149.391737695958</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53312,56 +53311,56 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3">
-        <f>C38</f>
-        <v>-3</v>
+        <f t="shared" ref="C32:N32" si="26">C38</f>
+        <v>-16.8</v>
       </c>
       <c r="D32" s="3">
-        <f>D38</f>
-        <v>-25.410000000000011</v>
+        <f t="shared" si="26"/>
+        <v>-515.59532640000009</v>
       </c>
       <c r="E32" s="3">
-        <f>E38</f>
-        <v>-27.951000000000011</v>
+        <f t="shared" si="26"/>
+        <v>-567.15485904000013</v>
       </c>
       <c r="F32" s="3">
-        <f>F38</f>
-        <v>-30.746100000000023</v>
+        <f t="shared" si="26"/>
+        <v>-623.87034494400029</v>
       </c>
       <c r="G32" s="3">
-        <f>G38</f>
-        <v>-36.820710000000027</v>
+        <f t="shared" si="26"/>
+        <v>-2058.7721383152011</v>
       </c>
       <c r="H32" s="3">
-        <f>H38</f>
-        <v>-40.202781000000023</v>
+        <f t="shared" si="26"/>
+        <v>-2264.6493521467214</v>
       </c>
       <c r="I32" s="3">
-        <f>I38</f>
-        <v>-43.923059100000039</v>
+        <f t="shared" si="26"/>
+        <v>-2491.1142873613935</v>
       </c>
       <c r="J32" s="3">
-        <f>J38</f>
-        <v>-48.015365010000039</v>
+        <f t="shared" si="26"/>
+        <v>-2740.2257160975332</v>
       </c>
       <c r="K32" s="3">
-        <f>K38</f>
-        <v>-52.51690151100005</v>
+        <f t="shared" si="26"/>
+        <v>-3014.2482877072875</v>
       </c>
       <c r="L32" s="3">
-        <f>L38</f>
-        <v>-57.468591662100067</v>
+        <f t="shared" si="26"/>
+        <v>-3315.6731164780158</v>
       </c>
       <c r="M32" s="3">
-        <f>M38</f>
-        <v>-62.915450828310071</v>
+        <f t="shared" si="26"/>
+        <v>-3647.2404281258182</v>
       </c>
       <c r="N32" s="3">
-        <f>N38</f>
-        <v>-68.906995911141081</v>
+        <f t="shared" si="26"/>
+        <v>-4011.9644709384002</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" ref="O32" si="14">O38</f>
-        <v>-75.497695502255183</v>
+        <f t="shared" ref="O32" si="27">O38</f>
+        <v>-4413.1609180322412</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -53369,56 +53368,56 @@
         <v>28</v>
       </c>
       <c r="C33" s="3">
-        <f>C31+C32</f>
-        <v>-11363.75</v>
+        <f t="shared" ref="C33:N33" si="28">C31+C32</f>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D33" s="3">
-        <f>D31+D32</f>
-        <v>-59908.262500000004</v>
+        <f t="shared" si="28"/>
+        <v>-52351.238717999993</v>
       </c>
       <c r="E33" s="3">
-        <f>E31+E32</f>
-        <v>-59869.088750000003</v>
+        <f t="shared" si="28"/>
+        <v>-51556.362589799995</v>
       </c>
       <c r="F33" s="3">
-        <f>F31+F32</f>
-        <v>-59825.997624999996</v>
+        <f t="shared" si="28"/>
+        <v>-50681.998848779993</v>
       </c>
       <c r="G33" s="3">
-        <f>G31+G32</f>
-        <v>-59732.347387499998</v>
+        <f t="shared" si="28"/>
+        <v>-28560.596200973981</v>
       </c>
       <c r="H33" s="3">
-        <f>H31+H32</f>
-        <v>-59680.207126250003</v>
+        <f t="shared" si="28"/>
+        <v>-25386.655821071377</v>
       </c>
       <c r="I33" s="3">
-        <f>I31+I32</f>
-        <v>-59622.852838874998</v>
+        <f t="shared" si="28"/>
+        <v>-21895.32140317851</v>
       </c>
       <c r="J33" s="3">
-        <f>J31+J32</f>
-        <v>-59559.763122762495</v>
+        <f t="shared" si="28"/>
+        <v>-18054.853543496363</v>
       </c>
       <c r="K33" s="3">
-        <f>K31+K32</f>
-        <v>-59490.364435038748</v>
+        <f t="shared" si="28"/>
+        <v>-13830.338897845981</v>
       </c>
       <c r="L33" s="3">
-        <f>L31+L32</f>
-        <v>-59414.025878542627</v>
+        <f t="shared" si="28"/>
+        <v>-9183.3727876305875</v>
       </c>
       <c r="M33" s="3">
-        <f>M31+M32</f>
-        <v>-59330.053466396887</v>
+        <f t="shared" si="28"/>
+        <v>-4071.710066393634</v>
       </c>
       <c r="N33" s="3">
-        <f>N31+N32</f>
-        <v>-59237.68381303658</v>
+        <f t="shared" si="28"/>
+        <v>1551.1189269670149</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" ref="O33" si="15">O31+O32</f>
-        <v>-59136.077194340236</v>
+        <f t="shared" ref="O33" si="29">O31+O32</f>
+        <v>7736.2308196637168</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -53427,55 +53426,55 @@
       </c>
       <c r="C34" s="3">
         <f>SUM($C33:C33)</f>
-        <v>-11363.75</v>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D34" s="3">
         <f>SUM($C33:D33)</f>
-        <v>-71272.012500000012</v>
+        <v>-63502.238717999993</v>
       </c>
       <c r="E34" s="3">
         <f>SUM($C33:E33)</f>
-        <v>-131141.10125000001</v>
+        <v>-115058.60130779998</v>
       </c>
       <c r="F34" s="3">
         <f>SUM($C33:F33)</f>
-        <v>-190967.098875</v>
+        <v>-165740.60015657998</v>
       </c>
       <c r="G34" s="3">
         <f>SUM($C33:G33)</f>
-        <v>-250699.44626249999</v>
+        <v>-194301.19635755397</v>
       </c>
       <c r="H34" s="3">
         <f>SUM($C33:H33)</f>
-        <v>-310379.65338874998</v>
+        <v>-219687.85217862536</v>
       </c>
       <c r="I34" s="3">
         <f>SUM($C33:I33)</f>
-        <v>-370002.50622762495</v>
+        <v>-241583.17358180386</v>
       </c>
       <c r="J34" s="3">
         <f>SUM($C33:J33)</f>
-        <v>-429562.26935038745</v>
+        <v>-259638.02712530023</v>
       </c>
       <c r="K34" s="3">
         <f>SUM($C33:K33)</f>
-        <v>-489052.63378542621</v>
+        <v>-273468.3660231462</v>
       </c>
       <c r="L34" s="3">
         <f>SUM($C33:L33)</f>
-        <v>-548466.65966396884</v>
+        <v>-282651.73881077679</v>
       </c>
       <c r="M34" s="3">
         <f>SUM($C33:M33)</f>
-        <v>-607796.71313036571</v>
+        <v>-286723.44887717045</v>
       </c>
       <c r="N34" s="3">
         <f>SUM($C33:N33)</f>
-        <v>-667034.39694340224</v>
+        <v>-285172.32995020342</v>
       </c>
       <c r="O34" s="3">
         <f>SUM($C33:O33)</f>
-        <v>-726170.47413774254</v>
+        <v>-277436.09913053969</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -53505,55 +53504,55 @@
         <v>0.06</v>
       </c>
       <c r="C36" s="4">
-        <f>$B36</f>
+        <f t="shared" ref="C36:O36" si="30">$B36</f>
         <v>0.06</v>
       </c>
       <c r="D36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="E36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="F36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="G36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="H36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="I36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="J36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="K36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="L36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="M36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="N36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
       <c r="O36" s="4">
-        <f>$B36</f>
+        <f t="shared" si="30"/>
         <v>0.06</v>
       </c>
     </row>
@@ -53562,56 +53561,56 @@
         <v>32</v>
       </c>
       <c r="C37" s="3">
-        <f>C5</f>
-        <v>50</v>
+        <f t="shared" ref="C37:O37" si="31">C5</f>
+        <v>280</v>
       </c>
       <c r="D37" s="3">
-        <f>D5</f>
-        <v>423.50000000000017</v>
+        <f t="shared" si="31"/>
+        <v>8593.2554400000026</v>
       </c>
       <c r="E37" s="3">
-        <f>E5</f>
-        <v>465.85000000000019</v>
+        <f t="shared" si="31"/>
+        <v>9452.580984000002</v>
       </c>
       <c r="F37" s="3">
-        <f>F5</f>
-        <v>512.4350000000004</v>
+        <f t="shared" si="31"/>
+        <v>10397.839082400005</v>
       </c>
       <c r="G37" s="3">
-        <f>G5</f>
-        <v>613.67850000000044</v>
+        <f t="shared" si="31"/>
+        <v>34312.868971920019</v>
       </c>
       <c r="H37" s="3">
-        <f>H5</f>
-        <v>670.04635000000042</v>
+        <f t="shared" si="31"/>
+        <v>37744.155869112023</v>
       </c>
       <c r="I37" s="3">
-        <f>I5</f>
-        <v>732.05098500000065</v>
+        <f t="shared" si="31"/>
+        <v>41518.57145602323</v>
       </c>
       <c r="J37" s="3">
-        <f>J5</f>
-        <v>800.25608350000073</v>
+        <f t="shared" si="31"/>
+        <v>45670.428601625557</v>
       </c>
       <c r="K37" s="3">
-        <f>K5</f>
-        <v>875.28169185000093</v>
+        <f t="shared" si="31"/>
+        <v>50237.471461788125</v>
       </c>
       <c r="L37" s="3">
-        <f>L5</f>
-        <v>957.80986103500118</v>
+        <f t="shared" si="31"/>
+        <v>55261.218607966934</v>
       </c>
       <c r="M37" s="3">
-        <f>M5</f>
-        <v>1048.5908471385012</v>
+        <f t="shared" si="31"/>
+        <v>60787.340468763636</v>
       </c>
       <c r="N37" s="3">
-        <f>N5</f>
-        <v>1148.4499318523515</v>
+        <f t="shared" si="31"/>
+        <v>66866.074515640008</v>
       </c>
       <c r="O37" s="3">
-        <f>O5</f>
-        <v>1258.2949250375864</v>
+        <f t="shared" si="31"/>
+        <v>73552.681967204015</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -53619,56 +53618,56 @@
         <v>33</v>
       </c>
       <c r="C38" s="3">
-        <f>-C36*C37</f>
-        <v>-3</v>
+        <f t="shared" ref="C38:N38" si="32">-C36*C37</f>
+        <v>-16.8</v>
       </c>
       <c r="D38" s="3">
-        <f>-D36*D37</f>
-        <v>-25.410000000000011</v>
+        <f t="shared" si="32"/>
+        <v>-515.59532640000009</v>
       </c>
       <c r="E38" s="3">
-        <f>-E36*E37</f>
-        <v>-27.951000000000011</v>
+        <f t="shared" si="32"/>
+        <v>-567.15485904000013</v>
       </c>
       <c r="F38" s="3">
-        <f>-F36*F37</f>
-        <v>-30.746100000000023</v>
+        <f t="shared" si="32"/>
+        <v>-623.87034494400029</v>
       </c>
       <c r="G38" s="3">
-        <f>-G36*G37</f>
-        <v>-36.820710000000027</v>
+        <f t="shared" si="32"/>
+        <v>-2058.7721383152011</v>
       </c>
       <c r="H38" s="3">
-        <f>-H36*H37</f>
-        <v>-40.202781000000023</v>
+        <f t="shared" si="32"/>
+        <v>-2264.6493521467214</v>
       </c>
       <c r="I38" s="3">
-        <f>-I36*I37</f>
-        <v>-43.923059100000039</v>
+        <f t="shared" si="32"/>
+        <v>-2491.1142873613935</v>
       </c>
       <c r="J38" s="3">
-        <f>-J36*J37</f>
-        <v>-48.015365010000039</v>
+        <f t="shared" si="32"/>
+        <v>-2740.2257160975332</v>
       </c>
       <c r="K38" s="3">
-        <f>-K36*K37</f>
-        <v>-52.51690151100005</v>
+        <f t="shared" si="32"/>
+        <v>-3014.2482877072875</v>
       </c>
       <c r="L38" s="3">
-        <f>-L36*L37</f>
-        <v>-57.468591662100067</v>
+        <f t="shared" si="32"/>
+        <v>-3315.6731164780158</v>
       </c>
       <c r="M38" s="3">
-        <f>-M36*M37</f>
-        <v>-62.915450828310071</v>
+        <f t="shared" si="32"/>
+        <v>-3647.2404281258182</v>
       </c>
       <c r="N38" s="3">
-        <f>-N36*N37</f>
-        <v>-68.906995911141081</v>
+        <f t="shared" si="32"/>
+        <v>-4011.9644709384002</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" ref="O38" si="16">-O36*O37</f>
-        <v>-75.497695502255183</v>
+        <f t="shared" ref="O38" si="33">-O36*O37</f>
+        <v>-4413.1609180322412</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53695,56 +53694,56 @@
         <v>36</v>
       </c>
       <c r="C40" s="3">
-        <f>B44</f>
+        <f t="shared" ref="C40:O40" si="34">B44</f>
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <f>C44</f>
-        <v>-11363.75</v>
+        <f t="shared" si="34"/>
+        <v>-11150.999999999996</v>
       </c>
       <c r="E40" s="3">
-        <f>D44</f>
-        <v>-71272.012500000012</v>
+        <f t="shared" si="34"/>
+        <v>-63502.238717999993</v>
       </c>
       <c r="F40" s="3">
-        <f>E44</f>
-        <v>-131141.10125000001</v>
+        <f t="shared" si="34"/>
+        <v>-115058.60130779998</v>
       </c>
       <c r="G40" s="3">
-        <f>F44</f>
-        <v>-190967.098875</v>
+        <f t="shared" si="34"/>
+        <v>-165740.60015657998</v>
       </c>
       <c r="H40" s="3">
-        <f>G44</f>
-        <v>-250699.44626249999</v>
+        <f t="shared" si="34"/>
+        <v>-194301.19635755397</v>
       </c>
       <c r="I40" s="3">
-        <f>H44</f>
-        <v>-310379.65338874998</v>
+        <f t="shared" si="34"/>
+        <v>-219687.85217862536</v>
       </c>
       <c r="J40" s="3">
-        <f>I44</f>
-        <v>-370002.50622762495</v>
+        <f t="shared" si="34"/>
+        <v>-241583.17358180386</v>
       </c>
       <c r="K40" s="3">
-        <f>J44</f>
-        <v>-429562.26935038745</v>
+        <f t="shared" si="34"/>
+        <v>-259638.02712530023</v>
       </c>
       <c r="L40" s="3">
-        <f>K44</f>
-        <v>-489052.63378542621</v>
+        <f t="shared" si="34"/>
+        <v>-273468.3660231462</v>
       </c>
       <c r="M40" s="3">
-        <f>L44</f>
-        <v>-548466.65966396884</v>
+        <f t="shared" si="34"/>
+        <v>-282651.73881077679</v>
       </c>
       <c r="N40" s="3">
-        <f>M44</f>
-        <v>-607796.71313036571</v>
+        <f t="shared" si="34"/>
+        <v>-286723.44887717045</v>
       </c>
       <c r="O40" s="3">
-        <f>N44</f>
-        <v>-667034.39694340224</v>
+        <f t="shared" si="34"/>
+        <v>-285172.32995020342</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -53752,56 +53751,56 @@
         <v>37</v>
       </c>
       <c r="C41" s="3">
-        <f>C30+0+C32</f>
-        <v>-11363.75</v>
+        <f t="shared" ref="C41:O41" si="35">C30+0+C32</f>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D41" s="3">
-        <f>D30+0+D32</f>
-        <v>-59908.262500000004</v>
+        <f t="shared" si="35"/>
+        <v>-52351.238717999993</v>
       </c>
       <c r="E41" s="3">
-        <f>E30+0+E32</f>
-        <v>-59869.088750000003</v>
+        <f t="shared" si="35"/>
+        <v>-51556.362589799995</v>
       </c>
       <c r="F41" s="3">
-        <f>F30+0+F32</f>
-        <v>-59825.997624999996</v>
+        <f t="shared" si="35"/>
+        <v>-50681.998848779993</v>
       </c>
       <c r="G41" s="3">
-        <f>G30+0+G32</f>
-        <v>-59732.347387499998</v>
+        <f t="shared" si="35"/>
+        <v>-28560.596200973981</v>
       </c>
       <c r="H41" s="3">
-        <f>H30+0+H32</f>
-        <v>-59680.207126250003</v>
+        <f t="shared" si="35"/>
+        <v>-25386.655821071377</v>
       </c>
       <c r="I41" s="3">
-        <f>I30+0+I32</f>
-        <v>-59622.852838874998</v>
+        <f t="shared" si="35"/>
+        <v>-21895.32140317851</v>
       </c>
       <c r="J41" s="3">
-        <f>J30+0+J32</f>
-        <v>-59559.763122762495</v>
+        <f t="shared" si="35"/>
+        <v>-18054.853543496363</v>
       </c>
       <c r="K41" s="3">
-        <f>K30+0+K32</f>
-        <v>-59490.364435038748</v>
+        <f t="shared" si="35"/>
+        <v>-13830.338897845981</v>
       </c>
       <c r="L41" s="3">
-        <f>L30+0+L32</f>
-        <v>-59414.025878542627</v>
+        <f t="shared" si="35"/>
+        <v>-9183.3727876305875</v>
       </c>
       <c r="M41" s="3">
-        <f>M30+0+M32</f>
-        <v>-59330.053466396887</v>
+        <f t="shared" si="35"/>
+        <v>-4071.710066393634</v>
       </c>
       <c r="N41" s="3">
-        <f>N30+0+N32</f>
-        <v>-59237.68381303658</v>
+        <f t="shared" si="35"/>
+        <v>1551.1189269670149</v>
       </c>
       <c r="O41" s="3">
-        <f>O30+0+O32</f>
-        <v>-59136.077194340236</v>
+        <f t="shared" si="35"/>
+        <v>7736.2308196637168</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -53810,55 +53809,55 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
-        <f>C92+C93+C96+C97</f>
+        <f t="shared" ref="C42:O42" si="36">C92+C93+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <f>D92+D93+D96+D97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <f>E92+E93+E96+E97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <f>F92+F93+F96+F97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <f>G92+G93+G96+G97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <f>H92+H93+H96+H97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <f>I92+I93+I96+I97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <f>J92+J93+J96+J97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <f>K92+K93+K96+K97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <f>L92+L93+L96+L97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <f>M92+M93+M96+M97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <f>N92+N93+N96+N97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <f>O92+O93+O96+O97</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -53867,56 +53866,56 @@
         <v>39</v>
       </c>
       <c r="C43" s="3">
-        <f>SUM(C41:C42)</f>
-        <v>-11363.75</v>
+        <f t="shared" ref="C43:N43" si="37">SUM(C41:C42)</f>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D43" s="3">
-        <f>SUM(D41:D42)</f>
-        <v>-59908.262500000004</v>
+        <f t="shared" si="37"/>
+        <v>-52351.238717999993</v>
       </c>
       <c r="E43" s="3">
-        <f>SUM(E41:E42)</f>
-        <v>-59869.088750000003</v>
+        <f t="shared" si="37"/>
+        <v>-51556.362589799995</v>
       </c>
       <c r="F43" s="3">
-        <f>SUM(F41:F42)</f>
-        <v>-59825.997624999996</v>
+        <f t="shared" si="37"/>
+        <v>-50681.998848779993</v>
       </c>
       <c r="G43" s="3">
-        <f>SUM(G41:G42)</f>
-        <v>-59732.347387499998</v>
+        <f t="shared" si="37"/>
+        <v>-28560.596200973981</v>
       </c>
       <c r="H43" s="3">
-        <f>SUM(H41:H42)</f>
-        <v>-59680.207126250003</v>
+        <f t="shared" si="37"/>
+        <v>-25386.655821071377</v>
       </c>
       <c r="I43" s="3">
-        <f>SUM(I41:I42)</f>
-        <v>-59622.852838874998</v>
+        <f t="shared" si="37"/>
+        <v>-21895.32140317851</v>
       </c>
       <c r="J43" s="3">
-        <f>SUM(J41:J42)</f>
-        <v>-59559.763122762495</v>
+        <f t="shared" si="37"/>
+        <v>-18054.853543496363</v>
       </c>
       <c r="K43" s="3">
-        <f>SUM(K41:K42)</f>
-        <v>-59490.364435038748</v>
+        <f t="shared" si="37"/>
+        <v>-13830.338897845981</v>
       </c>
       <c r="L43" s="3">
-        <f>SUM(L41:L42)</f>
-        <v>-59414.025878542627</v>
+        <f t="shared" si="37"/>
+        <v>-9183.3727876305875</v>
       </c>
       <c r="M43" s="3">
-        <f>SUM(M41:M42)</f>
-        <v>-59330.053466396887</v>
+        <f t="shared" si="37"/>
+        <v>-4071.710066393634</v>
       </c>
       <c r="N43" s="3">
-        <f>SUM(N41:N42)</f>
-        <v>-59237.68381303658</v>
+        <f t="shared" si="37"/>
+        <v>1551.1189269670149</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" ref="O43" si="17">SUM(O41:O42)</f>
-        <v>-59136.077194340236</v>
+        <f t="shared" ref="O43" si="38">SUM(O41:O42)</f>
+        <v>7736.2308196637168</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -53925,56 +53924,56 @@
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14">
-        <f>C40+C43</f>
-        <v>-11363.75</v>
+        <f t="shared" ref="C44:N44" si="39">C40+C43</f>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D44" s="14">
-        <f>D40+D43</f>
-        <v>-71272.012500000012</v>
+        <f t="shared" si="39"/>
+        <v>-63502.238717999993</v>
       </c>
       <c r="E44" s="14">
-        <f>E40+E43</f>
-        <v>-131141.10125000001</v>
+        <f t="shared" si="39"/>
+        <v>-115058.60130779998</v>
       </c>
       <c r="F44" s="14">
-        <f>F40+F43</f>
-        <v>-190967.098875</v>
+        <f t="shared" si="39"/>
+        <v>-165740.60015657998</v>
       </c>
       <c r="G44" s="14">
-        <f>G40+G43</f>
-        <v>-250699.44626249999</v>
+        <f t="shared" si="39"/>
+        <v>-194301.19635755397</v>
       </c>
       <c r="H44" s="14">
-        <f>H40+H43</f>
-        <v>-310379.65338874998</v>
+        <f t="shared" si="39"/>
+        <v>-219687.85217862536</v>
       </c>
       <c r="I44" s="14">
-        <f>I40+I43</f>
-        <v>-370002.50622762495</v>
+        <f t="shared" si="39"/>
+        <v>-241583.17358180386</v>
       </c>
       <c r="J44" s="14">
-        <f>J40+J43</f>
-        <v>-429562.26935038745</v>
+        <f t="shared" si="39"/>
+        <v>-259638.02712530023</v>
       </c>
       <c r="K44" s="14">
-        <f>K40+K43</f>
-        <v>-489052.63378542621</v>
+        <f t="shared" si="39"/>
+        <v>-273468.3660231462</v>
       </c>
       <c r="L44" s="14">
-        <f>L40+L43</f>
-        <v>-548466.65966396884</v>
+        <f t="shared" si="39"/>
+        <v>-282651.73881077679</v>
       </c>
       <c r="M44" s="14">
-        <f>M40+M43</f>
-        <v>-607796.71313036571</v>
+        <f t="shared" si="39"/>
+        <v>-286723.44887717045</v>
       </c>
       <c r="N44" s="14">
-        <f>N40+N43</f>
-        <v>-667034.39694340224</v>
+        <f t="shared" si="39"/>
+        <v>-285172.32995020342</v>
       </c>
       <c r="O44" s="14">
-        <f t="shared" ref="O44" si="18">O40+O43</f>
-        <v>-726170.47413774254</v>
+        <f t="shared" ref="O44" si="40">O40+O43</f>
+        <v>-277436.09913053969</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -53986,55 +53985,55 @@
         <v>13</v>
       </c>
       <c r="C45" s="3">
-        <f>IF(C44&lt;0,1,0)</f>
+        <f t="shared" ref="C45:N45" si="41">IF(C44&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="D45" s="3">
-        <f>IF(D44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="E45" s="3">
-        <f>IF(E44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <f>IF(F44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="G45" s="3">
-        <f>IF(G44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <f>IF(H44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I45" s="3">
-        <f>IF(I44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J45" s="3">
-        <f>IF(J44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="K45" s="3">
-        <f>IF(K44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="L45" s="3">
-        <f>IF(L44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="M45" s="3">
-        <f>IF(M44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="N45" s="3">
-        <f>IF(N44&lt;0,1,0)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" ref="O45" si="19">IF(O44&lt;0,1,0)</f>
+        <f t="shared" ref="O45" si="42">IF(O44&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -54062,60 +54061,60 @@
         <v>43</v>
       </c>
       <c r="B47" s="7">
-        <f>B48</f>
+        <f t="shared" ref="B47:N47" si="43">B48</f>
         <v>0</v>
       </c>
       <c r="C47" s="7">
-        <f>C48</f>
-        <v>-11363.75</v>
+        <f t="shared" si="43"/>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D47" s="7">
-        <f>D48</f>
-        <v>-71272.012500000012</v>
+        <f t="shared" si="43"/>
+        <v>-63502.238717999993</v>
       </c>
       <c r="E47" s="7">
-        <f>E48</f>
-        <v>-131141.10125000001</v>
+        <f t="shared" si="43"/>
+        <v>-115058.60130779998</v>
       </c>
       <c r="F47" s="7">
-        <f>F48</f>
-        <v>-190967.098875</v>
+        <f t="shared" si="43"/>
+        <v>-165740.60015657998</v>
       </c>
       <c r="G47" s="7">
-        <f>G48</f>
-        <v>-250699.44626249999</v>
+        <f t="shared" si="43"/>
+        <v>-194301.19635755397</v>
       </c>
       <c r="H47" s="7">
-        <f>H48</f>
-        <v>-310379.65338874998</v>
+        <f t="shared" si="43"/>
+        <v>-219687.85217862536</v>
       </c>
       <c r="I47" s="7">
-        <f>I48</f>
-        <v>-370002.50622762495</v>
+        <f t="shared" si="43"/>
+        <v>-241583.17358180386</v>
       </c>
       <c r="J47" s="7">
-        <f>J48</f>
-        <v>-429562.26935038745</v>
+        <f t="shared" si="43"/>
+        <v>-259638.02712530023</v>
       </c>
       <c r="K47" s="7">
-        <f>K48</f>
-        <v>-489052.63378542621</v>
+        <f t="shared" si="43"/>
+        <v>-273468.3660231462</v>
       </c>
       <c r="L47" s="7">
-        <f>L48</f>
-        <v>-548466.65966396884</v>
+        <f t="shared" si="43"/>
+        <v>-282651.73881077679</v>
       </c>
       <c r="M47" s="7">
-        <f>M48</f>
-        <v>-607796.71313036571</v>
+        <f t="shared" si="43"/>
+        <v>-286723.44887717045</v>
       </c>
       <c r="N47" s="7">
-        <f>N48</f>
-        <v>-667034.39694340224</v>
+        <f t="shared" si="43"/>
+        <v>-285172.32995020342</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47" si="20">O48</f>
-        <v>-726170.47413774254</v>
+        <f t="shared" ref="O47" si="44">O48</f>
+        <v>-277436.09913053969</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54126,56 +54125,56 @@
         <v>0</v>
       </c>
       <c r="C48" s="3">
-        <f>B48+C43</f>
-        <v>-11363.75</v>
+        <f t="shared" ref="C48:O48" si="45">B48+C43</f>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D48" s="3">
-        <f>C48+D43</f>
-        <v>-71272.012500000012</v>
+        <f t="shared" si="45"/>
+        <v>-63502.238717999993</v>
       </c>
       <c r="E48" s="3">
-        <f>D48+E43</f>
-        <v>-131141.10125000001</v>
+        <f t="shared" si="45"/>
+        <v>-115058.60130779998</v>
       </c>
       <c r="F48" s="3">
-        <f>E48+F43</f>
-        <v>-190967.098875</v>
+        <f t="shared" si="45"/>
+        <v>-165740.60015657998</v>
       </c>
       <c r="G48" s="3">
-        <f>F48+G43</f>
-        <v>-250699.44626249999</v>
+        <f t="shared" si="45"/>
+        <v>-194301.19635755397</v>
       </c>
       <c r="H48" s="3">
-        <f>G48+H43</f>
-        <v>-310379.65338874998</v>
+        <f t="shared" si="45"/>
+        <v>-219687.85217862536</v>
       </c>
       <c r="I48" s="3">
-        <f>H48+I43</f>
-        <v>-370002.50622762495</v>
+        <f t="shared" si="45"/>
+        <v>-241583.17358180386</v>
       </c>
       <c r="J48" s="3">
-        <f>I48+J43</f>
-        <v>-429562.26935038745</v>
+        <f t="shared" si="45"/>
+        <v>-259638.02712530023</v>
       </c>
       <c r="K48" s="3">
-        <f>J48+K43</f>
-        <v>-489052.63378542621</v>
+        <f t="shared" si="45"/>
+        <v>-273468.3660231462</v>
       </c>
       <c r="L48" s="3">
-        <f>K48+L43</f>
-        <v>-548466.65966396884</v>
+        <f t="shared" si="45"/>
+        <v>-282651.73881077679</v>
       </c>
       <c r="M48" s="3">
-        <f>L48+M43</f>
-        <v>-607796.71313036571</v>
+        <f t="shared" si="45"/>
+        <v>-286723.44887717045</v>
       </c>
       <c r="N48" s="3">
-        <f>M48+N43</f>
-        <v>-667034.39694340224</v>
+        <f t="shared" si="45"/>
+        <v>-285172.32995020342</v>
       </c>
       <c r="O48" s="3">
-        <f>N48+O43</f>
-        <v>-726170.47413774254</v>
+        <f t="shared" si="45"/>
+        <v>-277436.09913053969</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -54183,60 +54182,60 @@
         <v>45</v>
       </c>
       <c r="B49" s="7">
-        <f>SUM(B50:B53)</f>
+        <f t="shared" ref="B49:N49" si="46">SUM(B50:B53)</f>
         <v>0</v>
       </c>
       <c r="C49" s="7">
-        <f>SUM(C50:C53)</f>
-        <v>-11363.75</v>
+        <f t="shared" si="46"/>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D49" s="7">
-        <f>SUM(D50:D53)</f>
-        <v>-71272.012500000012</v>
+        <f t="shared" si="46"/>
+        <v>-63502.238717999993</v>
       </c>
       <c r="E49" s="7">
-        <f>SUM(E50:E53)</f>
-        <v>-131141.10125000001</v>
+        <f t="shared" si="46"/>
+        <v>-115058.60130779998</v>
       </c>
       <c r="F49" s="7">
-        <f>SUM(F50:F53)</f>
-        <v>-190967.098875</v>
+        <f t="shared" si="46"/>
+        <v>-165740.60015657998</v>
       </c>
       <c r="G49" s="7">
-        <f>SUM(G50:G53)</f>
-        <v>-250699.44626249999</v>
+        <f t="shared" si="46"/>
+        <v>-194301.19635755397</v>
       </c>
       <c r="H49" s="7">
-        <f>SUM(H50:H53)</f>
-        <v>-310379.65338874998</v>
+        <f t="shared" si="46"/>
+        <v>-219687.85217862536</v>
       </c>
       <c r="I49" s="7">
-        <f>SUM(I50:I53)</f>
-        <v>-370002.50622762495</v>
+        <f t="shared" si="46"/>
+        <v>-241583.17358180386</v>
       </c>
       <c r="J49" s="7">
-        <f>SUM(J50:J53)</f>
-        <v>-429562.26935038745</v>
+        <f t="shared" si="46"/>
+        <v>-259638.02712530023</v>
       </c>
       <c r="K49" s="7">
-        <f>SUM(K50:K53)</f>
-        <v>-489052.63378542621</v>
+        <f t="shared" si="46"/>
+        <v>-273468.3660231462</v>
       </c>
       <c r="L49" s="7">
-        <f>SUM(L50:L53)</f>
-        <v>-548466.65966396884</v>
+        <f t="shared" si="46"/>
+        <v>-282651.73881077679</v>
       </c>
       <c r="M49" s="7">
-        <f>SUM(M50:M53)</f>
-        <v>-607796.71313036571</v>
+        <f t="shared" si="46"/>
+        <v>-286723.44887717045</v>
       </c>
       <c r="N49" s="7">
-        <f>SUM(N50:N53)</f>
-        <v>-667034.39694340224</v>
+        <f t="shared" si="46"/>
+        <v>-285172.32995020342</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="21">SUM(O50:O53)</f>
-        <v>-726170.47413774254</v>
+        <f t="shared" ref="O49" si="47">SUM(O50:O53)</f>
+        <v>-277436.09913053969</v>
       </c>
       <c r="P49" s="7"/>
     </row>
@@ -54248,55 +54247,55 @@
         <v>0</v>
       </c>
       <c r="C50" s="3">
-        <f>B50+C92</f>
+        <f t="shared" ref="C50:O50" si="48">B50+C92</f>
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <f>C50+D92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E50" s="3">
-        <f>D50+E92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F50" s="3">
-        <f>E50+F92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <f>F50+G92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <f>G50+H92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I50" s="3">
-        <f>H50+I92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J50" s="3">
-        <f>I50+J92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K50" s="3">
-        <f>J50+K92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L50" s="3">
-        <f>K50+L92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M50" s="3">
-        <f>L50+M92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <f>M50+N92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O50" s="3">
-        <f>N50+O92</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P50" s="7"/>
@@ -54309,56 +54308,56 @@
         <v>0</v>
       </c>
       <c r="C51" s="3">
-        <f>B51+C33+C93</f>
-        <v>-11363.75</v>
+        <f t="shared" ref="C51:O51" si="49">B51+C33+C93</f>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D51" s="3">
-        <f>C51+D33+D93</f>
-        <v>-71272.012500000012</v>
+        <f t="shared" si="49"/>
+        <v>-63502.238717999993</v>
       </c>
       <c r="E51" s="3">
-        <f>D51+E33+E93</f>
-        <v>-131141.10125000001</v>
+        <f t="shared" si="49"/>
+        <v>-115058.60130779998</v>
       </c>
       <c r="F51" s="3">
-        <f>E51+F33+F93</f>
-        <v>-190967.098875</v>
+        <f t="shared" si="49"/>
+        <v>-165740.60015657998</v>
       </c>
       <c r="G51" s="3">
-        <f>F51+G33+G93</f>
-        <v>-250699.44626249999</v>
+        <f t="shared" si="49"/>
+        <v>-194301.19635755397</v>
       </c>
       <c r="H51" s="3">
-        <f>G51+H33+H93</f>
-        <v>-310379.65338874998</v>
+        <f t="shared" si="49"/>
+        <v>-219687.85217862536</v>
       </c>
       <c r="I51" s="3">
-        <f>H51+I33+I93</f>
-        <v>-370002.50622762495</v>
+        <f t="shared" si="49"/>
+        <v>-241583.17358180386</v>
       </c>
       <c r="J51" s="3">
-        <f>I51+J33+J93</f>
-        <v>-429562.26935038745</v>
+        <f t="shared" si="49"/>
+        <v>-259638.02712530023</v>
       </c>
       <c r="K51" s="3">
-        <f>J51+K33+K93</f>
-        <v>-489052.63378542621</v>
+        <f t="shared" si="49"/>
+        <v>-273468.3660231462</v>
       </c>
       <c r="L51" s="3">
-        <f>K51+L33+L93</f>
-        <v>-548466.65966396884</v>
+        <f t="shared" si="49"/>
+        <v>-282651.73881077679</v>
       </c>
       <c r="M51" s="3">
-        <f>L51+M33+M93</f>
-        <v>-607796.71313036571</v>
+        <f t="shared" si="49"/>
+        <v>-286723.44887717045</v>
       </c>
       <c r="N51" s="3">
-        <f>M51+N33+N93</f>
-        <v>-667034.39694340224</v>
+        <f t="shared" si="49"/>
+        <v>-285172.32995020342</v>
       </c>
       <c r="O51" s="3">
-        <f>N51+O33+O93</f>
-        <v>-726170.47413774254</v>
+        <f t="shared" si="49"/>
+        <v>-277436.09913053969</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -54369,55 +54368,55 @@
         <v>0</v>
       </c>
       <c r="C52" s="3">
-        <f>B52+C96+C97</f>
+        <f t="shared" ref="C52:O52" si="50">B52+C96+C97</f>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f>C52+D96+D97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <f>D52+E96+E97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <f>E52+F96+F97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <f>F52+G96+G97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <f>G52+H96+H97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <f>H52+I96+I97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <f>I52+J96+J97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <f>J52+K96+K97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <f>K52+L96+L97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <f>L52+M96+M97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <f>M52+N96+N97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <f>N52+O96+O97</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -54433,51 +54432,51 @@
         <v>0</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" ref="D53:O53" si="22">C53+0</f>
+        <f t="shared" ref="D53:O53" si="51">C53+0</f>
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -54486,56 +54485,56 @@
         <v>49</v>
       </c>
       <c r="C55" s="3">
-        <f>C41</f>
-        <v>-11363.75</v>
+        <f t="shared" ref="C55:N55" si="52">C41</f>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D55" s="3">
-        <f>D41</f>
-        <v>-59908.262500000004</v>
+        <f t="shared" si="52"/>
+        <v>-52351.238717999993</v>
       </c>
       <c r="E55" s="3">
-        <f>E41</f>
-        <v>-59869.088750000003</v>
+        <f t="shared" si="52"/>
+        <v>-51556.362589799995</v>
       </c>
       <c r="F55" s="3">
-        <f>F41</f>
-        <v>-59825.997624999996</v>
+        <f t="shared" si="52"/>
+        <v>-50681.998848779993</v>
       </c>
       <c r="G55" s="3">
-        <f>G41</f>
-        <v>-59732.347387499998</v>
+        <f t="shared" si="52"/>
+        <v>-28560.596200973981</v>
       </c>
       <c r="H55" s="3">
-        <f>H41</f>
-        <v>-59680.207126250003</v>
+        <f t="shared" si="52"/>
+        <v>-25386.655821071377</v>
       </c>
       <c r="I55" s="3">
-        <f>I41</f>
-        <v>-59622.852838874998</v>
+        <f t="shared" si="52"/>
+        <v>-21895.32140317851</v>
       </c>
       <c r="J55" s="3">
-        <f>J41</f>
-        <v>-59559.763122762495</v>
+        <f t="shared" si="52"/>
+        <v>-18054.853543496363</v>
       </c>
       <c r="K55" s="3">
-        <f>K41</f>
-        <v>-59490.364435038748</v>
+        <f t="shared" si="52"/>
+        <v>-13830.338897845981</v>
       </c>
       <c r="L55" s="3">
-        <f>L41</f>
-        <v>-59414.025878542627</v>
+        <f t="shared" si="52"/>
+        <v>-9183.3727876305875</v>
       </c>
       <c r="M55" s="3">
-        <f>M41</f>
-        <v>-59330.053466396887</v>
+        <f t="shared" si="52"/>
+        <v>-4071.710066393634</v>
       </c>
       <c r="N55" s="3">
-        <f>N41</f>
-        <v>-59237.68381303658</v>
+        <f t="shared" si="52"/>
+        <v>1551.1189269670149</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" ref="O55" si="23">O41</f>
-        <v>-59136.077194340236</v>
+        <f t="shared" ref="O55" si="53">O41</f>
+        <v>7736.2308196637168</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54545,55 +54544,55 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3">
         <f>SUM($C55:C55)</f>
-        <v>-11363.75</v>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D56" s="3">
         <f>SUM($C55:D55)</f>
-        <v>-71272.012500000012</v>
+        <v>-63502.238717999993</v>
       </c>
       <c r="E56" s="3">
         <f>SUM($C55:E55)</f>
-        <v>-131141.10125000001</v>
+        <v>-115058.60130779998</v>
       </c>
       <c r="F56" s="3">
         <f>SUM($C55:F55)</f>
-        <v>-190967.098875</v>
+        <v>-165740.60015657998</v>
       </c>
       <c r="G56" s="3">
         <f>SUM($C55:G55)</f>
-        <v>-250699.44626249999</v>
+        <v>-194301.19635755397</v>
       </c>
       <c r="H56" s="3">
         <f>SUM($C55:H55)</f>
-        <v>-310379.65338874998</v>
+        <v>-219687.85217862536</v>
       </c>
       <c r="I56" s="3">
         <f>SUM($C55:I55)</f>
-        <v>-370002.50622762495</v>
+        <v>-241583.17358180386</v>
       </c>
       <c r="J56" s="3">
         <f>SUM($C55:J55)</f>
-        <v>-429562.26935038745</v>
+        <v>-259638.02712530023</v>
       </c>
       <c r="K56" s="3">
         <f>SUM($C55:K55)</f>
-        <v>-489052.63378542621</v>
+        <v>-273468.3660231462</v>
       </c>
       <c r="L56" s="3">
         <f>SUM($C55:L55)</f>
-        <v>-548466.65966396884</v>
+        <v>-282651.73881077679</v>
       </c>
       <c r="M56" s="3">
         <f>SUM($C55:M55)</f>
-        <v>-607796.71313036571</v>
+        <v>-286723.44887717045</v>
       </c>
       <c r="N56" s="3">
         <f>SUM($C55:N55)</f>
-        <v>-667034.39694340224</v>
+        <v>-285172.32995020342</v>
       </c>
       <c r="O56" s="3">
         <f>SUM($C55:O55)</f>
-        <v>-726170.47413774254</v>
+        <v>-277436.09913053969</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -54618,56 +54617,56 @@
         <v>51</v>
       </c>
       <c r="C58" s="3">
-        <f>C55/(1+$B$62)^C2</f>
-        <v>-11363.75</v>
+        <f t="shared" ref="C58:O58" si="54">C55/(1+$B$62)^C2</f>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D58" s="3">
-        <f>D55/(1+$B$62)^D2</f>
-        <v>-58392.689888671761</v>
+        <f t="shared" si="54"/>
+        <v>-51026.845382938613</v>
       </c>
       <c r="E58" s="3">
-        <f>E55/(1+$B$62)^E2</f>
-        <v>-56878.24180327975</v>
+        <f t="shared" si="54"/>
+        <v>-48980.789905211481</v>
       </c>
       <c r="F58" s="3">
-        <f>F55/(1+$B$62)^F2</f>
-        <v>-55399.420557035941</v>
+        <f t="shared" si="54"/>
+        <v>-46931.99412225889</v>
       </c>
       <c r="G58" s="3">
-        <f>G55/(1+$B$62)^G2</f>
-        <v>-53913.386547508388</v>
+        <f t="shared" si="54"/>
+        <v>-25778.301546083865</v>
       </c>
       <c r="H58" s="3">
-        <f>H55/(1+$B$62)^H2</f>
-        <v>-52503.603304228636</v>
+        <f t="shared" si="54"/>
+        <v>-22333.885397395912</v>
       </c>
       <c r="I58" s="3">
-        <f>I55/(1+$B$62)^I2</f>
-        <v>-51126.17452013537</v>
+        <f t="shared" si="54"/>
+        <v>-18775.083209428019</v>
       </c>
       <c r="J58" s="3">
-        <f>J55/(1+$B$62)^J2</f>
-        <v>-49780.042755859969</v>
+        <f t="shared" si="54"/>
+        <v>-15090.244390218993</v>
       </c>
       <c r="K58" s="3">
-        <f>K55/(1+$B$62)^K2</f>
-        <v>-48464.160079396221</v>
+        <f t="shared" si="54"/>
+        <v>-11266.963392524247</v>
       </c>
       <c r="L58" s="3">
-        <f>L55/(1+$B$62)^L2</f>
-        <v>-47177.486581049525</v>
+        <f t="shared" si="54"/>
+        <v>-7292.0230543354764</v>
       </c>
       <c r="M58" s="3">
-        <f>M55/(1+$B$62)^M2</f>
-        <v>-45918.988836135031</v>
+        <f t="shared" si="54"/>
+        <v>-3151.3339051447597</v>
       </c>
       <c r="N58" s="3">
-        <f>N55/(1+$B$62)^N2</f>
-        <v>-44687.638310264061</v>
+        <f t="shared" si="54"/>
+        <v>1170.130854597194</v>
       </c>
       <c r="O58" s="3">
-        <f>O55/(1+$B$62)^O2</f>
-        <v>-43482.409701720724</v>
+        <f t="shared" si="54"/>
+        <v>5688.4050144586099</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -54676,55 +54675,55 @@
       </c>
       <c r="C59" s="3">
         <f>SUM($C58:C58)</f>
-        <v>-11363.75</v>
+        <v>-11150.999999999996</v>
       </c>
       <c r="D59" s="3">
         <f>SUM($C58:D58)</f>
-        <v>-69756.439888671768</v>
+        <v>-62177.845382938613</v>
       </c>
       <c r="E59" s="3">
         <f>SUM($C58:E58)</f>
-        <v>-126634.68169195153</v>
+        <v>-111158.63528815009</v>
       </c>
       <c r="F59" s="3">
         <f>SUM($C58:F58)</f>
-        <v>-182034.10224898747</v>
+        <v>-158090.62941040899</v>
       </c>
       <c r="G59" s="3">
         <f>SUM($C58:G58)</f>
-        <v>-235947.48879649586</v>
+        <v>-183868.93095649284</v>
       </c>
       <c r="H59" s="3">
         <f>SUM($C58:H58)</f>
-        <v>-288451.09210072452</v>
+        <v>-206202.81635388875</v>
       </c>
       <c r="I59" s="3">
         <f>SUM($C58:I58)</f>
-        <v>-339577.26662085991</v>
+        <v>-224977.89956331678</v>
       </c>
       <c r="J59" s="3">
         <f>SUM($C58:J58)</f>
-        <v>-389357.30937671987</v>
+        <v>-240068.14395353576</v>
       </c>
       <c r="K59" s="3">
         <f>SUM($C58:K58)</f>
-        <v>-437821.46945611609</v>
+        <v>-251335.10734606002</v>
       </c>
       <c r="L59" s="3">
         <f>SUM($C58:L58)</f>
-        <v>-484998.9560371656</v>
+        <v>-258627.13040039549</v>
       </c>
       <c r="M59" s="3">
         <f>SUM($C58:M58)</f>
-        <v>-530917.94487330061</v>
+        <v>-261778.46430554026</v>
       </c>
       <c r="N59" s="3">
         <f>SUM($C58:N58)</f>
-        <v>-575605.58318356471</v>
+        <v>-260608.33345094306</v>
       </c>
       <c r="O59" s="3">
         <f>SUM($C58:O58)</f>
-        <v>-619087.99288528541</v>
+        <v>-254919.92843648445</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54782,7 +54781,7 @@
       </c>
       <c r="B64" s="3">
         <f>O59</f>
-        <v>-619087.99288528541</v>
+        <v>-254919.92843648445</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>

--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -2568,10 +2568,10 @@
   <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/doc/Финмодель BOT.xlsx
+++ b/doc/Финмодель BOT.xlsx
@@ -2568,10 +2568,10 @@
   <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
